--- a/Architecture Results.xlsx
+++ b/Architecture Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3658D88-C137-4D4B-8FDC-72A653960F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879DDEE4-49A6-4994-821E-C7140D647A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="11">
   <si>
     <t>Epoch</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Training Accuracy vs Epoch</t>
+  </si>
+  <si>
+    <t>Training loss vs Validation Loss</t>
   </si>
 </sst>
 </file>
@@ -1739,13 +1742,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>596822</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1771,6 +1774,56 @@
         <a:xfrm>
           <a:off x="90488" y="6038851"/>
           <a:ext cx="2449434" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>122635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62AEDC88-DC2F-E868-C8E0-A89938B54C02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="6186487"/>
+          <a:ext cx="4462463" cy="3346848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2901,7 +2954,7 @@
   <dimension ref="A1:R152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3443,9 +3496,6 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="O33">
         <v>31</v>
       </c>
@@ -3462,6 +3512,9 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="O34">
         <v>32</v>
       </c>
@@ -3701,7 +3754,7 @@
         <v>76.5625</v>
       </c>
     </row>
-    <row r="49" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O49">
         <v>47</v>
       </c>
@@ -3717,7 +3770,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O50">
         <v>48</v>
       </c>
@@ -3733,7 +3786,7 @@
         <v>78.125</v>
       </c>
     </row>
-    <row r="51" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O51">
         <v>49</v>
       </c>
@@ -3749,7 +3802,7 @@
         <v>65.625</v>
       </c>
     </row>
-    <row r="52" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O52">
         <v>50</v>
       </c>
@@ -3765,7 +3818,7 @@
         <v>78.125</v>
       </c>
     </row>
-    <row r="53" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O53">
         <v>51</v>
       </c>
@@ -3781,7 +3834,7 @@
         <v>78.125</v>
       </c>
     </row>
-    <row r="54" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O54">
         <v>52</v>
       </c>
@@ -3797,7 +3850,10 @@
         <v>76.5625</v>
       </c>
     </row>
-    <row r="55" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="O55">
         <v>53</v>
       </c>
@@ -3813,7 +3869,7 @@
         <v>78.125</v>
       </c>
     </row>
-    <row r="56" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O56">
         <v>54</v>
       </c>
@@ -3829,7 +3885,7 @@
         <v>81.25</v>
       </c>
     </row>
-    <row r="57" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O57">
         <v>55</v>
       </c>
@@ -3845,7 +3901,7 @@
         <v>79.6875</v>
       </c>
     </row>
-    <row r="58" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O58">
         <v>56</v>
       </c>
@@ -3861,7 +3917,7 @@
         <v>78.125</v>
       </c>
     </row>
-    <row r="59" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O59">
         <v>57</v>
       </c>
@@ -3877,7 +3933,7 @@
         <v>79.6875</v>
       </c>
     </row>
-    <row r="60" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O60">
         <v>58</v>
       </c>
@@ -3893,7 +3949,7 @@
         <v>85.9375</v>
       </c>
     </row>
-    <row r="61" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O61">
         <v>59</v>
       </c>
@@ -3909,7 +3965,7 @@
         <v>84.375</v>
       </c>
     </row>
-    <row r="62" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O62">
         <v>60</v>
       </c>
@@ -3925,7 +3981,7 @@
         <v>71.875</v>
       </c>
     </row>
-    <row r="63" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O63">
         <v>61</v>
       </c>
@@ -3941,7 +3997,7 @@
         <v>79.6875</v>
       </c>
     </row>
-    <row r="64" spans="15:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="O64">
         <v>62</v>
       </c>

--- a/Architecture Results.xlsx
+++ b/Architecture Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879DDEE4-49A6-4994-821E-C7140D647A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC063CE-FC42-4A18-ACFB-924CB47F4A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
   </bookViews>
   <sheets>
     <sheet name="Arc CNN" sheetId="1" r:id="rId1"/>
+    <sheet name="Arc CNN Multi" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="14">
   <si>
     <t>Epoch</t>
   </si>
@@ -84,29 +85,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Architecture:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Aded CNN Seqiential layers instead of Feed Forward Neural Network</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Average WRA:</t>
     </r>
     <r>
@@ -131,6 +109,78 @@
   </si>
   <si>
     <t>Training loss vs Validation Loss</t>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f597e870b20&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Architecture:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Aded CNN Sequential layers instead of Feed Forward Neural Network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Average WRA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 83%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Architecture:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Added mutiple attention, sequential cnn layers</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -246,17 +296,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.3136482939632545E-2"/>
-          <c:y val="0.19486111111111112"/>
-          <c:w val="0.87119685039370076"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -265,7 +305,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$D$9</c:f>
+              <c:f>'Arc CNN'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -286,318 +326,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$C$10:$C$109</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$D$10:$D$109</c:f>
+              <c:f>'Arc CNN'!$R$2:$R$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -907,7 +638,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A1C5-40A4-8D94-7391F32FF5B9}"/>
+              <c16:uniqueId val="{00000000-4809-42A9-8A3E-DFB688ABCD28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -919,11 +650,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="742091328"/>
-        <c:axId val="742088000"/>
+        <c:axId val="432098544"/>
+        <c:axId val="432099376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="742091328"/>
+        <c:axId val="432098544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,7 +674,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -980,12 +710,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="742088000"/>
+        <c:crossAx val="432099376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="742088000"/>
+        <c:axId val="432099376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +772,599 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="742091328"/>
+        <c:crossAx val="432098544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>WRA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Arc CNN Multi'!$Q$2:$Q$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.1875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>84.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F119-4FCE-9A2F-3040C595633D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="370747216"/>
+        <c:axId val="370742224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="370747216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370742224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="370742224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370747216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1099,6 +1421,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1654,46 +2016,524 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100014</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{569279E8-8341-4467-8FF4-18B36E4A0D8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1721,7 +2561,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1765,7 +2605,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1809,7 +2649,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1832,6 +2672,225 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFD0C681-AAFF-417B-AB7F-36E26B9ACCCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504852</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA80005-5435-1981-83C9-A0CDC7761961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="461962"/>
+          <a:ext cx="3743352" cy="4267231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FBBCD66-E821-4CD0-A129-BFA22E6CF335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>36909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7CF074-B1EA-C92F-315D-D9BCD7325011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="128587" y="8543925"/>
+          <a:ext cx="4824413" cy="3618309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596822</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA3BDE5-B357-4FC7-8A2C-5C95A05BD16A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="90488" y="10020301"/>
+          <a:ext cx="2449434" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1842,813 +2901,7 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="D9" t="str">
-            <v>WRA</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>1</v>
-          </cell>
-          <cell r="D10">
-            <v>1.5625</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>2</v>
-          </cell>
-          <cell r="D11">
-            <v>18.75</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>3</v>
-          </cell>
-          <cell r="D12">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>4</v>
-          </cell>
-          <cell r="D13">
-            <v>56.25</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>5</v>
-          </cell>
-          <cell r="D14">
-            <v>59.375</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>6</v>
-          </cell>
-          <cell r="D15">
-            <v>64.0625</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>7</v>
-          </cell>
-          <cell r="D16">
-            <v>67.1875</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>8</v>
-          </cell>
-          <cell r="D17">
-            <v>73.4375</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>9</v>
-          </cell>
-          <cell r="D18">
-            <v>65.625</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>10</v>
-          </cell>
-          <cell r="D19">
-            <v>60.9375</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>11</v>
-          </cell>
-          <cell r="D20">
-            <v>71.875</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>12</v>
-          </cell>
-          <cell r="D21">
-            <v>60.9375</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>13</v>
-          </cell>
-          <cell r="D22">
-            <v>67.1875</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>14</v>
-          </cell>
-          <cell r="D23">
-            <v>67.1875</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>15</v>
-          </cell>
-          <cell r="D24">
-            <v>64.0625</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>16</v>
-          </cell>
-          <cell r="D25">
-            <v>68.75</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>17</v>
-          </cell>
-          <cell r="D26">
-            <v>73.4375</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>18</v>
-          </cell>
-          <cell r="D27">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>19</v>
-          </cell>
-          <cell r="D28">
-            <v>71.875</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>20</v>
-          </cell>
-          <cell r="D29">
-            <v>71.875</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>21</v>
-          </cell>
-          <cell r="D30">
-            <v>70.3125</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>22</v>
-          </cell>
-          <cell r="D31">
-            <v>67.1875</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>23</v>
-          </cell>
-          <cell r="D32">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>24</v>
-          </cell>
-          <cell r="D33">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>25</v>
-          </cell>
-          <cell r="D34">
-            <v>68.75</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>26</v>
-          </cell>
-          <cell r="D35">
-            <v>65.625</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>27</v>
-          </cell>
-          <cell r="D36">
-            <v>76.5625</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>28</v>
-          </cell>
-          <cell r="D37">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>29</v>
-          </cell>
-          <cell r="D38">
-            <v>67.1875</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>30</v>
-          </cell>
-          <cell r="D39">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>31</v>
-          </cell>
-          <cell r="D40">
-            <v>65.625</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>32</v>
-          </cell>
-          <cell r="D41">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>33</v>
-          </cell>
-          <cell r="D42">
-            <v>67.1875</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>34</v>
-          </cell>
-          <cell r="D43">
-            <v>71.875</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>35</v>
-          </cell>
-          <cell r="D44">
-            <v>76.5625</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>36</v>
-          </cell>
-          <cell r="D45">
-            <v>76.5625</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>37</v>
-          </cell>
-          <cell r="D46">
-            <v>82.8125</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>38</v>
-          </cell>
-          <cell r="D47">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>39</v>
-          </cell>
-          <cell r="D48">
-            <v>76.5625</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>40</v>
-          </cell>
-          <cell r="D49">
-            <v>76.5625</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>41</v>
-          </cell>
-          <cell r="D50">
-            <v>59.375</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>42</v>
-          </cell>
-          <cell r="D51">
-            <v>68.75</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>43</v>
-          </cell>
-          <cell r="D52">
-            <v>71.875</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>44</v>
-          </cell>
-          <cell r="D53">
-            <v>76.5625</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>45</v>
-          </cell>
-          <cell r="D54">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>46</v>
-          </cell>
-          <cell r="D55">
-            <v>62.5</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>47</v>
-          </cell>
-          <cell r="D56">
-            <v>76.5625</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>48</v>
-          </cell>
-          <cell r="D57">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>49</v>
-          </cell>
-          <cell r="D58">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>50</v>
-          </cell>
-          <cell r="D59">
-            <v>65.625</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>51</v>
-          </cell>
-          <cell r="D60">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>52</v>
-          </cell>
-          <cell r="D61">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>53</v>
-          </cell>
-          <cell r="D62">
-            <v>76.5625</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>54</v>
-          </cell>
-          <cell r="D63">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>55</v>
-          </cell>
-          <cell r="D64">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>56</v>
-          </cell>
-          <cell r="D65">
-            <v>79.6875</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>57</v>
-          </cell>
-          <cell r="D66">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67">
-            <v>58</v>
-          </cell>
-          <cell r="D67">
-            <v>79.6875</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>59</v>
-          </cell>
-          <cell r="D68">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>60</v>
-          </cell>
-          <cell r="D69">
-            <v>84.375</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>61</v>
-          </cell>
-          <cell r="D70">
-            <v>71.875</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>62</v>
-          </cell>
-          <cell r="D71">
-            <v>79.6875</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>63</v>
-          </cell>
-          <cell r="D72">
-            <v>84.375</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>64</v>
-          </cell>
-          <cell r="D73">
-            <v>73.4375</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>65</v>
-          </cell>
-          <cell r="D74">
-            <v>87.5</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>66</v>
-          </cell>
-          <cell r="D75">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>67</v>
-          </cell>
-          <cell r="D76">
-            <v>82.8125</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>68</v>
-          </cell>
-          <cell r="D77">
-            <v>82.8125</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>69</v>
-          </cell>
-          <cell r="D78">
-            <v>82.8125</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>70</v>
-          </cell>
-          <cell r="D79">
-            <v>84.375</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>71</v>
-          </cell>
-          <cell r="D80">
-            <v>79.6875</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>72</v>
-          </cell>
-          <cell r="D81">
-            <v>82.8125</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82">
-            <v>73</v>
-          </cell>
-          <cell r="D82">
-            <v>84.375</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83">
-            <v>74</v>
-          </cell>
-          <cell r="D83">
-            <v>82.8125</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84">
-            <v>75</v>
-          </cell>
-          <cell r="D84">
-            <v>84.375</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85">
-            <v>76</v>
-          </cell>
-          <cell r="D85">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86">
-            <v>77</v>
-          </cell>
-          <cell r="D86">
-            <v>76.5625</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87">
-            <v>78</v>
-          </cell>
-          <cell r="D87">
-            <v>79.6875</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88">
-            <v>79</v>
-          </cell>
-          <cell r="D88">
-            <v>76.5625</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89">
-            <v>80</v>
-          </cell>
-          <cell r="D89">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90">
-            <v>81</v>
-          </cell>
-          <cell r="D90">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>82</v>
-          </cell>
-          <cell r="D91">
-            <v>85.9375</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92">
-            <v>83</v>
-          </cell>
-          <cell r="D92">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93">
-            <v>84</v>
-          </cell>
-          <cell r="D93">
-            <v>82.8125</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94">
-            <v>85</v>
-          </cell>
-          <cell r="D94">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95">
-            <v>86</v>
-          </cell>
-          <cell r="D95">
-            <v>82.8125</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96">
-            <v>87</v>
-          </cell>
-          <cell r="D96">
-            <v>79.6875</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97">
-            <v>88</v>
-          </cell>
-          <cell r="D97">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98">
-            <v>89</v>
-          </cell>
-          <cell r="D98">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99">
-            <v>90</v>
-          </cell>
-          <cell r="D99">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100">
-            <v>91</v>
-          </cell>
-          <cell r="D100">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101">
-            <v>92</v>
-          </cell>
-          <cell r="D101">
-            <v>78.125</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="C102">
-            <v>93</v>
-          </cell>
-          <cell r="D102">
-            <v>79.6875</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="C103">
-            <v>94</v>
-          </cell>
-          <cell r="D103">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="C104">
-            <v>95</v>
-          </cell>
-          <cell r="D104">
-            <v>79.6875</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="C105">
-            <v>96</v>
-          </cell>
-          <cell r="D105">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="C106">
-            <v>97</v>
-          </cell>
-          <cell r="D106">
-            <v>81.25</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="C107">
-            <v>98</v>
-          </cell>
-          <cell r="D107">
-            <v>79.6875</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="C108">
-            <v>99</v>
-          </cell>
-          <cell r="D108">
-            <v>82.8125</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="C109">
-            <v>100</v>
-          </cell>
-          <cell r="D109">
-            <v>82.8125</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2953,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4425E437-3018-4628-9858-A8E9E43C8840}">
   <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2965,11 +3218,11 @@
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2"/>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1" t="s">
         <v>0</v>
@@ -2986,7 +3239,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3220,7 +3473,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3513,7 +3766,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O34">
         <v>32</v>
@@ -3852,7 +4105,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O55">
         <v>53</v>
@@ -5432,4 +5685,1948 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0599E-5316-431B-B668-C7523689B4C6}">
+  <dimension ref="A1:Q118"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:E87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="14" max="15" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f xml:space="preserve"> N2+1</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>100 - (O2*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.828125</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="0" xml:space="preserve"> N3+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f>100 - (O3*100)</f>
+        <v>17.1875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0.515625</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q67" si="1">100 - (O4*100)</f>
+        <v>48.4375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0.46875</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>53.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>0.421875</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>57.8125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.421875</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>57.8125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.40625</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>0.359375</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>0.328125</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>0.296875</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>0.25</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>0.3125</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>0.359375</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>0.265625</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0.359375</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>0.390625</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>0.296875</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>0.375</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>0.265625</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>0.296875</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>0.390625</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>0.359375</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>0.390625</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>0.171875</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>0.234375</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>0.296875</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="N28">
+        <v>26</v>
+      </c>
+      <c r="O28">
+        <v>0.359375</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <v>0.265625</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N30">
+        <v>28</v>
+      </c>
+      <c r="O30">
+        <v>0.328125</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>0.3125</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>0.25</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N33">
+        <v>31</v>
+      </c>
+      <c r="O33">
+        <v>0.21875</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N34">
+        <v>32</v>
+      </c>
+      <c r="O34">
+        <v>0.1875</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N35">
+        <v>33</v>
+      </c>
+      <c r="O35">
+        <v>0.25</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N36">
+        <v>34</v>
+      </c>
+      <c r="O36">
+        <v>0.3125</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37">
+        <v>0.359375</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N38">
+        <v>36</v>
+      </c>
+      <c r="O38">
+        <v>0.234375</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N39">
+        <v>37</v>
+      </c>
+      <c r="O39">
+        <v>0.28125</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N40">
+        <v>38</v>
+      </c>
+      <c r="O40">
+        <v>0.328125</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N41">
+        <v>39</v>
+      </c>
+      <c r="O41">
+        <v>0.3125</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N42">
+        <v>40</v>
+      </c>
+      <c r="O42">
+        <v>0.375</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N43">
+        <v>41</v>
+      </c>
+      <c r="O43">
+        <v>0.328125</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N44">
+        <v>42</v>
+      </c>
+      <c r="O44">
+        <v>0.3125</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N45">
+        <v>43</v>
+      </c>
+      <c r="O45">
+        <v>0.25</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N46">
+        <v>44</v>
+      </c>
+      <c r="O46">
+        <v>0.3125</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47">
+        <v>45</v>
+      </c>
+      <c r="O47">
+        <v>0.28125</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N48">
+        <v>46</v>
+      </c>
+      <c r="O48">
+        <v>0.234375</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="49" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N49">
+        <v>47</v>
+      </c>
+      <c r="O49">
+        <v>0.265625</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="50" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N50">
+        <v>48</v>
+      </c>
+      <c r="O50">
+        <v>0.328125</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="51" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N51">
+        <v>49</v>
+      </c>
+      <c r="O51">
+        <v>0.359375</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="52" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>0.453125</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>54.6875</v>
+      </c>
+    </row>
+    <row r="53" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N53">
+        <v>51</v>
+      </c>
+      <c r="O53">
+        <v>0.3125</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="54" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N54">
+        <v>52</v>
+      </c>
+      <c r="O54">
+        <v>0.296875</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="55" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N55">
+        <v>53</v>
+      </c>
+      <c r="O55">
+        <v>0.28125</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="56" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N56">
+        <v>54</v>
+      </c>
+      <c r="O56">
+        <v>0.28125</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="57" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N57">
+        <v>55</v>
+      </c>
+      <c r="O57">
+        <v>0.25</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N58">
+        <v>56</v>
+      </c>
+      <c r="O58">
+        <v>0.171875</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="59" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N59">
+        <v>57</v>
+      </c>
+      <c r="O59">
+        <v>0.203125</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="60" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N60">
+        <v>58</v>
+      </c>
+      <c r="O60">
+        <v>0.21875</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="61" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N61">
+        <v>59</v>
+      </c>
+      <c r="O61">
+        <v>0.21875</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="62" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N62">
+        <v>60</v>
+      </c>
+      <c r="O62">
+        <v>0.234375</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="63" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N63">
+        <v>61</v>
+      </c>
+      <c r="O63">
+        <v>0.203125</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="64" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N64">
+        <v>62</v>
+      </c>
+      <c r="O64">
+        <v>0.25</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N65">
+        <v>63</v>
+      </c>
+      <c r="O65">
+        <v>0.203125</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N66">
+        <v>64</v>
+      </c>
+      <c r="O66">
+        <v>0.25</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N67">
+        <v>65</v>
+      </c>
+      <c r="O67">
+        <v>0.171875</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P118" si="2" xml:space="preserve"> N67+1</f>
+        <v>66</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N68">
+        <v>66</v>
+      </c>
+      <c r="O68">
+        <v>0.1875</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" ref="Q68:Q120" si="3">100 - (O68*100)</f>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N69">
+        <v>67</v>
+      </c>
+      <c r="O69">
+        <v>0.1875</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N70">
+        <v>68</v>
+      </c>
+      <c r="O70">
+        <v>0.140625</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N71">
+        <v>69</v>
+      </c>
+      <c r="O71">
+        <v>0.15625</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N72">
+        <v>70</v>
+      </c>
+      <c r="O72">
+        <v>0.171875</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N73">
+        <v>71</v>
+      </c>
+      <c r="O73">
+        <v>0.234375</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N74">
+        <v>72</v>
+      </c>
+      <c r="O74">
+        <v>0.1875</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N75">
+        <v>73</v>
+      </c>
+      <c r="O75">
+        <v>0.171875</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N76">
+        <v>74</v>
+      </c>
+      <c r="O76">
+        <v>0.1875</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N77">
+        <v>75</v>
+      </c>
+      <c r="O77">
+        <v>0.125</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N78">
+        <v>76</v>
+      </c>
+      <c r="O78">
+        <v>0.171875</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N79">
+        <v>77</v>
+      </c>
+      <c r="O79">
+        <v>0.15625</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N80">
+        <v>78</v>
+      </c>
+      <c r="O80">
+        <v>0.15625</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="81" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N81">
+        <v>79</v>
+      </c>
+      <c r="O81">
+        <v>0.15625</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="82" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N82">
+        <v>80</v>
+      </c>
+      <c r="O82">
+        <v>0.1875</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="83" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N83">
+        <v>81</v>
+      </c>
+      <c r="O83">
+        <v>0.171875</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="84" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N84">
+        <v>82</v>
+      </c>
+      <c r="O84">
+        <v>0.15625</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="85" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N85">
+        <v>83</v>
+      </c>
+      <c r="O85">
+        <v>0.1875</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="86" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N86">
+        <v>84</v>
+      </c>
+      <c r="O86">
+        <v>0.1875</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="87" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N87">
+        <v>85</v>
+      </c>
+      <c r="O87">
+        <v>0.171875</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="88" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N88">
+        <v>86</v>
+      </c>
+      <c r="O88">
+        <v>0.125</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="89" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N89">
+        <v>87</v>
+      </c>
+      <c r="O89">
+        <v>0.203125</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="90" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N90">
+        <v>88</v>
+      </c>
+      <c r="O90">
+        <v>0.15625</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="91" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N91">
+        <v>89</v>
+      </c>
+      <c r="O91">
+        <v>0.15625</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="92" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N92">
+        <v>90</v>
+      </c>
+      <c r="O92">
+        <v>0.140625</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="93" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N93">
+        <v>91</v>
+      </c>
+      <c r="O93">
+        <v>0.125</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="94" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N94">
+        <v>92</v>
+      </c>
+      <c r="O94">
+        <v>0.140625</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="95" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N95">
+        <v>93</v>
+      </c>
+      <c r="O95">
+        <v>0.15625</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="96" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N96">
+        <v>94</v>
+      </c>
+      <c r="O96">
+        <v>0.15625</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="97" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N97">
+        <v>95</v>
+      </c>
+      <c r="O97">
+        <v>0.15625</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="98" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N98">
+        <v>96</v>
+      </c>
+      <c r="O98">
+        <v>0.15625</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="99" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N99">
+        <v>97</v>
+      </c>
+      <c r="O99">
+        <v>0.15625</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="100" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N100">
+        <v>98</v>
+      </c>
+      <c r="O100">
+        <v>0.15625</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="101" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N101">
+        <v>99</v>
+      </c>
+      <c r="O101">
+        <v>0.15625</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="102" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N102" t="s">
+        <v>10</v>
+      </c>
+      <c r="O102">
+        <v>0.15625</v>
+      </c>
+      <c r="P102" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="103" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N103" t="s">
+        <v>10</v>
+      </c>
+      <c r="O103">
+        <v>0.1875</v>
+      </c>
+      <c r="P103" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="104" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N104" t="s">
+        <v>10</v>
+      </c>
+      <c r="O104">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P104" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="105" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N105" t="s">
+        <v>10</v>
+      </c>
+      <c r="O105">
+        <v>0.15625</v>
+      </c>
+      <c r="P105" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="106" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N106" t="s">
+        <v>10</v>
+      </c>
+      <c r="O106">
+        <v>0.234375</v>
+      </c>
+      <c r="P106" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="107" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N107" t="s">
+        <v>10</v>
+      </c>
+      <c r="O107">
+        <v>0.140625</v>
+      </c>
+      <c r="P107" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="108" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N108" t="s">
+        <v>10</v>
+      </c>
+      <c r="O108">
+        <v>0.1875</v>
+      </c>
+      <c r="P108" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="109" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N109" t="s">
+        <v>10</v>
+      </c>
+      <c r="O109">
+        <v>0.15625</v>
+      </c>
+      <c r="P109" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="110" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N110" t="s">
+        <v>10</v>
+      </c>
+      <c r="O110">
+        <v>0.15625</v>
+      </c>
+      <c r="P110" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="111" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N111" t="s">
+        <v>10</v>
+      </c>
+      <c r="O111">
+        <v>0.125</v>
+      </c>
+      <c r="P111" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="112" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N112" t="s">
+        <v>10</v>
+      </c>
+      <c r="O112">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="P112" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="113" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N113" t="s">
+        <v>10</v>
+      </c>
+      <c r="O113">
+        <v>0.203125</v>
+      </c>
+      <c r="P113" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="114" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N114" t="s">
+        <v>10</v>
+      </c>
+      <c r="O114">
+        <v>0.109375</v>
+      </c>
+      <c r="P114" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="115" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N115" t="s">
+        <v>10</v>
+      </c>
+      <c r="O115">
+        <v>0.109375</v>
+      </c>
+      <c r="P115" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="116" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N116" t="s">
+        <v>10</v>
+      </c>
+      <c r="O116">
+        <v>0.109375</v>
+      </c>
+      <c r="P116" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="117" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N117" t="s">
+        <v>10</v>
+      </c>
+      <c r="O117">
+        <v>0.1875</v>
+      </c>
+      <c r="P117" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="118" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N118" t="s">
+        <v>10</v>
+      </c>
+      <c r="O118">
+        <v>0.28125</v>
+      </c>
+      <c r="P118" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="3"/>
+        <v>71.875</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A28:C28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Architecture Results.xlsx
+++ b/Architecture Results.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC063CE-FC42-4A18-ACFB-924CB47F4A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617963A6-4282-43C9-A7A0-CAD0B6FF5378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arc CNN" sheetId="1" r:id="rId1"/>
-    <sheet name="Arc CNN Multi" sheetId="2" r:id="rId2"/>
+    <sheet name="CNN" sheetId="1" r:id="rId1"/>
+    <sheet name="CNN Two layers" sheetId="2" r:id="rId2"/>
+    <sheet name="CNN + FNN (Dense)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="17">
   <si>
     <t>Epoch</t>
   </si>
@@ -182,6 +180,55 @@
       <t xml:space="preserve"> Added mutiple attention, sequential cnn layers</t>
     </r>
   </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7f7302e31b80&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Average WRA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 84%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Architecture:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Added mutiple attention, fnn and then cnn layers</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -305,7 +352,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Arc CNN'!$R$1</c:f>
+              <c:f>CNN!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -328,7 +375,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>'Arc CNN'!$R$2:$R$101</c:f>
+              <c:f>CNN!$R$2:$R$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -920,7 +967,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>'Arc CNN Multi'!$Q$2:$Q$101</c:f>
+              <c:f>'CNN Two layers'!$Q$2:$Q$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -1420,6 +1467,584 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CNN + FNN (Dense)'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'CNN + FNN (Dense)'!$Q$2:$Q$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>81.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6148-46A2-8DBD-2DA012937EB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1412844320"/>
+        <c:axId val="1412851392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1412844320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1412851392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1412851392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1412844320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1461,6 +2086,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2532,6 +3197,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2894,17 +4075,185 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>70247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43872966-7D5E-4559-A964-30AECD0B6764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="8758238"/>
+          <a:ext cx="4824413" cy="3618309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596822</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F84C43-DDC9-477C-8241-55515BA9D915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="90488" y="12734926"/>
+          <a:ext cx="2449434" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200055</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565CEF3E-8D7E-2D60-5A23-AC08A6942ACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="433387"/>
+          <a:ext cx="4086255" cy="4762535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2FBAE41-EC29-49DD-8670-13B51D47D324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3206,7 +4555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4425E437-3018-4628-9858-A8E9E43C8840}">
   <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
@@ -5691,8 +7040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0599E-5316-431B-B668-C7523689B4C6}">
   <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:E87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6811,7 +8160,7 @@
         <v>67</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q120" si="3">100 - (O68*100)</f>
+        <f t="shared" ref="Q68:Q118" si="3">100 - (O68*100)</f>
         <v>81.25</v>
       </c>
     </row>
@@ -7629,4 +8978,1985 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF022E-A6F6-4372-A24F-CCB99C6DC51F}">
+  <dimension ref="A1:Q120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="14" max="15" width="7.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.984375</v>
+      </c>
+      <c r="P2">
+        <f xml:space="preserve"> N2+1</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>100 - (O2*100)</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.84375</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="0" xml:space="preserve"> N3+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="1">100 - (O3*100)</f>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0.578125</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0.40625</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>0.421875</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>57.8125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.390625</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.375</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>0.34375</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>0.359375</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>0.34375</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>0.328125</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>0.375</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>0.328125</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>0.25</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0.28125</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>0.25</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>0.203125</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>0.265625</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>0.265625</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>0.234375</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>0.34375</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>0.359375</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>0.3125</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>0.296875</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>0.28125</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>0.265625</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="N28">
+        <v>26</v>
+      </c>
+      <c r="O28">
+        <v>0.296875</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <v>0.1875</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N30">
+        <v>28</v>
+      </c>
+      <c r="O30">
+        <v>0.28125</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="N31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>0.34375</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>0.609375</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N33">
+        <v>31</v>
+      </c>
+      <c r="O33">
+        <v>0.328125</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N34">
+        <v>32</v>
+      </c>
+      <c r="O34">
+        <v>0.390625</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N35">
+        <v>33</v>
+      </c>
+      <c r="O35">
+        <v>0.203125</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N36">
+        <v>34</v>
+      </c>
+      <c r="O36">
+        <v>0.203125</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37">
+        <v>0.28125</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N38">
+        <v>36</v>
+      </c>
+      <c r="O38">
+        <v>0.171875</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N39">
+        <v>37</v>
+      </c>
+      <c r="O39">
+        <v>0.21875</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N40">
+        <v>38</v>
+      </c>
+      <c r="O40">
+        <v>0.21875</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N41">
+        <v>39</v>
+      </c>
+      <c r="O41">
+        <v>0.1875</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N42">
+        <v>40</v>
+      </c>
+      <c r="O42">
+        <v>0.203125</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N43">
+        <v>41</v>
+      </c>
+      <c r="O43">
+        <v>0.203125</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N44">
+        <v>42</v>
+      </c>
+      <c r="O44">
+        <v>0.21875</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N45">
+        <v>43</v>
+      </c>
+      <c r="O45">
+        <v>0.28125</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N46">
+        <v>44</v>
+      </c>
+      <c r="O46">
+        <v>0.203125</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N47">
+        <v>45</v>
+      </c>
+      <c r="O47">
+        <v>0.203125</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48">
+        <v>46</v>
+      </c>
+      <c r="O48">
+        <v>0.265625</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="49" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N49">
+        <v>47</v>
+      </c>
+      <c r="O49">
+        <v>0.234375</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="50" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N50">
+        <v>48</v>
+      </c>
+      <c r="O50">
+        <v>0.203125</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="51" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N51">
+        <v>49</v>
+      </c>
+      <c r="O51">
+        <v>0.203125</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="52" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>0.265625</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="53" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N53">
+        <v>51</v>
+      </c>
+      <c r="O53">
+        <v>0.34375</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="54" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N54">
+        <v>52</v>
+      </c>
+      <c r="O54">
+        <v>0.21875</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="55" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N55">
+        <v>53</v>
+      </c>
+      <c r="O55">
+        <v>0.21875</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="56" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N56">
+        <v>54</v>
+      </c>
+      <c r="O56">
+        <v>0.21875</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="57" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N57">
+        <v>55</v>
+      </c>
+      <c r="O57">
+        <v>0.265625</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="58" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N58">
+        <v>56</v>
+      </c>
+      <c r="O58">
+        <v>0.203125</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="59" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N59">
+        <v>57</v>
+      </c>
+      <c r="O59">
+        <v>0.234375</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="60" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N60">
+        <v>58</v>
+      </c>
+      <c r="O60">
+        <v>0.203125</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="61" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N61">
+        <v>59</v>
+      </c>
+      <c r="O61">
+        <v>0.234375</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="62" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N62">
+        <v>60</v>
+      </c>
+      <c r="O62">
+        <v>0.234375</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="63" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N63">
+        <v>61</v>
+      </c>
+      <c r="O63">
+        <v>0.203125</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="64" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N64">
+        <v>62</v>
+      </c>
+      <c r="O64">
+        <v>0.203125</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N65">
+        <v>63</v>
+      </c>
+      <c r="O65">
+        <v>0.21875</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N66">
+        <v>64</v>
+      </c>
+      <c r="O66">
+        <v>0.1875</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N67">
+        <v>65</v>
+      </c>
+      <c r="O67">
+        <v>0.1875</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P120" si="2" xml:space="preserve"> N67+1</f>
+        <v>66</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q120" si="3">100 - (O67*100)</f>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N68">
+        <v>66</v>
+      </c>
+      <c r="O68">
+        <v>0.140625</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N69">
+        <v>67</v>
+      </c>
+      <c r="O69">
+        <v>0.21875</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N70">
+        <v>68</v>
+      </c>
+      <c r="O70">
+        <v>0.203125</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N71">
+        <v>69</v>
+      </c>
+      <c r="O71">
+        <v>0.21875</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N72">
+        <v>70</v>
+      </c>
+      <c r="O72">
+        <v>0.140625</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N73">
+        <v>71</v>
+      </c>
+      <c r="O73">
+        <v>0.203125</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N74">
+        <v>72</v>
+      </c>
+      <c r="O74">
+        <v>0.21875</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N75">
+        <v>73</v>
+      </c>
+      <c r="O75">
+        <v>0.1875</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N76">
+        <v>74</v>
+      </c>
+      <c r="O76">
+        <v>0.21875</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N77">
+        <v>75</v>
+      </c>
+      <c r="O77">
+        <v>0.203125</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N78">
+        <v>76</v>
+      </c>
+      <c r="O78">
+        <v>0.171875</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N79">
+        <v>77</v>
+      </c>
+      <c r="O79">
+        <v>0.21875</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N80">
+        <v>78</v>
+      </c>
+      <c r="O80">
+        <v>0.15625</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="81" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N81">
+        <v>79</v>
+      </c>
+      <c r="O81">
+        <v>0.15625</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="82" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N82">
+        <v>80</v>
+      </c>
+      <c r="O82">
+        <v>0.15625</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="83" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N83">
+        <v>81</v>
+      </c>
+      <c r="O83">
+        <v>0.203125</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="84" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N84">
+        <v>82</v>
+      </c>
+      <c r="O84">
+        <v>0.21875</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="85" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N85">
+        <v>83</v>
+      </c>
+      <c r="O85">
+        <v>0.1875</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="86" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N86">
+        <v>84</v>
+      </c>
+      <c r="O86">
+        <v>0.1875</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="87" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N87">
+        <v>85</v>
+      </c>
+      <c r="O87">
+        <v>0.171875</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="88" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N88">
+        <v>86</v>
+      </c>
+      <c r="O88">
+        <v>0.15625</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="89" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N89">
+        <v>87</v>
+      </c>
+      <c r="O89">
+        <v>0.15625</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="90" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N90">
+        <v>88</v>
+      </c>
+      <c r="O90">
+        <v>0.15625</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="91" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N91">
+        <v>89</v>
+      </c>
+      <c r="O91">
+        <v>0.203125</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="92" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N92">
+        <v>90</v>
+      </c>
+      <c r="O92">
+        <v>0.15625</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="93" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N93">
+        <v>91</v>
+      </c>
+      <c r="O93">
+        <v>0.15625</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="94" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N94">
+        <v>92</v>
+      </c>
+      <c r="O94">
+        <v>0.1875</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="95" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N95">
+        <v>93</v>
+      </c>
+      <c r="O95">
+        <v>0.15625</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="96" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N96">
+        <v>94</v>
+      </c>
+      <c r="O96">
+        <v>0.1875</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="97" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N97">
+        <v>95</v>
+      </c>
+      <c r="O97">
+        <v>0.1875</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="98" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N98">
+        <v>96</v>
+      </c>
+      <c r="O98">
+        <v>0.1875</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="99" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N99">
+        <v>97</v>
+      </c>
+      <c r="O99">
+        <v>0.1875</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="100" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N100">
+        <v>98</v>
+      </c>
+      <c r="O100">
+        <v>0.1875</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="101" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N101">
+        <v>99</v>
+      </c>
+      <c r="O101">
+        <v>0.1875</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="102" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N102" t="s">
+        <v>14</v>
+      </c>
+      <c r="O102">
+        <v>0.1875</v>
+      </c>
+      <c r="P102" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="103" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N103" t="s">
+        <v>14</v>
+      </c>
+      <c r="O103">
+        <v>0.109375</v>
+      </c>
+      <c r="P103" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="104" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N104" t="s">
+        <v>14</v>
+      </c>
+      <c r="O104">
+        <v>0.140625</v>
+      </c>
+      <c r="P104" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="105" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N105" t="s">
+        <v>14</v>
+      </c>
+      <c r="O105">
+        <v>0.234375</v>
+      </c>
+      <c r="P105" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="106" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N106" t="s">
+        <v>14</v>
+      </c>
+      <c r="O106">
+        <v>0.1875</v>
+      </c>
+      <c r="P106" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="107" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N107" t="s">
+        <v>14</v>
+      </c>
+      <c r="O107">
+        <v>0.15625</v>
+      </c>
+      <c r="P107" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="108" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N108" t="s">
+        <v>14</v>
+      </c>
+      <c r="O108">
+        <v>0.125</v>
+      </c>
+      <c r="P108" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="109" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N109" t="s">
+        <v>14</v>
+      </c>
+      <c r="O109">
+        <v>0.15625</v>
+      </c>
+      <c r="P109" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="110" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N110" t="s">
+        <v>14</v>
+      </c>
+      <c r="O110">
+        <v>0.125</v>
+      </c>
+      <c r="P110" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="111" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N111" t="s">
+        <v>14</v>
+      </c>
+      <c r="O111">
+        <v>0.1875</v>
+      </c>
+      <c r="P111" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="112" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N112" t="s">
+        <v>14</v>
+      </c>
+      <c r="O112">
+        <v>0.140625</v>
+      </c>
+      <c r="P112" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="113" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N113" t="s">
+        <v>14</v>
+      </c>
+      <c r="O113">
+        <v>0.125</v>
+      </c>
+      <c r="P113" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="114" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N114" t="s">
+        <v>14</v>
+      </c>
+      <c r="O114">
+        <v>0.15625</v>
+      </c>
+      <c r="P114" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="115" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N115" t="s">
+        <v>14</v>
+      </c>
+      <c r="O115">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P115" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="116" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N116" t="s">
+        <v>14</v>
+      </c>
+      <c r="O116">
+        <v>0.171875</v>
+      </c>
+      <c r="P116" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="117" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N117" t="s">
+        <v>14</v>
+      </c>
+      <c r="O117">
+        <v>0.125</v>
+      </c>
+      <c r="P117" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="118" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N118" t="s">
+        <v>14</v>
+      </c>
+      <c r="O118">
+        <v>0.234375</v>
+      </c>
+      <c r="P118" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="119" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N119" t="s">
+        <v>14</v>
+      </c>
+      <c r="O119">
+        <v>0.1875</v>
+      </c>
+      <c r="P119" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="120" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N120" t="s">
+        <v>14</v>
+      </c>
+      <c r="O120">
+        <v>0.140625</v>
+      </c>
+      <c r="P120" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A31:C31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Architecture Results.xlsx
+++ b/Architecture Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B072A8-FBAA-4242-B45A-AEF3F4643A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B72F5-B977-4787-A83B-A67C7D3D4AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="4" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="5" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Two CNN" sheetId="2" r:id="rId3"/>
     <sheet name="CNN + FNN (Dense)" sheetId="3" r:id="rId4"/>
     <sheet name="Three FNN" sheetId="5" r:id="rId5"/>
+    <sheet name="SeperableConv1D" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="21">
   <si>
     <t>Epoch</t>
   </si>
@@ -277,6 +278,32 @@
       <t xml:space="preserve"> Added two mutiple attention, FNN layers</t>
     </r>
   </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7fa48fb5f9d0&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Architecture:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Aded Seperable CNN Sequential layers instead of Feed Forward Neural Network</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -319,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -328,7 +355,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3250,6 +3276,749 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SeperableConv1D!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SeperableConv1D!$Q$2:$Q$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="155"/>
+                <c:pt idx="0">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.3125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6465-4219-BE28-8EE1575CD387}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="157449792"/>
+        <c:axId val="157448128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="157449792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157448128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="157448128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157449792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3411,6 +4180,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6030,6 +6839,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -6988,6 +8313,185 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596822</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F0ECE7-1687-422C-836D-8171CD880A0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="90488" y="10020301"/>
+          <a:ext cx="2449434" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>284163</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE262F3B-7FD8-C45C-766D-E109AD5DACF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="100012" y="6167438"/>
+          <a:ext cx="4718051" cy="3538538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>130967</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>169067</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC7F973-E719-6F76-0CE7-72FBAD8741D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1577C84-3914-2105-A268-20F3854D7235}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42862" y="404813"/>
+          <a:ext cx="3705225" cy="2297773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7287,8 +8791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4425E437-3018-4628-9858-A8E9E43C8840}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N102" sqref="N102:N141"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection sqref="A1:I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9790,10 +11294,10 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -12538,7 +14042,7 @@
         <v>0.171875</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P118" si="2" xml:space="preserve"> N67+1</f>
+        <f t="shared" ref="P67:P101" si="2" xml:space="preserve"> N67+1</f>
         <v>66</v>
       </c>
       <c r="Q67">
@@ -12558,7 +14062,7 @@
         <v>67</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q118" si="3">100 - (O68*100)</f>
+        <f t="shared" ref="Q68:Q101" si="3">100 - (O68*100)</f>
         <v>81.25</v>
       </c>
     </row>
@@ -14788,7 +16292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB74992B-4508-4538-B05E-28244E99F01D}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
@@ -15888,11 +17392,11 @@
         <v>0.15625</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P130" si="2" xml:space="preserve"> 1 +N67</f>
+        <f t="shared" ref="P67:P101" si="2" xml:space="preserve"> 1 +N67</f>
         <v>66</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q130" si="3">100 - (100 *O67)</f>
+        <f t="shared" ref="Q67:Q101" si="3">100 - (100 *O67)</f>
         <v>84.375</v>
       </c>
     </row>
@@ -16453,4 +17957,2555 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4799BE18-82F0-4E3C-815D-378EA26C8E11}">
+  <dimension ref="A1:Q156"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="14" max="15" width="8.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.984375</v>
+      </c>
+      <c r="P2">
+        <f xml:space="preserve"> 1+N2</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f xml:space="preserve"> 100- (100*O2)</f>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.84375</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="0" xml:space="preserve"> 1+N3</f>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="1" xml:space="preserve"> 100- (100*O3)</f>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0.578125</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>0.390625</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.390625</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.359375</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>0.40625</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>0.296875</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>0.28125</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>0.375</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>0.328125</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>0.296875</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>0.390625</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0.234375</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>0.28125</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>0.265625</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="19" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>0.359375</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0.796875</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>20.3125</v>
+      </c>
+    </row>
+    <row r="22" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>0.546875</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="23" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>0.421875</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>57.8125</v>
+      </c>
+    </row>
+    <row r="24" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>0.375</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="25" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>0.328125</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="26" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>0.359375</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="27" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N27">
+        <v>7</v>
+      </c>
+      <c r="O27">
+        <v>0.359375</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="28" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N28">
+        <v>8</v>
+      </c>
+      <c r="O28">
+        <v>0.28125</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="29" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N29">
+        <v>9</v>
+      </c>
+      <c r="O29">
+        <v>0.28125</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="30" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>0.234375</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="31" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N31">
+        <v>11</v>
+      </c>
+      <c r="O31">
+        <v>0.25</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N32">
+        <v>12</v>
+      </c>
+      <c r="O32">
+        <v>0.203125</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N33">
+        <v>13</v>
+      </c>
+      <c r="O33">
+        <v>0.140625</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34">
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <v>0.3125</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N35">
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <v>0.21875</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N36">
+        <v>16</v>
+      </c>
+      <c r="O36">
+        <v>0.21875</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N37">
+        <v>17</v>
+      </c>
+      <c r="O37">
+        <v>0.359375</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N38">
+        <v>18</v>
+      </c>
+      <c r="O38">
+        <v>0.21875</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N39">
+        <v>19</v>
+      </c>
+      <c r="O39">
+        <v>0.1875</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N40">
+        <v>20</v>
+      </c>
+      <c r="O40">
+        <v>0.171875</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N41">
+        <v>21</v>
+      </c>
+      <c r="O41">
+        <v>0.234375</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N42">
+        <v>22</v>
+      </c>
+      <c r="O42">
+        <v>0.234375</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N43">
+        <v>23</v>
+      </c>
+      <c r="O43">
+        <v>0.25</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N44">
+        <v>24</v>
+      </c>
+      <c r="O44">
+        <v>0.25</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N45">
+        <v>25</v>
+      </c>
+      <c r="O45">
+        <v>0.21875</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N46">
+        <v>26</v>
+      </c>
+      <c r="O46">
+        <v>0.203125</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N47">
+        <v>27</v>
+      </c>
+      <c r="O47">
+        <v>0.21875</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N48">
+        <v>28</v>
+      </c>
+      <c r="O48">
+        <v>0.203125</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N49">
+        <v>29</v>
+      </c>
+      <c r="O49">
+        <v>0.34375</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N50">
+        <v>30</v>
+      </c>
+      <c r="O50">
+        <v>0.296875</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N51">
+        <v>31</v>
+      </c>
+      <c r="O51">
+        <v>0.25</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N52">
+        <v>32</v>
+      </c>
+      <c r="O52">
+        <v>0.15625</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N53">
+        <v>33</v>
+      </c>
+      <c r="O53">
+        <v>0.203125</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N54">
+        <v>34</v>
+      </c>
+      <c r="O54">
+        <v>0.203125</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <v>35</v>
+      </c>
+      <c r="O55">
+        <v>0.171875</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N56">
+        <v>36</v>
+      </c>
+      <c r="O56">
+        <v>0.203125</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N57">
+        <v>37</v>
+      </c>
+      <c r="O57">
+        <v>0.21875</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N58">
+        <v>38</v>
+      </c>
+      <c r="O58">
+        <v>0.28125</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N59">
+        <v>39</v>
+      </c>
+      <c r="O59">
+        <v>0.21875</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N60">
+        <v>40</v>
+      </c>
+      <c r="O60">
+        <v>0.21875</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N61">
+        <v>41</v>
+      </c>
+      <c r="O61">
+        <v>0.28125</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N62">
+        <v>42</v>
+      </c>
+      <c r="O62">
+        <v>0.234375</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N63">
+        <v>43</v>
+      </c>
+      <c r="O63">
+        <v>0.25</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N64">
+        <v>44</v>
+      </c>
+      <c r="O64">
+        <v>0.1875</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="65" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N65">
+        <v>45</v>
+      </c>
+      <c r="O65">
+        <v>0.28125</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="66" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N66">
+        <v>46</v>
+      </c>
+      <c r="O66">
+        <v>0.15625</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="67" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N67">
+        <v>47</v>
+      </c>
+      <c r="O67">
+        <v>0.203125</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P130" si="2" xml:space="preserve"> 1+N67</f>
+        <v>48</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q130" si="3" xml:space="preserve"> 100- (100*O67)</f>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="68" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N68">
+        <v>48</v>
+      </c>
+      <c r="O68">
+        <v>0.171875</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="69" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N69">
+        <v>49</v>
+      </c>
+      <c r="O69">
+        <v>0.15625</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="70" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N70">
+        <v>50</v>
+      </c>
+      <c r="O70">
+        <v>0.21875</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="71" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N71">
+        <v>51</v>
+      </c>
+      <c r="O71">
+        <v>0.25</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N72">
+        <v>52</v>
+      </c>
+      <c r="O72">
+        <v>0.203125</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="73" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N73">
+        <v>53</v>
+      </c>
+      <c r="O73">
+        <v>0.21875</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="74" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N74">
+        <v>54</v>
+      </c>
+      <c r="O74">
+        <v>0.171875</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="75" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N75">
+        <v>55</v>
+      </c>
+      <c r="O75">
+        <v>0.15625</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="76" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N76">
+        <v>56</v>
+      </c>
+      <c r="O76">
+        <v>0.203125</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="77" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N77">
+        <v>57</v>
+      </c>
+      <c r="O77">
+        <v>0.171875</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="78" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N78">
+        <v>58</v>
+      </c>
+      <c r="O78">
+        <v>0.21875</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="79" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N79">
+        <v>59</v>
+      </c>
+      <c r="O79">
+        <v>0.234375</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="80" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N80">
+        <v>60</v>
+      </c>
+      <c r="O80">
+        <v>0.1875</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="81" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N81">
+        <v>61</v>
+      </c>
+      <c r="O81">
+        <v>0.203125</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="82" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N82">
+        <v>62</v>
+      </c>
+      <c r="O82">
+        <v>0.203125</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="83" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N83">
+        <v>63</v>
+      </c>
+      <c r="O83">
+        <v>0.15625</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="84" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N84">
+        <v>64</v>
+      </c>
+      <c r="O84">
+        <v>0.25</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N85">
+        <v>65</v>
+      </c>
+      <c r="O85">
+        <v>0.265625</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="86" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N86">
+        <v>66</v>
+      </c>
+      <c r="O86">
+        <v>0.265625</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="87" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N87">
+        <v>67</v>
+      </c>
+      <c r="O87">
+        <v>0.28125</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="3"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="88" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N88">
+        <v>68</v>
+      </c>
+      <c r="O88">
+        <v>0.1875</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="89" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N89">
+        <v>69</v>
+      </c>
+      <c r="O89">
+        <v>0.1875</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="90" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N90">
+        <v>70</v>
+      </c>
+      <c r="O90">
+        <v>0.234375</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="91" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N91">
+        <v>71</v>
+      </c>
+      <c r="O91">
+        <v>0.1875</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="92" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N92">
+        <v>72</v>
+      </c>
+      <c r="O92">
+        <v>0.203125</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="93" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N93">
+        <v>73</v>
+      </c>
+      <c r="O93">
+        <v>0.21875</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="94" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N94">
+        <v>74</v>
+      </c>
+      <c r="O94">
+        <v>0.203125</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="95" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N95">
+        <v>75</v>
+      </c>
+      <c r="O95">
+        <v>0.21875</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="96" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N96">
+        <v>76</v>
+      </c>
+      <c r="O96">
+        <v>0.203125</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="97" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N97">
+        <v>77</v>
+      </c>
+      <c r="O97">
+        <v>0.171875</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="98" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N98">
+        <v>78</v>
+      </c>
+      <c r="O98">
+        <v>0.234375</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="99" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N99">
+        <v>79</v>
+      </c>
+      <c r="O99">
+        <v>0.203125</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="100" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N100">
+        <v>80</v>
+      </c>
+      <c r="O100">
+        <v>0.234375</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="101" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N101">
+        <v>81</v>
+      </c>
+      <c r="O101">
+        <v>0.234375</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="102" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N102">
+        <v>82</v>
+      </c>
+      <c r="O102">
+        <v>0.25</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N103">
+        <v>83</v>
+      </c>
+      <c r="O103">
+        <v>0.21875</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="104" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N104">
+        <v>84</v>
+      </c>
+      <c r="O104">
+        <v>0.25</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N105">
+        <v>85</v>
+      </c>
+      <c r="O105">
+        <v>0.1875</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="106" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N106">
+        <v>86</v>
+      </c>
+      <c r="O106">
+        <v>0.265625</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="107" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N107">
+        <v>87</v>
+      </c>
+      <c r="O107">
+        <v>0.234375</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="108" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N108">
+        <v>88</v>
+      </c>
+      <c r="O108">
+        <v>0.28125</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="3"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="109" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N109">
+        <v>89</v>
+      </c>
+      <c r="O109">
+        <v>0.265625</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="110" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N110">
+        <v>90</v>
+      </c>
+      <c r="O110">
+        <v>0.265625</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="111" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N111">
+        <v>91</v>
+      </c>
+      <c r="O111">
+        <v>0.265625</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="112" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N112">
+        <v>92</v>
+      </c>
+      <c r="O112">
+        <v>0.265625</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="113" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N113">
+        <v>93</v>
+      </c>
+      <c r="O113">
+        <v>0.265625</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="114" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N114">
+        <v>94</v>
+      </c>
+      <c r="O114">
+        <v>0.265625</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="115" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N115">
+        <v>95</v>
+      </c>
+      <c r="O115">
+        <v>0.265625</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="116" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N116">
+        <v>96</v>
+      </c>
+      <c r="O116">
+        <v>0.265625</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="117" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N117">
+        <v>97</v>
+      </c>
+      <c r="O117">
+        <v>0.265625</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="118" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N118">
+        <v>98</v>
+      </c>
+      <c r="O118">
+        <v>0.265625</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="119" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N119">
+        <v>99</v>
+      </c>
+      <c r="O119">
+        <v>0.265625</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="120" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N120" t="s">
+        <v>19</v>
+      </c>
+      <c r="O120">
+        <v>0.265625</v>
+      </c>
+      <c r="P120" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="121" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N121" t="s">
+        <v>19</v>
+      </c>
+      <c r="O121">
+        <v>0.171875</v>
+      </c>
+      <c r="P121" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="122" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N122" t="s">
+        <v>19</v>
+      </c>
+      <c r="O122">
+        <v>0.125</v>
+      </c>
+      <c r="P122" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="123" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N123" t="s">
+        <v>19</v>
+      </c>
+      <c r="O123">
+        <v>0.15625</v>
+      </c>
+      <c r="P123" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="124" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N124" t="s">
+        <v>19</v>
+      </c>
+      <c r="O124">
+        <v>0.15625</v>
+      </c>
+      <c r="P124" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="125" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N125" t="s">
+        <v>19</v>
+      </c>
+      <c r="O125">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P125" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="126" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N126" t="s">
+        <v>19</v>
+      </c>
+      <c r="O126">
+        <v>0.140625</v>
+      </c>
+      <c r="P126" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="127" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N127" t="s">
+        <v>19</v>
+      </c>
+      <c r="O127">
+        <v>0.125</v>
+      </c>
+      <c r="P127" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="128" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N128" t="s">
+        <v>19</v>
+      </c>
+      <c r="O128">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P128" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="129" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N129" t="s">
+        <v>19</v>
+      </c>
+      <c r="O129">
+        <v>0.265625</v>
+      </c>
+      <c r="P129" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="130" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N130" t="s">
+        <v>19</v>
+      </c>
+      <c r="O130">
+        <v>0.125</v>
+      </c>
+      <c r="P130" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="131" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N131" t="s">
+        <v>19</v>
+      </c>
+      <c r="O131">
+        <v>0.171875</v>
+      </c>
+      <c r="P131" t="e">
+        <f t="shared" ref="P131:P156" si="4" xml:space="preserve"> 1+N131</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" ref="Q131:Q156" si="5" xml:space="preserve"> 100- (100*O131)</f>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="132" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N132" t="s">
+        <v>19</v>
+      </c>
+      <c r="O132">
+        <v>0.140625</v>
+      </c>
+      <c r="P132" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="5"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="133" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N133" t="s">
+        <v>19</v>
+      </c>
+      <c r="O133">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P133" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="5"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="134" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N134" t="s">
+        <v>19</v>
+      </c>
+      <c r="O134">
+        <v>0.109375</v>
+      </c>
+      <c r="P134" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="5"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="135" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N135" t="s">
+        <v>19</v>
+      </c>
+      <c r="O135">
+        <v>0.1875</v>
+      </c>
+      <c r="P135" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="5"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="136" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N136" t="s">
+        <v>19</v>
+      </c>
+      <c r="O136">
+        <v>0.15625</v>
+      </c>
+      <c r="P136" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="5"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="137" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N137" t="s">
+        <v>19</v>
+      </c>
+      <c r="O137">
+        <v>0.171875</v>
+      </c>
+      <c r="P137" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="5"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="138" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N138" t="s">
+        <v>19</v>
+      </c>
+      <c r="O138">
+        <v>0.140625</v>
+      </c>
+      <c r="P138" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="5"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="139" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N139" t="s">
+        <v>19</v>
+      </c>
+      <c r="O139">
+        <v>0.171875</v>
+      </c>
+      <c r="P139" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="5"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="140" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N140" t="s">
+        <v>19</v>
+      </c>
+      <c r="O140">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P140" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" si="5"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="141" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N141" t="s">
+        <v>19</v>
+      </c>
+      <c r="O141">
+        <v>0.15625</v>
+      </c>
+      <c r="P141" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" si="5"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="142" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N142" t="s">
+        <v>19</v>
+      </c>
+      <c r="O142">
+        <v>0.140625</v>
+      </c>
+      <c r="P142" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" si="5"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="143" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N143" t="s">
+        <v>19</v>
+      </c>
+      <c r="O143">
+        <v>0.125</v>
+      </c>
+      <c r="P143" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" si="5"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="144" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N144" t="s">
+        <v>19</v>
+      </c>
+      <c r="O144">
+        <v>0.140625</v>
+      </c>
+      <c r="P144" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" si="5"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="145" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N145" t="s">
+        <v>19</v>
+      </c>
+      <c r="O145">
+        <v>0.1875</v>
+      </c>
+      <c r="P145" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="5"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="146" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N146" t="s">
+        <v>19</v>
+      </c>
+      <c r="O146">
+        <v>0.21875</v>
+      </c>
+      <c r="P146" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" si="5"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="147" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N147" t="s">
+        <v>19</v>
+      </c>
+      <c r="O147">
+        <v>0.140625</v>
+      </c>
+      <c r="P147" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="5"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="148" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N148" t="s">
+        <v>19</v>
+      </c>
+      <c r="O148">
+        <v>0.1875</v>
+      </c>
+      <c r="P148" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" si="5"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="149" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N149" t="s">
+        <v>19</v>
+      </c>
+      <c r="O149">
+        <v>0.109375</v>
+      </c>
+      <c r="P149" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" si="5"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="150" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N150" t="s">
+        <v>19</v>
+      </c>
+      <c r="O150">
+        <v>0.109375</v>
+      </c>
+      <c r="P150" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" si="5"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="151" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N151" t="s">
+        <v>19</v>
+      </c>
+      <c r="O151">
+        <v>0.171875</v>
+      </c>
+      <c r="P151" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" si="5"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="152" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N152" t="s">
+        <v>19</v>
+      </c>
+      <c r="O152">
+        <v>0.21875</v>
+      </c>
+      <c r="P152" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q152">
+        <f t="shared" si="5"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="153" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N153" t="s">
+        <v>19</v>
+      </c>
+      <c r="O153">
+        <v>0.15625</v>
+      </c>
+      <c r="P153" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q153">
+        <f t="shared" si="5"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="154" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N154" t="s">
+        <v>19</v>
+      </c>
+      <c r="O154">
+        <v>0.1875</v>
+      </c>
+      <c r="P154" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q154">
+        <f t="shared" si="5"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="155" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N155" t="s">
+        <v>19</v>
+      </c>
+      <c r="O155">
+        <v>0.1875</v>
+      </c>
+      <c r="P155" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q155">
+        <f t="shared" si="5"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="156" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N156" t="s">
+        <v>19</v>
+      </c>
+      <c r="O156">
+        <v>0.171875</v>
+      </c>
+      <c r="P156" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q156">
+        <f t="shared" si="5"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Architecture Results.xlsx
+++ b/Architecture Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B72F5-B977-4787-A83B-A67C7D3D4AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F8C73F-B47F-44AF-83DD-BE3472D17ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="5" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="3" activeTab="5" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="Two CNN" sheetId="2" r:id="rId3"/>
     <sheet name="CNN + FNN (Dense)" sheetId="3" r:id="rId4"/>
     <sheet name="Three FNN" sheetId="5" r:id="rId5"/>
-    <sheet name="SeperableConv1D" sheetId="6" r:id="rId6"/>
+    <sheet name="Three FNN (Trail 2)" sheetId="8" r:id="rId6"/>
+    <sheet name="SeperableConv1D" sheetId="6" r:id="rId7"/>
+    <sheet name="SeperableConv1D Trail 2" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="21">
   <si>
     <t>Epoch</t>
   </si>
@@ -3331,6 +3333,584 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Three FNN (Trail 2)'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Three FNN (Trail 2)'!$Q$2:$Q$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.0625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7746-431B-8022-778EC9E69D57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1748109536"/>
+        <c:axId val="1748110784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1748109536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1748110784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1748110784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1748109536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>SeperableConv1D!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -3964,6 +4544,695 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="157449792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SeperableConv1D Trail 2'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'SeperableConv1D Trail 2'!$Q$2:$Q$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45.3125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48.4375</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>56.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F05-4414-9478-522063F60DEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="351965584"/>
+        <c:axId val="351966416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="351965584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351966416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="351966416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351965584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4220,6 +5489,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7355,6 +8704,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -8318,6 +10699,185 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>625397</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9569F69-F775-4889-81E6-8BD63AAEF463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="119063" y="15482888"/>
+          <a:ext cx="2449434" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>50006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>78581</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFBAE43-4A13-3E38-E38F-91AF489FF814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>566738</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>39291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9685A5FD-57EF-E3D2-3E52-F12D5E0E2ADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="11834812"/>
+          <a:ext cx="4300538" cy="3225404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>74268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B4EAD2-51D2-640F-0C05-51E1D2804EFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="423861"/>
+          <a:ext cx="5157788" cy="7975257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>90488</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
@@ -8487,6 +11047,185 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596822</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571B4CBD-C126-4779-988F-41570C3102E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="90488" y="10020301"/>
+          <a:ext cx="2449434" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>168936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3DCD83-D174-41C1-97EB-93E708995CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42862" y="404813"/>
+          <a:ext cx="3705225" cy="2297773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44451</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54428548-2206-F0EB-3D8C-93014A872EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="6243637"/>
+          <a:ext cx="4349751" cy="3262313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>69056</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>16668</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F96C6A6-7C22-2C23-D534-36EE210D9910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8791,8 +11530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4425E437-3018-4628-9858-A8E9E43C8840}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection sqref="A1:I142"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14614,7 +17353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF022E-A6F6-4372-A24F-CCB99C6DC51F}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
@@ -16293,7 +19032,7 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17960,16 +20699,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4799BE18-82F0-4E3C-815D-378EA26C8E11}">
-  <dimension ref="A1:Q156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4625F72A-62EB-4831-B618-D2FE40BF9C73}">
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="14" max="15" width="8.86328125" customWidth="1"/>
+    <col min="14" max="15" width="8.9296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
@@ -17978,7 +20717,7 @@
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2"/>
       <c r="G1" t="s">
@@ -17991,7 +20730,7 @@
         <v>2</v>
       </c>
       <c r="P1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q1" t="s">
         <v>1</v>
@@ -17999,7 +20738,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -18012,6 +20751,1678 @@
         <v>0</v>
       </c>
       <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f xml:space="preserve"> 1 +N2</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>100 - (100 *O2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.71875</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P14" si="0" xml:space="preserve"> 1 +N3</f>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="1">100 - (100 *O3)</f>
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0.46875</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>53.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0.484375</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>51.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>0.46875</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>53.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.46875</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>53.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.421875</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>57.8125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>0.390625</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>0.3125</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>0.375</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>0.34375</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>0.40625</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>0.34375</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>0.359375</v>
+      </c>
+      <c r="P15">
+        <f xml:space="preserve"> 1 +N15</f>
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0.296875</v>
+      </c>
+      <c r="P16">
+        <f xml:space="preserve"> 1 +N16</f>
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>0.328125</v>
+      </c>
+      <c r="P17">
+        <f xml:space="preserve"> 1 +N17</f>
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>0.234375</v>
+      </c>
+      <c r="P18">
+        <f xml:space="preserve"> 1 +N18</f>
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="19" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>0.21875</v>
+      </c>
+      <c r="P19">
+        <f xml:space="preserve"> 1 +N19</f>
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>0.265625</v>
+      </c>
+      <c r="P20">
+        <f xml:space="preserve"> 1 +N20</f>
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="21" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>0.234375</v>
+      </c>
+      <c r="P21">
+        <f xml:space="preserve"> 1 +N21</f>
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="22" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>0.28125</v>
+      </c>
+      <c r="P22">
+        <f xml:space="preserve"> 1 +N22</f>
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="23" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>0.3125</v>
+      </c>
+      <c r="P23">
+        <f xml:space="preserve"> 1 +N23</f>
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="24" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>0.390625</v>
+      </c>
+      <c r="P24">
+        <f xml:space="preserve"> 1 +N24</f>
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="25" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>0.40625</v>
+      </c>
+      <c r="P25">
+        <f xml:space="preserve"> 1 +N25</f>
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="26" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>0.375</v>
+      </c>
+      <c r="P26">
+        <f xml:space="preserve"> 1 +N26</f>
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="27" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>0.375</v>
+      </c>
+      <c r="P27">
+        <f xml:space="preserve"> 1 +N27</f>
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="28" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N28">
+        <v>26</v>
+      </c>
+      <c r="O28">
+        <v>0.3125</v>
+      </c>
+      <c r="P28">
+        <f xml:space="preserve"> 1 +N28</f>
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="29" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <v>0.375</v>
+      </c>
+      <c r="P29">
+        <f xml:space="preserve"> 1 +N29</f>
+        <v>28</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="30" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N30">
+        <v>28</v>
+      </c>
+      <c r="O30">
+        <v>0.3125</v>
+      </c>
+      <c r="P30">
+        <f xml:space="preserve"> 1 +N30</f>
+        <v>29</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="31" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>0.609375</v>
+      </c>
+      <c r="P31">
+        <f xml:space="preserve"> 1 +N31</f>
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+    </row>
+    <row r="32" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>0.40625</v>
+      </c>
+      <c r="P32">
+        <f xml:space="preserve"> 1 +N32</f>
+        <v>31</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N33">
+        <v>31</v>
+      </c>
+      <c r="O33">
+        <v>0.34375</v>
+      </c>
+      <c r="P33">
+        <f xml:space="preserve"> 1 +N33</f>
+        <v>32</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N34">
+        <v>32</v>
+      </c>
+      <c r="O34">
+        <v>0.265625</v>
+      </c>
+      <c r="P34">
+        <f xml:space="preserve"> 1 +N34</f>
+        <v>33</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N35">
+        <v>33</v>
+      </c>
+      <c r="O35">
+        <v>0.359375</v>
+      </c>
+      <c r="P35">
+        <f xml:space="preserve"> 1 +N35</f>
+        <v>34</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N36">
+        <v>34</v>
+      </c>
+      <c r="O36">
+        <v>0.3125</v>
+      </c>
+      <c r="P36">
+        <f xml:space="preserve"> 1 +N36</f>
+        <v>35</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37">
+        <v>0.1875</v>
+      </c>
+      <c r="P37">
+        <f xml:space="preserve"> 1 +N37</f>
+        <v>36</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N38">
+        <v>36</v>
+      </c>
+      <c r="O38">
+        <v>0.265625</v>
+      </c>
+      <c r="P38">
+        <f xml:space="preserve"> 1 +N38</f>
+        <v>37</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N39">
+        <v>37</v>
+      </c>
+      <c r="O39">
+        <v>0.328125</v>
+      </c>
+      <c r="P39">
+        <f xml:space="preserve"> 1 +N39</f>
+        <v>38</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N40">
+        <v>38</v>
+      </c>
+      <c r="O40">
+        <v>0.328125</v>
+      </c>
+      <c r="P40">
+        <f xml:space="preserve"> 1 +N40</f>
+        <v>39</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N41">
+        <v>39</v>
+      </c>
+      <c r="O41">
+        <v>0.25</v>
+      </c>
+      <c r="P41">
+        <f xml:space="preserve"> 1 +N41</f>
+        <v>40</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N42">
+        <v>40</v>
+      </c>
+      <c r="O42">
+        <v>0.234375</v>
+      </c>
+      <c r="P42">
+        <f xml:space="preserve"> 1 +N42</f>
+        <v>41</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N43">
+        <v>41</v>
+      </c>
+      <c r="O43">
+        <v>0.203125</v>
+      </c>
+      <c r="P43">
+        <f xml:space="preserve"> 1 +N43</f>
+        <v>42</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N44">
+        <v>42</v>
+      </c>
+      <c r="O44">
+        <v>0.390625</v>
+      </c>
+      <c r="P44">
+        <f xml:space="preserve"> 1 +N44</f>
+        <v>43</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N45">
+        <v>43</v>
+      </c>
+      <c r="O45">
+        <v>0.34375</v>
+      </c>
+      <c r="P45">
+        <f xml:space="preserve"> 1 +N45</f>
+        <v>44</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N46">
+        <v>44</v>
+      </c>
+      <c r="O46">
+        <v>0.359375</v>
+      </c>
+      <c r="P46">
+        <f xml:space="preserve"> 1 +N46</f>
+        <v>45</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N47">
+        <v>45</v>
+      </c>
+      <c r="O47">
+        <v>0.296875</v>
+      </c>
+      <c r="P47">
+        <f xml:space="preserve"> 1 +N47</f>
+        <v>46</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="N48">
+        <v>46</v>
+      </c>
+      <c r="O48">
+        <v>0.28125</v>
+      </c>
+      <c r="P48">
+        <f xml:space="preserve"> 1 +N48</f>
+        <v>47</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="49" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N49">
+        <v>47</v>
+      </c>
+      <c r="O49">
+        <v>0.234375</v>
+      </c>
+      <c r="P49">
+        <f xml:space="preserve"> 1 +N49</f>
+        <v>48</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="50" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N50">
+        <v>48</v>
+      </c>
+      <c r="O50">
+        <v>0.265625</v>
+      </c>
+      <c r="P50">
+        <f xml:space="preserve"> 1 +N50</f>
+        <v>49</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="51" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N51">
+        <v>49</v>
+      </c>
+      <c r="O51">
+        <v>0.296875</v>
+      </c>
+      <c r="P51">
+        <f xml:space="preserve"> 1 +N51</f>
+        <v>50</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="52" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>0.265625</v>
+      </c>
+      <c r="P52">
+        <f xml:space="preserve"> 1 +N52</f>
+        <v>51</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="53" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N53">
+        <v>51</v>
+      </c>
+      <c r="O53">
+        <v>0.15625</v>
+      </c>
+      <c r="P53">
+        <f xml:space="preserve"> 1 +N53</f>
+        <v>52</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="54" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N54">
+        <v>52</v>
+      </c>
+      <c r="O54">
+        <v>0.25</v>
+      </c>
+      <c r="P54">
+        <f xml:space="preserve"> 1 +N54</f>
+        <v>53</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N55">
+        <v>53</v>
+      </c>
+      <c r="O55">
+        <v>0.3125</v>
+      </c>
+      <c r="P55">
+        <f xml:space="preserve"> 1 +N55</f>
+        <v>54</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="56" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N56">
+        <v>54</v>
+      </c>
+      <c r="O56">
+        <v>0.234375</v>
+      </c>
+      <c r="P56">
+        <f xml:space="preserve"> 1 +N56</f>
+        <v>55</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="57" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N57">
+        <v>55</v>
+      </c>
+      <c r="O57">
+        <v>0.265625</v>
+      </c>
+      <c r="P57">
+        <f xml:space="preserve"> 1 +N57</f>
+        <v>56</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="58" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N58">
+        <v>56</v>
+      </c>
+      <c r="O58">
+        <v>0.296875</v>
+      </c>
+      <c r="P58">
+        <f xml:space="preserve"> 1 +N58</f>
+        <v>57</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="59" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N59">
+        <v>57</v>
+      </c>
+      <c r="O59">
+        <v>0.265625</v>
+      </c>
+      <c r="P59">
+        <f xml:space="preserve"> 1 +N59</f>
+        <v>58</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="60" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N60">
+        <v>58</v>
+      </c>
+      <c r="O60">
+        <v>0.21875</v>
+      </c>
+      <c r="P60">
+        <f xml:space="preserve"> 1 +N60</f>
+        <v>59</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="61" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N61">
+        <v>59</v>
+      </c>
+      <c r="O61">
+        <v>0.25</v>
+      </c>
+      <c r="P61">
+        <f xml:space="preserve"> 1 +N61</f>
+        <v>60</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N62">
+        <v>60</v>
+      </c>
+      <c r="O62">
+        <v>0.28125</v>
+      </c>
+      <c r="P62">
+        <f xml:space="preserve"> 1 +N62</f>
+        <v>61</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="63" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N63">
+        <v>61</v>
+      </c>
+      <c r="O63">
+        <v>0.28125</v>
+      </c>
+      <c r="P63">
+        <f xml:space="preserve"> 1 +N63</f>
+        <v>62</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="64" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N64">
+        <v>62</v>
+      </c>
+      <c r="O64">
+        <v>0.1875</v>
+      </c>
+      <c r="P64">
+        <f xml:space="preserve"> 1 +N64</f>
+        <v>63</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N65">
+        <v>63</v>
+      </c>
+      <c r="O65">
+        <v>0.21875</v>
+      </c>
+      <c r="P65">
+        <f xml:space="preserve"> 1 +N65</f>
+        <v>64</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N66">
+        <v>64</v>
+      </c>
+      <c r="O66">
+        <v>0.3125</v>
+      </c>
+      <c r="P66">
+        <f xml:space="preserve"> 1 +N66</f>
+        <v>65</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N67">
+        <v>65</v>
+      </c>
+      <c r="O67">
+        <v>0.28125</v>
+      </c>
+      <c r="P67">
+        <f xml:space="preserve"> 1 +N67</f>
+        <v>66</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q101" si="2">100 - (100 *O67)</f>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N68">
+        <v>66</v>
+      </c>
+      <c r="O68">
+        <v>0.21875</v>
+      </c>
+      <c r="P68">
+        <f xml:space="preserve"> 1 +N68</f>
+        <v>67</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="2"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N69">
+        <v>67</v>
+      </c>
+      <c r="O69">
+        <v>0.203125</v>
+      </c>
+      <c r="P69">
+        <f xml:space="preserve"> 1 +N69</f>
+        <v>68</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="2"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N70">
+        <v>68</v>
+      </c>
+      <c r="O70">
+        <v>0.234375</v>
+      </c>
+      <c r="P70">
+        <f xml:space="preserve"> 1 +N70</f>
+        <v>69</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="2"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N71">
+        <v>69</v>
+      </c>
+      <c r="O71">
+        <v>0.203125</v>
+      </c>
+      <c r="P71">
+        <f xml:space="preserve"> 1 +N71</f>
+        <v>70</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="2"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N72">
+        <v>70</v>
+      </c>
+      <c r="O72">
+        <v>0.265625</v>
+      </c>
+      <c r="P72">
+        <f xml:space="preserve"> 1 +N72</f>
+        <v>71</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="2"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N73">
+        <v>71</v>
+      </c>
+      <c r="O73">
+        <v>0.171875</v>
+      </c>
+      <c r="P73">
+        <f xml:space="preserve"> 1 +N73</f>
+        <v>72</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="2"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N74">
+        <v>72</v>
+      </c>
+      <c r="O74">
+        <v>0.1875</v>
+      </c>
+      <c r="P74">
+        <f xml:space="preserve"> 1 +N74</f>
+        <v>73</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="2"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N75">
+        <v>73</v>
+      </c>
+      <c r="O75">
+        <v>0.21875</v>
+      </c>
+      <c r="P75">
+        <f xml:space="preserve"> 1 +N75</f>
+        <v>74</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="2"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N76">
+        <v>74</v>
+      </c>
+      <c r="O76">
+        <v>0.1875</v>
+      </c>
+      <c r="P76">
+        <f xml:space="preserve"> 1 +N76</f>
+        <v>75</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="2"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N77">
+        <v>75</v>
+      </c>
+      <c r="O77">
+        <v>0.171875</v>
+      </c>
+      <c r="P77">
+        <f xml:space="preserve"> 1 +N77</f>
+        <v>76</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="2"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N78">
+        <v>76</v>
+      </c>
+      <c r="O78">
+        <v>0.25</v>
+      </c>
+      <c r="P78">
+        <f xml:space="preserve"> 1 +N78</f>
+        <v>77</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N79">
+        <v>77</v>
+      </c>
+      <c r="O79">
+        <v>0.171875</v>
+      </c>
+      <c r="P79">
+        <f xml:space="preserve"> 1 +N79</f>
+        <v>78</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="2"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N80">
+        <v>78</v>
+      </c>
+      <c r="O80">
+        <v>0.265625</v>
+      </c>
+      <c r="P80">
+        <f xml:space="preserve"> 1 +N80</f>
+        <v>79</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="2"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N81">
+        <v>79</v>
+      </c>
+      <c r="O81">
+        <v>0.25</v>
+      </c>
+      <c r="P81">
+        <f t="shared" ref="P81:P101" si="3" xml:space="preserve"> 1 +N81</f>
+        <v>80</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N82">
+        <v>80</v>
+      </c>
+      <c r="O82">
+        <v>0.21875</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="2"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N83">
+        <v>81</v>
+      </c>
+      <c r="O83">
+        <v>0.265625</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="2"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N84">
+        <v>82</v>
+      </c>
+      <c r="O84">
+        <v>0.234375</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="2"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N85">
+        <v>83</v>
+      </c>
+      <c r="O85">
+        <v>0.171875</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="2"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N86">
+        <v>84</v>
+      </c>
+      <c r="O86">
+        <v>0.25</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N87">
+        <v>85</v>
+      </c>
+      <c r="O87">
+        <v>0.203125</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="2"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N88">
+        <v>86</v>
+      </c>
+      <c r="O88">
+        <v>0.21875</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="2"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N89">
+        <v>87</v>
+      </c>
+      <c r="O89">
+        <v>0.234375</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="2"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N90">
+        <v>88</v>
+      </c>
+      <c r="O90">
+        <v>0.25</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N91">
+        <v>89</v>
+      </c>
+      <c r="O91">
+        <v>0.234375</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="2"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N92">
+        <v>90</v>
+      </c>
+      <c r="O92">
+        <v>0.203125</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="2"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N93">
+        <v>91</v>
+      </c>
+      <c r="O93">
+        <v>0.234375</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="2"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N94">
+        <v>92</v>
+      </c>
+      <c r="O94">
+        <v>0.1875</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="2"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N95">
+        <v>93</v>
+      </c>
+      <c r="O95">
+        <v>0.21875</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="2"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N96">
+        <v>94</v>
+      </c>
+      <c r="O96">
+        <v>0.203125</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="2"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="97" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N97">
+        <v>95</v>
+      </c>
+      <c r="O97">
+        <v>0.21875</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="2"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="98" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N98">
+        <v>96</v>
+      </c>
+      <c r="O98">
+        <v>0.203125</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="2"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="99" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N99">
+        <v>97</v>
+      </c>
+      <c r="O99">
+        <v>0.203125</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="2"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="100" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N100">
+        <v>98</v>
+      </c>
+      <c r="O100">
+        <v>0.203125</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="2"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="101" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N101">
+        <v>99</v>
+      </c>
+      <c r="O101">
+        <v>0.203125</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="2"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A48:C48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4799BE18-82F0-4E3C-815D-378EA26C8E11}">
+  <dimension ref="A1:Q156"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="14" max="15" width="8.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>0.984375</v>
       </c>
       <c r="P2">
@@ -20496,6 +24907,2266 @@
       <c r="Q156">
         <f t="shared" si="5"/>
         <v>82.8125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6220D5-31CE-4077-B1A3-DB5C759D1CF7}">
+  <dimension ref="A1:Q138"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="16.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f xml:space="preserve"> 1+N2</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f xml:space="preserve"> 100- (100*O2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.6875</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="0" xml:space="preserve"> 1+N3</f>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="1" xml:space="preserve"> 100- (100*O3)</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0.578125</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0.4375</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>0.328125</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.296875</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.234375</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>0.25</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>0.296875</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>0.28125</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>0.328125</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>0.3125</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>0.25</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>0.359375</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0.265625</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>0.203125</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>0.1875</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="19" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>0.203125</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>0.25</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>0.25</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>0.234375</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="23" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>0.375</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="24" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>0.40625</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="25" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>0.15625</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="26" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>0.171875</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="27" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>0.1875</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="28" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N28">
+        <v>26</v>
+      </c>
+      <c r="O28">
+        <v>0.375</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="29" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <v>0.203125</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="30" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N30">
+        <v>28</v>
+      </c>
+      <c r="O30">
+        <v>0.1875</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="31" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>0.15625</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="32" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>0.328125</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N33">
+        <v>31</v>
+      </c>
+      <c r="O33">
+        <v>0.28125</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34">
+        <v>32</v>
+      </c>
+      <c r="O34">
+        <v>0.265625</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N35">
+        <v>33</v>
+      </c>
+      <c r="O35">
+        <v>0.203125</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N36">
+        <v>34</v>
+      </c>
+      <c r="O36">
+        <v>0.25</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37">
+        <v>0.3125</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N38">
+        <v>36</v>
+      </c>
+      <c r="O38">
+        <v>0.203125</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0.984375</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0.84375</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>0.53125</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>0.546875</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>45.3125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N43">
+        <v>4</v>
+      </c>
+      <c r="O43">
+        <v>0.4375</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <v>0.4375</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N45">
+        <v>6</v>
+      </c>
+      <c r="O45">
+        <v>0.359375</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N46">
+        <v>7</v>
+      </c>
+      <c r="O46">
+        <v>0.390625</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N47">
+        <v>8</v>
+      </c>
+      <c r="O47">
+        <v>0.390625</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N48">
+        <v>9</v>
+      </c>
+      <c r="O48">
+        <v>0.359375</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N49">
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <v>0.3125</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N50">
+        <v>11</v>
+      </c>
+      <c r="O50">
+        <v>0.375</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N51">
+        <v>12</v>
+      </c>
+      <c r="O51">
+        <v>0.296875</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N52">
+        <v>13</v>
+      </c>
+      <c r="O52">
+        <v>0.25</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N53">
+        <v>14</v>
+      </c>
+      <c r="O53">
+        <v>0.3125</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N54">
+        <v>15</v>
+      </c>
+      <c r="O54">
+        <v>0.34375</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <v>16</v>
+      </c>
+      <c r="O55">
+        <v>0.3125</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N56">
+        <v>17</v>
+      </c>
+      <c r="O56">
+        <v>0.328125</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N57">
+        <v>18</v>
+      </c>
+      <c r="O57">
+        <v>0.265625</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N58">
+        <v>19</v>
+      </c>
+      <c r="O58">
+        <v>0.515625</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>48.4375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N59">
+        <v>20</v>
+      </c>
+      <c r="O59">
+        <v>0.171875</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N60">
+        <v>21</v>
+      </c>
+      <c r="O60">
+        <v>0.171875</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N61">
+        <v>22</v>
+      </c>
+      <c r="O61">
+        <v>0.1875</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N62">
+        <v>23</v>
+      </c>
+      <c r="O62">
+        <v>0.40625</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N63">
+        <v>24</v>
+      </c>
+      <c r="O63">
+        <v>0.34375</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N64">
+        <v>25</v>
+      </c>
+      <c r="O64">
+        <v>0.40625</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="65" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N65">
+        <v>26</v>
+      </c>
+      <c r="O65">
+        <v>0.25</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N66">
+        <v>27</v>
+      </c>
+      <c r="O66">
+        <v>0.21875</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="67" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N67">
+        <v>28</v>
+      </c>
+      <c r="O67">
+        <v>0.265625</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P130" si="2" xml:space="preserve"> 1+N67</f>
+        <v>29</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q130" si="3" xml:space="preserve"> 100- (100*O67)</f>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="68" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N68">
+        <v>29</v>
+      </c>
+      <c r="O68">
+        <v>0.203125</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="69" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N69">
+        <v>30</v>
+      </c>
+      <c r="O69">
+        <v>0.25</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N70">
+        <v>31</v>
+      </c>
+      <c r="O70">
+        <v>0.4375</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="3"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="71" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N71">
+        <v>32</v>
+      </c>
+      <c r="O71">
+        <v>0.25</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N72">
+        <v>33</v>
+      </c>
+      <c r="O72">
+        <v>0.25</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N73">
+        <v>34</v>
+      </c>
+      <c r="O73">
+        <v>0.25</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N74">
+        <v>35</v>
+      </c>
+      <c r="O74">
+        <v>0.4375</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="75" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N75">
+        <v>36</v>
+      </c>
+      <c r="O75">
+        <v>0.21875</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="76" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N76">
+        <v>37</v>
+      </c>
+      <c r="O76">
+        <v>0.296875</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="3"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="77" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N77">
+        <v>38</v>
+      </c>
+      <c r="O77">
+        <v>0.1875</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="78" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N78">
+        <v>39</v>
+      </c>
+      <c r="O78">
+        <v>0.28125</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="3"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="79" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N79">
+        <v>40</v>
+      </c>
+      <c r="O79">
+        <v>0.21875</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="80" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N80">
+        <v>41</v>
+      </c>
+      <c r="O80">
+        <v>0.25</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N81">
+        <v>42</v>
+      </c>
+      <c r="O81">
+        <v>0.234375</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="82" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N82">
+        <v>43</v>
+      </c>
+      <c r="O82">
+        <v>0.203125</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="83" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N83">
+        <v>44</v>
+      </c>
+      <c r="O83">
+        <v>0.28125</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="3"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="84" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N84">
+        <v>45</v>
+      </c>
+      <c r="O84">
+        <v>0.28125</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="3"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="85" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N85">
+        <v>46</v>
+      </c>
+      <c r="O85">
+        <v>0.25</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N86">
+        <v>47</v>
+      </c>
+      <c r="O86">
+        <v>0.21875</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="87" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N87">
+        <v>48</v>
+      </c>
+      <c r="O87">
+        <v>0.25</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N88">
+        <v>49</v>
+      </c>
+      <c r="O88">
+        <v>0.1875</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="89" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N89">
+        <v>50</v>
+      </c>
+      <c r="O89">
+        <v>0.171875</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="90" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N90">
+        <v>51</v>
+      </c>
+      <c r="O90">
+        <v>0.1875</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="91" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N91">
+        <v>52</v>
+      </c>
+      <c r="O91">
+        <v>0.234375</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="92" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N92">
+        <v>53</v>
+      </c>
+      <c r="O92">
+        <v>0.265625</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="93" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N93">
+        <v>54</v>
+      </c>
+      <c r="O93">
+        <v>0.265625</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="94" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N94">
+        <v>55</v>
+      </c>
+      <c r="O94">
+        <v>0.203125</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="95" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N95">
+        <v>56</v>
+      </c>
+      <c r="O95">
+        <v>0.1875</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="96" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N96">
+        <v>57</v>
+      </c>
+      <c r="O96">
+        <v>0.34375</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="3"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="97" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N97">
+        <v>58</v>
+      </c>
+      <c r="O97">
+        <v>0.25</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N98">
+        <v>59</v>
+      </c>
+      <c r="O98">
+        <v>0.234375</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="99" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N99">
+        <v>60</v>
+      </c>
+      <c r="O99">
+        <v>0.234375</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="100" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N100">
+        <v>61</v>
+      </c>
+      <c r="O100">
+        <v>0.265625</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="101" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N101">
+        <v>62</v>
+      </c>
+      <c r="O101">
+        <v>0.234375</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="102" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N102">
+        <v>63</v>
+      </c>
+      <c r="O102">
+        <v>0.140625</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="103" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N103">
+        <v>64</v>
+      </c>
+      <c r="O103">
+        <v>0.203125</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="104" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N104">
+        <v>65</v>
+      </c>
+      <c r="O104">
+        <v>0.15625</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="105" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N105">
+        <v>66</v>
+      </c>
+      <c r="O105">
+        <v>0.21875</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="106" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N106">
+        <v>67</v>
+      </c>
+      <c r="O106">
+        <v>0.1875</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="107" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N107">
+        <v>68</v>
+      </c>
+      <c r="O107">
+        <v>0.1875</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="108" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N108">
+        <v>69</v>
+      </c>
+      <c r="O108">
+        <v>0.140625</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="109" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N109">
+        <v>70</v>
+      </c>
+      <c r="O109">
+        <v>0.1875</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="110" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N110">
+        <v>71</v>
+      </c>
+      <c r="O110">
+        <v>0.140625</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="111" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N111">
+        <v>72</v>
+      </c>
+      <c r="O111">
+        <v>0.21875</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="112" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N112">
+        <v>73</v>
+      </c>
+      <c r="O112">
+        <v>0.171875</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="113" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N113">
+        <v>74</v>
+      </c>
+      <c r="O113">
+        <v>0.203125</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="114" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N114">
+        <v>75</v>
+      </c>
+      <c r="O114">
+        <v>0.15625</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="115" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N115">
+        <v>76</v>
+      </c>
+      <c r="O115">
+        <v>0.1875</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="116" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N116">
+        <v>77</v>
+      </c>
+      <c r="O116">
+        <v>0.203125</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="117" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N117">
+        <v>78</v>
+      </c>
+      <c r="O117">
+        <v>0.1875</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="118" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N118">
+        <v>79</v>
+      </c>
+      <c r="O118">
+        <v>0.203125</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="119" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N119">
+        <v>80</v>
+      </c>
+      <c r="O119">
+        <v>0.203125</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="120" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N120">
+        <v>81</v>
+      </c>
+      <c r="O120">
+        <v>0.1875</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="121" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N121">
+        <v>82</v>
+      </c>
+      <c r="O121">
+        <v>0.1875</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="122" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N122">
+        <v>83</v>
+      </c>
+      <c r="O122">
+        <v>0.203125</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="123" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N123">
+        <v>84</v>
+      </c>
+      <c r="O123">
+        <v>0.171875</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="124" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N124">
+        <v>85</v>
+      </c>
+      <c r="O124">
+        <v>0.203125</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="125" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N125">
+        <v>86</v>
+      </c>
+      <c r="O125">
+        <v>0.171875</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="126" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N126">
+        <v>87</v>
+      </c>
+      <c r="O126">
+        <v>0.1875</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="127" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N127">
+        <v>88</v>
+      </c>
+      <c r="O127">
+        <v>0.234375</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="128" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N128">
+        <v>89</v>
+      </c>
+      <c r="O128">
+        <v>0.171875</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="129" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N129">
+        <v>90</v>
+      </c>
+      <c r="O129">
+        <v>0.1875</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="130" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N130">
+        <v>91</v>
+      </c>
+      <c r="O130">
+        <v>0.21875</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="131" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N131">
+        <v>92</v>
+      </c>
+      <c r="O131">
+        <v>0.203125</v>
+      </c>
+      <c r="P131">
+        <f t="shared" ref="P131:P138" si="4" xml:space="preserve"> 1+N131</f>
+        <v>93</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" ref="Q131:Q138" si="5" xml:space="preserve"> 100- (100*O131)</f>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="132" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N132">
+        <v>93</v>
+      </c>
+      <c r="O132">
+        <v>0.1875</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="5"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="133" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N133">
+        <v>94</v>
+      </c>
+      <c r="O133">
+        <v>0.21875</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="5"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="134" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N134">
+        <v>95</v>
+      </c>
+      <c r="O134">
+        <v>0.203125</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="5"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="135" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N135">
+        <v>96</v>
+      </c>
+      <c r="O135">
+        <v>0.203125</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="5"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="136" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N136">
+        <v>97</v>
+      </c>
+      <c r="O136">
+        <v>0.203125</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="5"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="137" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N137">
+        <v>98</v>
+      </c>
+      <c r="O137">
+        <v>0.203125</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="5"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="138" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N138">
+        <v>99</v>
+      </c>
+      <c r="O138">
+        <v>0.203125</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="5"/>
+        <v>79.6875</v>
       </c>
     </row>
   </sheetData>

--- a/Architecture Results.xlsx
+++ b/Architecture Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F8C73F-B47F-44AF-83DD-BE3472D17ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1812977-01E6-4271-8DCA-EE78C286989A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="3" activeTab="5" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="3" activeTab="7" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Three FNN" sheetId="5" r:id="rId5"/>
     <sheet name="Three FNN (Trail 2)" sheetId="8" r:id="rId6"/>
     <sheet name="SeperableConv1D" sheetId="6" r:id="rId7"/>
-    <sheet name="SeperableConv1D Trail 2" sheetId="7" r:id="rId8"/>
+    <sheet name="Two SeperableConv1D" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="21">
   <si>
     <t>Epoch</t>
   </si>
@@ -281,9 +281,6 @@
     </r>
   </si>
   <si>
-    <t>&lt;__main__.DisplayOutputs object at 0x7fa48fb5f9d0&gt;</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -304,6 +301,29 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Aded Seperable CNN Sequential layers instead of Feed Forward Neural Network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Average WRA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 86%</t>
     </r>
   </si>
 </sst>
@@ -3939,469 +3959,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="155"/>
                 <c:pt idx="0">
-                  <c:v>1.5625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.625</c:v>
+                  <c:v>20.3125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.1875</c:v>
+                  <c:v>45.3125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>57.8125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60.9375</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.9375</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59.375</c:v>
+                  <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.3125</c:v>
+                  <c:v>71.875</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>71.875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62.5</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67.1875</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70.3125</c:v>
+                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60.9375</c:v>
+                  <c:v>85.9375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.5625</c:v>
+                  <c:v>68.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.875</c:v>
+                  <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>73.4375</c:v>
+                  <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>64.0625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.3125</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45.3125</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>57.8125</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62.5</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>67.1875</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>64.0625</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>64.0625</c:v>
+                  <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>71.875</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="39">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>71.875</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="42">
                   <c:v>76.5625</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="43">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="44">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="48">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>78.125</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>64.0625</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="51">
                   <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>65.625</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>70.3125</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>82.8125</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="55">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>71.875</c:v>
-                </c:pt>
                 <c:pt idx="57">
-                  <c:v>78.125</c:v>
+                  <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>71.875</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="68">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>76.5625</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="71">
                   <c:v>81.25</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>71.875</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="72">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="73">
                   <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="75">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>82.8125</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>79.6875</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>84.375</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>73.4375</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="87">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>73.4375</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>71.875</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>81.25</c:v>
-                </c:pt>
                 <c:pt idx="90">
-                  <c:v>79.6875</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>78.125</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>79.6875</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>78.125</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>79.6875</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>82.8125</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>76.5625</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>79.6875</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>76.5625</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="104">
                   <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>71.875</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>90.625</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>93.75</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>87.5</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>89.0625</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>82.8125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4654,7 +4509,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SeperableConv1D Trail 2'!$Q$1</c:f>
+              <c:f>'Two SeperableConv1D'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4677,60 +4532,60 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>'SeperableConv1D Trail 2'!$Q$2:$Q$138</c:f>
+              <c:f>'Two SeperableConv1D'!$Q$2:$Q$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="137"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.5625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.25</c:v>
+                  <c:v>17.1875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.1875</c:v>
+                  <c:v>46.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.25</c:v>
+                  <c:v>53.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.1875</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>70.3125</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>76.5625</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>71.875</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>68.75</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>64.0625</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>73.4375</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>79.6875</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>81.25</c:v>
+                  <c:v>70.3125</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>79.6875</c:v>
@@ -4739,43 +4594,43 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75</c:v>
+                  <c:v>73.4375</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62.5</c:v>
+                  <c:v>67.1875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59.375</c:v>
+                  <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>84.375</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>67.1875</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>71.875</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>73.4375</c:v>
@@ -4784,313 +4639,202 @@
                   <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="41">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>79.6875</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.5625</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15.625</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>46.875</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45.3125</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="48">
                   <c:v>64.0625</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>60.9375</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>64.0625</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>62.5</c:v>
-                </c:pt>
                 <c:pt idx="49">
-                  <c:v>70.3125</c:v>
+                  <c:v>78.125</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>68.75</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>65.625</c:v>
-                </c:pt>
                 <c:pt idx="53">
-                  <c:v>68.75</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>67.1875</c:v>
+                  <c:v>84.375</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>73.4375</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>48.4375</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>82.8125</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>82.8125</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="65">
                   <c:v>81.25</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>65.625</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>59.375</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>73.4375</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>79.6875</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>56.25</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="69">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="70">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>56.25</c:v>
-                </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="82">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>78.125</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>70.3125</c:v>
-                </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="86">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>81.25</c:v>
                 </c:pt>
-                <c:pt idx="76">
-                  <c:v>71.875</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>71.875</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>71.875</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>81.25</c:v>
                 </c:pt>
-                <c:pt idx="87">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>81.25</c:v>
                 </c:pt>
-                <c:pt idx="89">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>73.4375</c:v>
-                </c:pt>
                 <c:pt idx="91">
-                  <c:v>73.4375</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>79.6875</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>65.625</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>75</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>76.5625</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>76.5625</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>73.4375</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="104">
                   <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>85.9375</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>84.375</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>76.5625</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>82.8125</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>81.25</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>78.125</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>79.6875</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>79.6875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5098,7 +4842,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F05-4414-9478-522063F60DEF}"/>
+              <c16:uniqueId val="{00000000-9FF4-4E49-B86B-04B476DAE621}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5110,11 +4854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="351965584"/>
-        <c:axId val="351966416"/>
+        <c:axId val="359929296"/>
+        <c:axId val="359933872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="351965584"/>
+        <c:axId val="359929296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5170,12 +4914,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351966416"/>
+        <c:crossAx val="359933872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="351966416"/>
+        <c:axId val="359933872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5232,7 +4976,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351965584"/>
+        <c:crossAx val="359929296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11057,22 +10801,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>596822</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>615872</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571B4CBD-C126-4779-988F-41570C3102E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EE90043-2D19-4CC8-BA79-86CE5FD7DE83}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11088,7 +10832,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="90488" y="10020301"/>
+          <a:off x="109538" y="12930188"/>
           <a:ext cx="2449434" cy="2609850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11101,22 +10845,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>168936</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>598485</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3DCD83-D174-41C1-97EB-93E708995CA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A321C6D4-6BEB-EB66-8702-604F13B9051F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11125,51 +10869,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="42862" y="404813"/>
-          <a:ext cx="3705225" cy="2297773"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>44451</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54428548-2206-F0EB-3D8C-93014A872EE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -11182,8 +10882,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="6243637"/>
-          <a:ext cx="4349751" cy="3262313"/>
+          <a:off x="109538" y="9263064"/>
+          <a:ext cx="4375147" cy="3281361"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11195,22 +10895,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>69056</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>169068</xdr:rowOff>
+      <xdr:colOff>69055</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>16668</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F96C6A6-7C22-2C23-D534-36EE210D9910}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA55C616-9C60-6855-94D3-D6347616560C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11222,10 +10922,54 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAEC593-D6B0-2B76-8524-FF9B84550A2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="361949"/>
+          <a:ext cx="5124450" cy="5697369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -14015,7 +13759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42A3482-7D09-4F3F-AF59-DD60F42082D0}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
@@ -15681,8 +15425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F0599E-5316-431B-B668-C7523689B4C6}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="N102" sqref="N102:Q118"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17353,7 +17097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DF022E-A6F6-4372-A24F-CCB99C6DC51F}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
@@ -20702,7 +20446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4625F72A-62EB-4831-B618-D2FE40BF9C73}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -20962,7 +20706,7 @@
         <v>0.359375</v>
       </c>
       <c r="P15">
-        <f xml:space="preserve"> 1 +N15</f>
+        <f t="shared" ref="P15:P46" si="2" xml:space="preserve"> 1 +N15</f>
         <v>14</v>
       </c>
       <c r="Q15">
@@ -20978,7 +20722,7 @@
         <v>0.296875</v>
       </c>
       <c r="P16">
-        <f xml:space="preserve"> 1 +N16</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="Q16">
@@ -20994,7 +20738,7 @@
         <v>0.328125</v>
       </c>
       <c r="P17">
-        <f xml:space="preserve"> 1 +N17</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="Q17">
@@ -21010,7 +20754,7 @@
         <v>0.234375</v>
       </c>
       <c r="P18">
-        <f xml:space="preserve"> 1 +N18</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="Q18">
@@ -21026,7 +20770,7 @@
         <v>0.21875</v>
       </c>
       <c r="P19">
-        <f xml:space="preserve"> 1 +N19</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="Q19">
@@ -21042,7 +20786,7 @@
         <v>0.265625</v>
       </c>
       <c r="P20">
-        <f xml:space="preserve"> 1 +N20</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="Q20">
@@ -21058,7 +20802,7 @@
         <v>0.234375</v>
       </c>
       <c r="P21">
-        <f xml:space="preserve"> 1 +N21</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="Q21">
@@ -21074,7 +20818,7 @@
         <v>0.28125</v>
       </c>
       <c r="P22">
-        <f xml:space="preserve"> 1 +N22</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="Q22">
@@ -21090,7 +20834,7 @@
         <v>0.3125</v>
       </c>
       <c r="P23">
-        <f xml:space="preserve"> 1 +N23</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="Q23">
@@ -21106,7 +20850,7 @@
         <v>0.390625</v>
       </c>
       <c r="P24">
-        <f xml:space="preserve"> 1 +N24</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="Q24">
@@ -21122,7 +20866,7 @@
         <v>0.40625</v>
       </c>
       <c r="P25">
-        <f xml:space="preserve"> 1 +N25</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="Q25">
@@ -21138,7 +20882,7 @@
         <v>0.375</v>
       </c>
       <c r="P26">
-        <f xml:space="preserve"> 1 +N26</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="Q26">
@@ -21154,7 +20898,7 @@
         <v>0.375</v>
       </c>
       <c r="P27">
-        <f xml:space="preserve"> 1 +N27</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="Q27">
@@ -21170,7 +20914,7 @@
         <v>0.3125</v>
       </c>
       <c r="P28">
-        <f xml:space="preserve"> 1 +N28</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="Q28">
@@ -21186,7 +20930,7 @@
         <v>0.375</v>
       </c>
       <c r="P29">
-        <f xml:space="preserve"> 1 +N29</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="Q29">
@@ -21202,7 +20946,7 @@
         <v>0.3125</v>
       </c>
       <c r="P30">
-        <f xml:space="preserve"> 1 +N30</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="Q30">
@@ -21218,7 +20962,7 @@
         <v>0.609375</v>
       </c>
       <c r="P31">
-        <f xml:space="preserve"> 1 +N31</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="Q31">
@@ -21234,7 +20978,7 @@
         <v>0.40625</v>
       </c>
       <c r="P32">
-        <f xml:space="preserve"> 1 +N32</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="Q32">
@@ -21250,7 +20994,7 @@
         <v>0.34375</v>
       </c>
       <c r="P33">
-        <f xml:space="preserve"> 1 +N33</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="Q33">
@@ -21266,7 +21010,7 @@
         <v>0.265625</v>
       </c>
       <c r="P34">
-        <f xml:space="preserve"> 1 +N34</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="Q34">
@@ -21282,7 +21026,7 @@
         <v>0.359375</v>
       </c>
       <c r="P35">
-        <f xml:space="preserve"> 1 +N35</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="Q35">
@@ -21298,7 +21042,7 @@
         <v>0.3125</v>
       </c>
       <c r="P36">
-        <f xml:space="preserve"> 1 +N36</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="Q36">
@@ -21314,7 +21058,7 @@
         <v>0.1875</v>
       </c>
       <c r="P37">
-        <f xml:space="preserve"> 1 +N37</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="Q37">
@@ -21330,7 +21074,7 @@
         <v>0.265625</v>
       </c>
       <c r="P38">
-        <f xml:space="preserve"> 1 +N38</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="Q38">
@@ -21346,7 +21090,7 @@
         <v>0.328125</v>
       </c>
       <c r="P39">
-        <f xml:space="preserve"> 1 +N39</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="Q39">
@@ -21362,7 +21106,7 @@
         <v>0.328125</v>
       </c>
       <c r="P40">
-        <f xml:space="preserve"> 1 +N40</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="Q40">
@@ -21378,7 +21122,7 @@
         <v>0.25</v>
       </c>
       <c r="P41">
-        <f xml:space="preserve"> 1 +N41</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="Q41">
@@ -21394,7 +21138,7 @@
         <v>0.234375</v>
       </c>
       <c r="P42">
-        <f xml:space="preserve"> 1 +N42</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="Q42">
@@ -21410,7 +21154,7 @@
         <v>0.203125</v>
       </c>
       <c r="P43">
-        <f xml:space="preserve"> 1 +N43</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="Q43">
@@ -21426,7 +21170,7 @@
         <v>0.390625</v>
       </c>
       <c r="P44">
-        <f xml:space="preserve"> 1 +N44</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="Q44">
@@ -21442,7 +21186,7 @@
         <v>0.34375</v>
       </c>
       <c r="P45">
-        <f xml:space="preserve"> 1 +N45</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="Q45">
@@ -21458,7 +21202,7 @@
         <v>0.359375</v>
       </c>
       <c r="P46">
-        <f xml:space="preserve"> 1 +N46</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="Q46">
@@ -21474,7 +21218,7 @@
         <v>0.296875</v>
       </c>
       <c r="P47">
-        <f xml:space="preserve"> 1 +N47</f>
+        <f t="shared" ref="P47:P80" si="3" xml:space="preserve"> 1 +N47</f>
         <v>46</v>
       </c>
       <c r="Q47">
@@ -21495,7 +21239,7 @@
         <v>0.28125</v>
       </c>
       <c r="P48">
-        <f xml:space="preserve"> 1 +N48</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="Q48">
@@ -21511,7 +21255,7 @@
         <v>0.234375</v>
       </c>
       <c r="P49">
-        <f xml:space="preserve"> 1 +N49</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="Q49">
@@ -21527,7 +21271,7 @@
         <v>0.265625</v>
       </c>
       <c r="P50">
-        <f xml:space="preserve"> 1 +N50</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="Q50">
@@ -21543,7 +21287,7 @@
         <v>0.296875</v>
       </c>
       <c r="P51">
-        <f xml:space="preserve"> 1 +N51</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="Q51">
@@ -21559,7 +21303,7 @@
         <v>0.265625</v>
       </c>
       <c r="P52">
-        <f xml:space="preserve"> 1 +N52</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="Q52">
@@ -21575,7 +21319,7 @@
         <v>0.15625</v>
       </c>
       <c r="P53">
-        <f xml:space="preserve"> 1 +N53</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="Q53">
@@ -21591,7 +21335,7 @@
         <v>0.25</v>
       </c>
       <c r="P54">
-        <f xml:space="preserve"> 1 +N54</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="Q54">
@@ -21607,7 +21351,7 @@
         <v>0.3125</v>
       </c>
       <c r="P55">
-        <f xml:space="preserve"> 1 +N55</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="Q55">
@@ -21623,7 +21367,7 @@
         <v>0.234375</v>
       </c>
       <c r="P56">
-        <f xml:space="preserve"> 1 +N56</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="Q56">
@@ -21639,7 +21383,7 @@
         <v>0.265625</v>
       </c>
       <c r="P57">
-        <f xml:space="preserve"> 1 +N57</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="Q57">
@@ -21655,7 +21399,7 @@
         <v>0.296875</v>
       </c>
       <c r="P58">
-        <f xml:space="preserve"> 1 +N58</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="Q58">
@@ -21671,7 +21415,7 @@
         <v>0.265625</v>
       </c>
       <c r="P59">
-        <f xml:space="preserve"> 1 +N59</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="Q59">
@@ -21687,7 +21431,7 @@
         <v>0.21875</v>
       </c>
       <c r="P60">
-        <f xml:space="preserve"> 1 +N60</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="Q60">
@@ -21703,7 +21447,7 @@
         <v>0.25</v>
       </c>
       <c r="P61">
-        <f xml:space="preserve"> 1 +N61</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="Q61">
@@ -21719,7 +21463,7 @@
         <v>0.28125</v>
       </c>
       <c r="P62">
-        <f xml:space="preserve"> 1 +N62</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="Q62">
@@ -21735,7 +21479,7 @@
         <v>0.28125</v>
       </c>
       <c r="P63">
-        <f xml:space="preserve"> 1 +N63</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="Q63">
@@ -21751,7 +21495,7 @@
         <v>0.1875</v>
       </c>
       <c r="P64">
-        <f xml:space="preserve"> 1 +N64</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="Q64">
@@ -21770,7 +21514,7 @@
         <v>0.21875</v>
       </c>
       <c r="P65">
-        <f xml:space="preserve"> 1 +N65</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="Q65">
@@ -21786,7 +21530,7 @@
         <v>0.3125</v>
       </c>
       <c r="P66">
-        <f xml:space="preserve"> 1 +N66</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="Q66">
@@ -21802,11 +21546,11 @@
         <v>0.28125</v>
       </c>
       <c r="P67">
-        <f xml:space="preserve"> 1 +N67</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q101" si="2">100 - (100 *O67)</f>
+        <f t="shared" ref="Q67:Q101" si="4">100 - (100 *O67)</f>
         <v>71.875</v>
       </c>
     </row>
@@ -21818,11 +21562,11 @@
         <v>0.21875</v>
       </c>
       <c r="P68">
-        <f xml:space="preserve"> 1 +N68</f>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78.125</v>
       </c>
     </row>
@@ -21834,11 +21578,11 @@
         <v>0.203125</v>
       </c>
       <c r="P69">
-        <f xml:space="preserve"> 1 +N69</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79.6875</v>
       </c>
     </row>
@@ -21850,11 +21594,11 @@
         <v>0.234375</v>
       </c>
       <c r="P70">
-        <f xml:space="preserve"> 1 +N70</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76.5625</v>
       </c>
     </row>
@@ -21866,11 +21610,11 @@
         <v>0.203125</v>
       </c>
       <c r="P71">
-        <f xml:space="preserve"> 1 +N71</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79.6875</v>
       </c>
     </row>
@@ -21882,11 +21626,11 @@
         <v>0.265625</v>
       </c>
       <c r="P72">
-        <f xml:space="preserve"> 1 +N72</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>73.4375</v>
       </c>
     </row>
@@ -21898,11 +21642,11 @@
         <v>0.171875</v>
       </c>
       <c r="P73">
-        <f xml:space="preserve"> 1 +N73</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82.8125</v>
       </c>
     </row>
@@ -21914,11 +21658,11 @@
         <v>0.1875</v>
       </c>
       <c r="P74">
-        <f xml:space="preserve"> 1 +N74</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81.25</v>
       </c>
     </row>
@@ -21930,11 +21674,11 @@
         <v>0.21875</v>
       </c>
       <c r="P75">
-        <f xml:space="preserve"> 1 +N75</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78.125</v>
       </c>
     </row>
@@ -21946,11 +21690,11 @@
         <v>0.1875</v>
       </c>
       <c r="P76">
-        <f xml:space="preserve"> 1 +N76</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81.25</v>
       </c>
     </row>
@@ -21962,11 +21706,11 @@
         <v>0.171875</v>
       </c>
       <c r="P77">
-        <f xml:space="preserve"> 1 +N77</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82.8125</v>
       </c>
     </row>
@@ -21978,11 +21722,11 @@
         <v>0.25</v>
       </c>
       <c r="P78">
-        <f xml:space="preserve"> 1 +N78</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
     </row>
@@ -21994,11 +21738,11 @@
         <v>0.171875</v>
       </c>
       <c r="P79">
-        <f xml:space="preserve"> 1 +N79</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82.8125</v>
       </c>
     </row>
@@ -22010,11 +21754,11 @@
         <v>0.265625</v>
       </c>
       <c r="P80">
-        <f xml:space="preserve"> 1 +N80</f>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>73.4375</v>
       </c>
     </row>
@@ -22026,11 +21770,11 @@
         <v>0.25</v>
       </c>
       <c r="P81">
-        <f t="shared" ref="P81:P101" si="3" xml:space="preserve"> 1 +N81</f>
+        <f t="shared" ref="P81:P101" si="5" xml:space="preserve"> 1 +N81</f>
         <v>80</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
     </row>
@@ -22042,11 +21786,11 @@
         <v>0.21875</v>
       </c>
       <c r="P82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78.125</v>
       </c>
     </row>
@@ -22058,11 +21802,11 @@
         <v>0.265625</v>
       </c>
       <c r="P83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>73.4375</v>
       </c>
     </row>
@@ -22074,11 +21818,11 @@
         <v>0.234375</v>
       </c>
       <c r="P84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76.5625</v>
       </c>
     </row>
@@ -22093,11 +21837,11 @@
         <v>0.171875</v>
       </c>
       <c r="P85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82.8125</v>
       </c>
     </row>
@@ -22109,11 +21853,11 @@
         <v>0.25</v>
       </c>
       <c r="P86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
     </row>
@@ -22125,11 +21869,11 @@
         <v>0.203125</v>
       </c>
       <c r="P87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79.6875</v>
       </c>
     </row>
@@ -22141,11 +21885,11 @@
         <v>0.21875</v>
       </c>
       <c r="P88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78.125</v>
       </c>
     </row>
@@ -22157,11 +21901,11 @@
         <v>0.234375</v>
       </c>
       <c r="P89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76.5625</v>
       </c>
     </row>
@@ -22173,11 +21917,11 @@
         <v>0.25</v>
       </c>
       <c r="P90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
     </row>
@@ -22189,11 +21933,11 @@
         <v>0.234375</v>
       </c>
       <c r="P91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76.5625</v>
       </c>
     </row>
@@ -22205,11 +21949,11 @@
         <v>0.203125</v>
       </c>
       <c r="P92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79.6875</v>
       </c>
     </row>
@@ -22221,11 +21965,11 @@
         <v>0.234375</v>
       </c>
       <c r="P93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76.5625</v>
       </c>
     </row>
@@ -22237,11 +21981,11 @@
         <v>0.1875</v>
       </c>
       <c r="P94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81.25</v>
       </c>
     </row>
@@ -22253,11 +21997,11 @@
         <v>0.21875</v>
       </c>
       <c r="P95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78.125</v>
       </c>
     </row>
@@ -22269,11 +22013,11 @@
         <v>0.203125</v>
       </c>
       <c r="P96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79.6875</v>
       </c>
     </row>
@@ -22285,11 +22029,11 @@
         <v>0.21875</v>
       </c>
       <c r="P97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78.125</v>
       </c>
     </row>
@@ -22301,11 +22045,11 @@
         <v>0.203125</v>
       </c>
       <c r="P98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79.6875</v>
       </c>
     </row>
@@ -22317,11 +22061,11 @@
         <v>0.203125</v>
       </c>
       <c r="P99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79.6875</v>
       </c>
     </row>
@@ -22333,11 +22077,11 @@
         <v>0.203125</v>
       </c>
       <c r="P100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79.6875</v>
       </c>
     </row>
@@ -22349,11 +22093,11 @@
         <v>0.203125</v>
       </c>
       <c r="P101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79.6875</v>
       </c>
     </row>
@@ -22371,10 +22115,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4799BE18-82F0-4E3C-815D-378EA26C8E11}">
-  <dimension ref="A1:Q156"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22410,7 +22154,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -22423,15 +22167,15 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.984375</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <f xml:space="preserve"> 1+N2</f>
+        <f t="shared" ref="P2:P33" si="0" xml:space="preserve"> 1+N2</f>
         <v>1</v>
       </c>
       <c r="Q2">
-        <f xml:space="preserve"> 100- (100*O2)</f>
-        <v>1.5625</v>
+        <f t="shared" ref="Q2:Q33" si="1" xml:space="preserve"> 100- (100*O2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
@@ -22439,15 +22183,15 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>0.84375</v>
+        <v>0.796875</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="0" xml:space="preserve"> 1+N3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="1" xml:space="preserve"> 100- (100*O3)</f>
-        <v>15.625</v>
+        <f t="shared" si="1"/>
+        <v>20.3125</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
@@ -22455,7 +22199,7 @@
         <v>2</v>
       </c>
       <c r="O4">
-        <v>0.578125</v>
+        <v>0.546875</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -22463,7 +22207,7 @@
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>45.3125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
@@ -22471,7 +22215,7 @@
         <v>3</v>
       </c>
       <c r="O5">
-        <v>0.5</v>
+        <v>0.421875</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -22479,7 +22223,7 @@
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>57.8125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
@@ -22487,7 +22231,7 @@
         <v>4</v>
       </c>
       <c r="O6">
-        <v>0.390625</v>
+        <v>0.375</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
@@ -22495,7 +22239,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
@@ -22503,7 +22247,7 @@
         <v>5</v>
       </c>
       <c r="O7">
-        <v>0.390625</v>
+        <v>0.328125</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -22511,7 +22255,7 @@
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -22535,7 +22279,7 @@
         <v>7</v>
       </c>
       <c r="O9">
-        <v>0.40625</v>
+        <v>0.359375</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
@@ -22543,7 +22287,7 @@
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
@@ -22551,7 +22295,7 @@
         <v>8</v>
       </c>
       <c r="O10">
-        <v>0.296875</v>
+        <v>0.28125</v>
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
@@ -22559,7 +22303,7 @@
       </c>
       <c r="Q10">
         <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
@@ -22583,7 +22327,7 @@
         <v>10</v>
       </c>
       <c r="O12">
-        <v>0.375</v>
+        <v>0.234375</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
@@ -22591,7 +22335,7 @@
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -22599,7 +22343,7 @@
         <v>11</v>
       </c>
       <c r="O13">
-        <v>0.328125</v>
+        <v>0.25</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
@@ -22607,7 +22351,7 @@
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
@@ -22615,7 +22359,7 @@
         <v>12</v>
       </c>
       <c r="O14">
-        <v>0.296875</v>
+        <v>0.203125</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
@@ -22623,7 +22367,7 @@
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -22631,7 +22375,7 @@
         <v>13</v>
       </c>
       <c r="O15">
-        <v>0.390625</v>
+        <v>0.140625</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
@@ -22639,7 +22383,7 @@
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
@@ -22652,7 +22396,7 @@
         <v>14</v>
       </c>
       <c r="O16">
-        <v>0.234375</v>
+        <v>0.3125</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
@@ -22660,7 +22404,7 @@
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="17" spans="14:17" x14ac:dyDescent="0.45">
@@ -22668,7 +22412,7 @@
         <v>15</v>
       </c>
       <c r="O17">
-        <v>0.28125</v>
+        <v>0.21875</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
@@ -22676,7 +22420,7 @@
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>71.875</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.45">
@@ -22684,7 +22428,7 @@
         <v>16</v>
       </c>
       <c r="O18">
-        <v>0.265625</v>
+        <v>0.21875</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
@@ -22692,7 +22436,7 @@
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.45">
@@ -22713,226 +22457,226 @@
     </row>
     <row r="20" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0.21875</v>
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Q20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="21" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N21">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="O21">
-        <v>0.796875</v>
+        <v>0.1875</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q21">
         <f t="shared" si="1"/>
-        <v>20.3125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="22" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N22">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O22">
-        <v>0.546875</v>
+        <v>0.171875</v>
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="Q22">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="23" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N23">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O23">
-        <v>0.421875</v>
+        <v>0.234375</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
-        <v>57.8125</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="24" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N24">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="O24">
-        <v>0.375</v>
+        <v>0.234375</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Q24">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="25" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N25">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="O25">
-        <v>0.328125</v>
+        <v>0.25</v>
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Q25">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N26">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="O26">
-        <v>0.359375</v>
+        <v>0.25</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="Q26">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N27">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="O27">
-        <v>0.359375</v>
+        <v>0.21875</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Q27">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="28" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N28">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="O28">
-        <v>0.28125</v>
+        <v>0.203125</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="Q28">
         <f t="shared" si="1"/>
-        <v>71.875</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="29" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N29">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="O29">
-        <v>0.28125</v>
+        <v>0.21875</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="Q29">
         <f t="shared" si="1"/>
-        <v>71.875</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="30" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N30">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="O30">
-        <v>0.234375</v>
+        <v>0.203125</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Q30">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="31" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N31">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="O31">
-        <v>0.25</v>
+        <v>0.34375</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Q31">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>65.625</v>
       </c>
     </row>
     <row r="32" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N32">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="O32">
-        <v>0.203125</v>
+        <v>0.296875</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="Q32">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N33">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="O33">
-        <v>0.140625</v>
+        <v>0.25</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Q33">
         <f t="shared" si="1"/>
-        <v>85.9375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
@@ -22940,337 +22684,337 @@
         <v>9</v>
       </c>
       <c r="N34">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O34">
-        <v>0.3125</v>
+        <v>0.15625</v>
       </c>
       <c r="P34">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" ref="P34:P65" si="2" xml:space="preserve"> 1+N34</f>
+        <v>33</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="1"/>
-        <v>68.75</v>
+        <f t="shared" ref="Q34:Q65" si="3" xml:space="preserve"> 100- (100*O34)</f>
+        <v>84.375</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N35">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="O35">
-        <v>0.21875</v>
+        <v>0.203125</v>
       </c>
       <c r="P35">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="1"/>
-        <v>78.125</v>
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N36">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="O36">
-        <v>0.21875</v>
+        <v>0.203125</v>
       </c>
       <c r="P36">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="1"/>
-        <v>78.125</v>
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N37">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="O37">
-        <v>0.359375</v>
+        <v>0.171875</v>
       </c>
       <c r="P37">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N38">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="O38">
-        <v>0.21875</v>
+        <v>0.203125</v>
       </c>
       <c r="P38">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>37</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="1"/>
-        <v>78.125</v>
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N39">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="O39">
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="P39">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="1"/>
-        <v>81.25</v>
+        <f t="shared" si="3"/>
+        <v>78.125</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N40">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="O40">
-        <v>0.171875</v>
+        <v>0.28125</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>39</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <f t="shared" si="3"/>
+        <v>71.875</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N41">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="O41">
-        <v>0.234375</v>
+        <v>0.21875</v>
       </c>
       <c r="P41">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <f t="shared" si="3"/>
+        <v>78.125</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N42">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="O42">
-        <v>0.234375</v>
+        <v>0.21875</v>
       </c>
       <c r="P42">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <f t="shared" si="3"/>
+        <v>78.125</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N43">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="O43">
-        <v>0.25</v>
+        <v>0.28125</v>
       </c>
       <c r="P43">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>71.875</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N44">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="O44">
-        <v>0.25</v>
+        <v>0.234375</v>
       </c>
       <c r="P44">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N45">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="O45">
-        <v>0.21875</v>
+        <v>0.25</v>
       </c>
       <c r="P45">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f t="shared" si="2"/>
+        <v>44</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="1"/>
-        <v>78.125</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N46">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="O46">
-        <v>0.203125</v>
+        <v>0.1875</v>
       </c>
       <c r="P46">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <f t="shared" si="3"/>
+        <v>81.25</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N47">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="O47">
-        <v>0.21875</v>
+        <v>0.28125</v>
       </c>
       <c r="P47">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>46</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="1"/>
-        <v>78.125</v>
+        <f t="shared" si="3"/>
+        <v>71.875</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N48">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="O48">
-        <v>0.203125</v>
+        <v>0.15625</v>
       </c>
       <c r="P48">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <f t="shared" si="3"/>
+        <v>84.375</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N49">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="O49">
-        <v>0.34375</v>
+        <v>0.203125</v>
       </c>
       <c r="P49">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="1"/>
-        <v>65.625</v>
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N50">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="O50">
-        <v>0.296875</v>
+        <v>0.171875</v>
       </c>
       <c r="P50">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N51">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="O51">
-        <v>0.25</v>
+        <v>0.15625</v>
       </c>
       <c r="P51">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>84.375</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N52">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O52">
-        <v>0.15625</v>
+        <v>0.21875</v>
       </c>
       <c r="P52">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="1"/>
-        <v>84.375</v>
+        <f t="shared" si="3"/>
+        <v>78.125</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N53">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O53">
-        <v>0.203125</v>
+        <v>0.25</v>
       </c>
       <c r="P53">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <f t="shared" si="2"/>
+        <v>52</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N54">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="O54">
         <v>0.203125</v>
       </c>
       <c r="P54">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>53</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79.6875</v>
       </c>
     </row>
@@ -23279,1634 +23023,754 @@
         <v>6</v>
       </c>
       <c r="N55">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="O55">
-        <v>0.171875</v>
+        <v>0.21875</v>
       </c>
       <c r="P55">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <f t="shared" si="3"/>
+        <v>78.125</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N56">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="O56">
-        <v>0.203125</v>
+        <v>0.171875</v>
       </c>
       <c r="P56">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>55</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N57">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="O57">
-        <v>0.21875</v>
+        <v>0.15625</v>
       </c>
       <c r="P57">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="1"/>
-        <v>78.125</v>
+        <f t="shared" si="3"/>
+        <v>84.375</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N58">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="O58">
-        <v>0.28125</v>
+        <v>0.203125</v>
       </c>
       <c r="P58">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="1"/>
-        <v>71.875</v>
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N59">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="O59">
-        <v>0.21875</v>
+        <v>0.171875</v>
       </c>
       <c r="P59">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>58</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="1"/>
-        <v>78.125</v>
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N60">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="O60">
         <v>0.21875</v>
       </c>
       <c r="P60">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78.125</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N61">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="O61">
-        <v>0.28125</v>
+        <v>0.234375</v>
       </c>
       <c r="P61">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="1"/>
-        <v>71.875</v>
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N62">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="O62">
-        <v>0.234375</v>
+        <v>0.1875</v>
       </c>
       <c r="P62">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>61</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <f t="shared" si="3"/>
+        <v>81.25</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N63">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O63">
-        <v>0.25</v>
+        <v>0.203125</v>
       </c>
       <c r="P63">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N64">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="O64">
-        <v>0.1875</v>
+        <v>0.203125</v>
       </c>
       <c r="P64">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" si="2"/>
+        <v>63</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="1"/>
-        <v>81.25</v>
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="65" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N65">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="O65">
-        <v>0.28125</v>
+        <v>0.15625</v>
       </c>
       <c r="P65">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="1"/>
-        <v>71.875</v>
+        <f t="shared" si="3"/>
+        <v>84.375</v>
       </c>
     </row>
     <row r="66" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N66">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="O66">
-        <v>0.15625</v>
+        <v>0.25</v>
       </c>
       <c r="P66">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <f t="shared" ref="P66:P101" si="4" xml:space="preserve"> 1+N66</f>
+        <v>65</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="1"/>
-        <v>84.375</v>
+        <f t="shared" ref="Q66:Q101" si="5" xml:space="preserve"> 100- (100*O66)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N67">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="O67">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P130" si="2" xml:space="preserve"> 1+N67</f>
-        <v>48</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q130" si="3" xml:space="preserve"> 100- (100*O67)</f>
-        <v>79.6875</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="68" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N68">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="O68">
-        <v>0.171875</v>
+        <v>0.265625</v>
       </c>
       <c r="P68">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <f t="shared" si="4"/>
+        <v>67</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="69" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N69">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="O69">
-        <v>0.15625</v>
+        <v>0.28125</v>
       </c>
       <c r="P69">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="3"/>
-        <v>84.375</v>
+        <f t="shared" si="5"/>
+        <v>71.875</v>
       </c>
     </row>
     <row r="70" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N70">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="O70">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="P70">
-        <f t="shared" si="2"/>
-        <v>51</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="3"/>
-        <v>78.125</v>
+        <f t="shared" si="5"/>
+        <v>81.25</v>
       </c>
     </row>
     <row r="71" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N71">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="O71">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="P71">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="3"/>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>81.25</v>
       </c>
     </row>
     <row r="72" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N72">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="O72">
-        <v>0.203125</v>
+        <v>0.234375</v>
       </c>
       <c r="P72">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <f t="shared" si="4"/>
+        <v>71</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <f t="shared" si="5"/>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="73" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N73">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="O73">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="P73">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>72</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="3"/>
-        <v>78.125</v>
+        <f t="shared" si="5"/>
+        <v>81.25</v>
       </c>
     </row>
     <row r="74" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N74">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="O74">
-        <v>0.171875</v>
+        <v>0.203125</v>
       </c>
       <c r="P74">
-        <f t="shared" si="2"/>
-        <v>55</v>
+        <f t="shared" si="4"/>
+        <v>73</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <f t="shared" si="5"/>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="75" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N75">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="O75">
-        <v>0.15625</v>
+        <v>0.21875</v>
       </c>
       <c r="P75">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>74</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="3"/>
-        <v>84.375</v>
+        <f t="shared" si="5"/>
+        <v>78.125</v>
       </c>
     </row>
     <row r="76" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N76">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="O76">
         <v>0.203125</v>
       </c>
       <c r="P76">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79.6875</v>
       </c>
     </row>
     <row r="77" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N77">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="O77">
-        <v>0.171875</v>
+        <v>0.21875</v>
       </c>
       <c r="P77">
-        <f t="shared" si="2"/>
-        <v>58</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <f t="shared" si="5"/>
+        <v>78.125</v>
       </c>
     </row>
     <row r="78" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N78">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="O78">
-        <v>0.21875</v>
+        <v>0.203125</v>
       </c>
       <c r="P78">
-        <f t="shared" si="2"/>
-        <v>59</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="3"/>
-        <v>78.125</v>
+        <f t="shared" si="5"/>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="79" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N79">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="O79">
-        <v>0.234375</v>
+        <v>0.171875</v>
       </c>
       <c r="P79">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>78</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="3"/>
-        <v>76.5625</v>
+        <f t="shared" si="5"/>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="80" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N80">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="O80">
-        <v>0.1875</v>
+        <v>0.234375</v>
       </c>
       <c r="P80">
-        <f t="shared" si="2"/>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>79</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
+        <f t="shared" si="5"/>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="81" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N81">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="O81">
         <v>0.203125</v>
       </c>
       <c r="P81">
-        <f t="shared" si="2"/>
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79.6875</v>
       </c>
     </row>
     <row r="82" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N82">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="O82">
-        <v>0.203125</v>
+        <v>0.234375</v>
       </c>
       <c r="P82">
-        <f t="shared" si="2"/>
-        <v>63</v>
+        <f t="shared" si="4"/>
+        <v>81</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <f t="shared" si="5"/>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="83" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N83">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="O83">
-        <v>0.15625</v>
+        <v>0.234375</v>
       </c>
       <c r="P83">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>82</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="3"/>
-        <v>84.375</v>
+        <f t="shared" si="5"/>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="84" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N84">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="O84">
         <v>0.25</v>
       </c>
       <c r="P84">
-        <f t="shared" si="2"/>
-        <v>65</v>
+        <f t="shared" si="4"/>
+        <v>83</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
     <row r="85" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N85">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="O85">
-        <v>0.265625</v>
+        <v>0.21875</v>
       </c>
       <c r="P85">
-        <f t="shared" si="2"/>
-        <v>66</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
+        <f t="shared" si="5"/>
+        <v>78.125</v>
       </c>
     </row>
     <row r="86" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N86">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="O86">
-        <v>0.265625</v>
+        <v>0.25</v>
       </c>
       <c r="P86">
-        <f t="shared" si="2"/>
-        <v>67</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
+        <f t="shared" si="5"/>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N87">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="O87">
-        <v>0.28125</v>
+        <v>0.1875</v>
       </c>
       <c r="P87">
-        <f t="shared" si="2"/>
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>86</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="3"/>
-        <v>71.875</v>
+        <f t="shared" si="5"/>
+        <v>81.25</v>
       </c>
     </row>
     <row r="88" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N88">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="O88">
-        <v>0.1875</v>
+        <v>0.265625</v>
       </c>
       <c r="P88">
-        <f t="shared" si="2"/>
-        <v>69</v>
+        <f t="shared" si="4"/>
+        <v>87</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="89" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N89">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="O89">
-        <v>0.1875</v>
+        <v>0.234375</v>
       </c>
       <c r="P89">
-        <f t="shared" si="2"/>
-        <v>70</v>
+        <f t="shared" si="4"/>
+        <v>88</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
+        <f t="shared" si="5"/>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="90" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N90">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="O90">
-        <v>0.234375</v>
+        <v>0.28125</v>
       </c>
       <c r="P90">
-        <f t="shared" si="2"/>
-        <v>71</v>
+        <f t="shared" si="4"/>
+        <v>89</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="3"/>
-        <v>76.5625</v>
+        <f t="shared" si="5"/>
+        <v>71.875</v>
       </c>
     </row>
     <row r="91" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N91">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="O91">
-        <v>0.1875</v>
+        <v>0.265625</v>
       </c>
       <c r="P91">
-        <f t="shared" si="2"/>
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="92" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N92">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="O92">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="P92">
-        <f t="shared" si="2"/>
-        <v>73</v>
+        <f t="shared" si="4"/>
+        <v>91</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="93" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N93">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O93">
-        <v>0.21875</v>
+        <v>0.265625</v>
       </c>
       <c r="P93">
-        <f t="shared" si="2"/>
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="3"/>
-        <v>78.125</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="94" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N94">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="O94">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="P94">
-        <f t="shared" si="2"/>
-        <v>75</v>
+        <f t="shared" si="4"/>
+        <v>93</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="95" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N95">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="O95">
-        <v>0.21875</v>
+        <v>0.265625</v>
       </c>
       <c r="P95">
-        <f t="shared" si="2"/>
-        <v>76</v>
+        <f t="shared" si="4"/>
+        <v>94</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="3"/>
-        <v>78.125</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="96" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N96">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="O96">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="P96">
-        <f t="shared" si="2"/>
-        <v>77</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="97" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N97">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="O97">
-        <v>0.171875</v>
+        <v>0.265625</v>
       </c>
       <c r="P97">
-        <f t="shared" si="2"/>
-        <v>78</v>
+        <f t="shared" si="4"/>
+        <v>96</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="98" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N98">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="O98">
-        <v>0.234375</v>
+        <v>0.265625</v>
       </c>
       <c r="P98">
-        <f t="shared" si="2"/>
-        <v>79</v>
+        <f t="shared" si="4"/>
+        <v>97</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="3"/>
-        <v>76.5625</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="99" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N99">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="O99">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="P99">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>98</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="100" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N100">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="O100">
-        <v>0.234375</v>
+        <v>0.265625</v>
       </c>
       <c r="P100">
-        <f t="shared" si="2"/>
-        <v>81</v>
+        <f t="shared" si="4"/>
+        <v>99</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="3"/>
-        <v>76.5625</v>
+        <f t="shared" si="5"/>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="101" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N101">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="O101">
-        <v>0.234375</v>
+        <v>0.265625</v>
       </c>
       <c r="P101">
-        <f t="shared" si="2"/>
-        <v>82</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="3"/>
-        <v>76.5625</v>
-      </c>
-    </row>
-    <row r="102" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N102">
-        <v>82</v>
-      </c>
-      <c r="O102">
-        <v>0.25</v>
-      </c>
-      <c r="P102">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="Q102">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="103" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N103">
-        <v>83</v>
-      </c>
-      <c r="O103">
-        <v>0.21875</v>
-      </c>
-      <c r="P103">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="Q103">
-        <f t="shared" si="3"/>
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="104" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N104">
-        <v>84</v>
-      </c>
-      <c r="O104">
-        <v>0.25</v>
-      </c>
-      <c r="P104">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="Q104">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N105">
-        <v>85</v>
-      </c>
-      <c r="O105">
-        <v>0.1875</v>
-      </c>
-      <c r="P105">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="Q105">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="106" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N106">
-        <v>86</v>
-      </c>
-      <c r="O106">
-        <v>0.265625</v>
-      </c>
-      <c r="P106">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="Q106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73.4375</v>
-      </c>
-    </row>
-    <row r="107" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N107">
-        <v>87</v>
-      </c>
-      <c r="O107">
-        <v>0.234375</v>
-      </c>
-      <c r="P107">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="Q107">
-        <f t="shared" si="3"/>
-        <v>76.5625</v>
-      </c>
-    </row>
-    <row r="108" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N108">
-        <v>88</v>
-      </c>
-      <c r="O108">
-        <v>0.28125</v>
-      </c>
-      <c r="P108">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="Q108">
-        <f t="shared" si="3"/>
-        <v>71.875</v>
-      </c>
-    </row>
-    <row r="109" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N109">
-        <v>89</v>
-      </c>
-      <c r="O109">
-        <v>0.265625</v>
-      </c>
-      <c r="P109">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="Q109">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="110" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N110">
-        <v>90</v>
-      </c>
-      <c r="O110">
-        <v>0.265625</v>
-      </c>
-      <c r="P110">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="Q110">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="111" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N111">
-        <v>91</v>
-      </c>
-      <c r="O111">
-        <v>0.265625</v>
-      </c>
-      <c r="P111">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="Q111">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="112" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N112">
-        <v>92</v>
-      </c>
-      <c r="O112">
-        <v>0.265625</v>
-      </c>
-      <c r="P112">
-        <f t="shared" si="2"/>
-        <v>93</v>
-      </c>
-      <c r="Q112">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="113" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N113">
-        <v>93</v>
-      </c>
-      <c r="O113">
-        <v>0.265625</v>
-      </c>
-      <c r="P113">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="Q113">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="114" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N114">
-        <v>94</v>
-      </c>
-      <c r="O114">
-        <v>0.265625</v>
-      </c>
-      <c r="P114">
-        <f t="shared" si="2"/>
-        <v>95</v>
-      </c>
-      <c r="Q114">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="115" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N115">
-        <v>95</v>
-      </c>
-      <c r="O115">
-        <v>0.265625</v>
-      </c>
-      <c r="P115">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-      <c r="Q115">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="116" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N116">
-        <v>96</v>
-      </c>
-      <c r="O116">
-        <v>0.265625</v>
-      </c>
-      <c r="P116">
-        <f t="shared" si="2"/>
-        <v>97</v>
-      </c>
-      <c r="Q116">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="117" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N117">
-        <v>97</v>
-      </c>
-      <c r="O117">
-        <v>0.265625</v>
-      </c>
-      <c r="P117">
-        <f t="shared" si="2"/>
-        <v>98</v>
-      </c>
-      <c r="Q117">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="118" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N118">
-        <v>98</v>
-      </c>
-      <c r="O118">
-        <v>0.265625</v>
-      </c>
-      <c r="P118">
-        <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="Q118">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="119" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N119">
-        <v>99</v>
-      </c>
-      <c r="O119">
-        <v>0.265625</v>
-      </c>
-      <c r="P119">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="Q119">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="120" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N120" t="s">
-        <v>19</v>
-      </c>
-      <c r="O120">
-        <v>0.265625</v>
-      </c>
-      <c r="P120" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q120">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="121" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N121" t="s">
-        <v>19</v>
-      </c>
-      <c r="O121">
-        <v>0.171875</v>
-      </c>
-      <c r="P121" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q121">
-        <f t="shared" si="3"/>
-        <v>82.8125</v>
-      </c>
-    </row>
-    <row r="122" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N122" t="s">
-        <v>19</v>
-      </c>
-      <c r="O122">
-        <v>0.125</v>
-      </c>
-      <c r="P122" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q122">
-        <f t="shared" si="3"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="123" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N123" t="s">
-        <v>19</v>
-      </c>
-      <c r="O123">
-        <v>0.15625</v>
-      </c>
-      <c r="P123" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q123">
-        <f t="shared" si="3"/>
-        <v>84.375</v>
-      </c>
-    </row>
-    <row r="124" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N124" t="s">
-        <v>19</v>
-      </c>
-      <c r="O124">
-        <v>0.15625</v>
-      </c>
-      <c r="P124" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q124">
-        <f t="shared" si="3"/>
-        <v>84.375</v>
-      </c>
-    </row>
-    <row r="125" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N125" t="s">
-        <v>19</v>
-      </c>
-      <c r="O125">
-        <v>9.375E-2</v>
-      </c>
-      <c r="P125" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q125">
-        <f t="shared" si="3"/>
-        <v>90.625</v>
-      </c>
-    </row>
-    <row r="126" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N126" t="s">
-        <v>19</v>
-      </c>
-      <c r="O126">
-        <v>0.140625</v>
-      </c>
-      <c r="P126" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q126">
-        <f t="shared" si="3"/>
-        <v>85.9375</v>
-      </c>
-    </row>
-    <row r="127" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N127" t="s">
-        <v>19</v>
-      </c>
-      <c r="O127">
-        <v>0.125</v>
-      </c>
-      <c r="P127" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q127">
-        <f t="shared" si="3"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="128" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N128" t="s">
-        <v>19</v>
-      </c>
-      <c r="O128">
-        <v>9.375E-2</v>
-      </c>
-      <c r="P128" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q128">
-        <f t="shared" si="3"/>
-        <v>90.625</v>
-      </c>
-    </row>
-    <row r="129" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N129" t="s">
-        <v>19</v>
-      </c>
-      <c r="O129">
-        <v>0.265625</v>
-      </c>
-      <c r="P129" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q129">
-        <f t="shared" si="3"/>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="130" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N130" t="s">
-        <v>19</v>
-      </c>
-      <c r="O130">
-        <v>0.125</v>
-      </c>
-      <c r="P130" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q130">
-        <f t="shared" si="3"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="131" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N131" t="s">
-        <v>19</v>
-      </c>
-      <c r="O131">
-        <v>0.171875</v>
-      </c>
-      <c r="P131" t="e">
-        <f t="shared" ref="P131:P156" si="4" xml:space="preserve"> 1+N131</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q131">
-        <f t="shared" ref="Q131:Q156" si="5" xml:space="preserve"> 100- (100*O131)</f>
-        <v>82.8125</v>
-      </c>
-    </row>
-    <row r="132" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N132" t="s">
-        <v>19</v>
-      </c>
-      <c r="O132">
-        <v>0.140625</v>
-      </c>
-      <c r="P132" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q132">
-        <f t="shared" si="5"/>
-        <v>85.9375</v>
-      </c>
-    </row>
-    <row r="133" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N133" t="s">
-        <v>19</v>
-      </c>
-      <c r="O133">
-        <v>9.375E-2</v>
-      </c>
-      <c r="P133" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q133">
-        <f t="shared" si="5"/>
-        <v>90.625</v>
-      </c>
-    </row>
-    <row r="134" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N134" t="s">
-        <v>19</v>
-      </c>
-      <c r="O134">
-        <v>0.109375</v>
-      </c>
-      <c r="P134" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q134">
-        <f t="shared" si="5"/>
-        <v>89.0625</v>
-      </c>
-    </row>
-    <row r="135" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N135" t="s">
-        <v>19</v>
-      </c>
-      <c r="O135">
-        <v>0.1875</v>
-      </c>
-      <c r="P135" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q135">
-        <f t="shared" si="5"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="136" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N136" t="s">
-        <v>19</v>
-      </c>
-      <c r="O136">
-        <v>0.15625</v>
-      </c>
-      <c r="P136" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q136">
-        <f t="shared" si="5"/>
-        <v>84.375</v>
-      </c>
-    </row>
-    <row r="137" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N137" t="s">
-        <v>19</v>
-      </c>
-      <c r="O137">
-        <v>0.171875</v>
-      </c>
-      <c r="P137" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q137">
-        <f t="shared" si="5"/>
-        <v>82.8125</v>
-      </c>
-    </row>
-    <row r="138" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N138" t="s">
-        <v>19</v>
-      </c>
-      <c r="O138">
-        <v>0.140625</v>
-      </c>
-      <c r="P138" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q138">
-        <f t="shared" si="5"/>
-        <v>85.9375</v>
-      </c>
-    </row>
-    <row r="139" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N139" t="s">
-        <v>19</v>
-      </c>
-      <c r="O139">
-        <v>0.171875</v>
-      </c>
-      <c r="P139" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q139">
-        <f t="shared" si="5"/>
-        <v>82.8125</v>
-      </c>
-    </row>
-    <row r="140" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N140" t="s">
-        <v>19</v>
-      </c>
-      <c r="O140">
-        <v>6.25E-2</v>
-      </c>
-      <c r="P140" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q140">
-        <f t="shared" si="5"/>
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="141" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N141" t="s">
-        <v>19</v>
-      </c>
-      <c r="O141">
-        <v>0.15625</v>
-      </c>
-      <c r="P141" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q141">
-        <f t="shared" si="5"/>
-        <v>84.375</v>
-      </c>
-    </row>
-    <row r="142" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N142" t="s">
-        <v>19</v>
-      </c>
-      <c r="O142">
-        <v>0.140625</v>
-      </c>
-      <c r="P142" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q142">
-        <f t="shared" si="5"/>
-        <v>85.9375</v>
-      </c>
-    </row>
-    <row r="143" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N143" t="s">
-        <v>19</v>
-      </c>
-      <c r="O143">
-        <v>0.125</v>
-      </c>
-      <c r="P143" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q143">
-        <f t="shared" si="5"/>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="144" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N144" t="s">
-        <v>19</v>
-      </c>
-      <c r="O144">
-        <v>0.140625</v>
-      </c>
-      <c r="P144" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q144">
-        <f t="shared" si="5"/>
-        <v>85.9375</v>
-      </c>
-    </row>
-    <row r="145" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N145" t="s">
-        <v>19</v>
-      </c>
-      <c r="O145">
-        <v>0.1875</v>
-      </c>
-      <c r="P145" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q145">
-        <f t="shared" si="5"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="146" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N146" t="s">
-        <v>19</v>
-      </c>
-      <c r="O146">
-        <v>0.21875</v>
-      </c>
-      <c r="P146" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q146">
-        <f t="shared" si="5"/>
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="147" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N147" t="s">
-        <v>19</v>
-      </c>
-      <c r="O147">
-        <v>0.140625</v>
-      </c>
-      <c r="P147" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q147">
-        <f t="shared" si="5"/>
-        <v>85.9375</v>
-      </c>
-    </row>
-    <row r="148" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N148" t="s">
-        <v>19</v>
-      </c>
-      <c r="O148">
-        <v>0.1875</v>
-      </c>
-      <c r="P148" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q148">
-        <f t="shared" si="5"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="149" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N149" t="s">
-        <v>19</v>
-      </c>
-      <c r="O149">
-        <v>0.109375</v>
-      </c>
-      <c r="P149" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q149">
-        <f t="shared" si="5"/>
-        <v>89.0625</v>
-      </c>
-    </row>
-    <row r="150" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N150" t="s">
-        <v>19</v>
-      </c>
-      <c r="O150">
-        <v>0.109375</v>
-      </c>
-      <c r="P150" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q150">
-        <f t="shared" si="5"/>
-        <v>89.0625</v>
-      </c>
-    </row>
-    <row r="151" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N151" t="s">
-        <v>19</v>
-      </c>
-      <c r="O151">
-        <v>0.171875</v>
-      </c>
-      <c r="P151" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q151">
-        <f t="shared" si="5"/>
-        <v>82.8125</v>
-      </c>
-    </row>
-    <row r="152" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N152" t="s">
-        <v>19</v>
-      </c>
-      <c r="O152">
-        <v>0.21875</v>
-      </c>
-      <c r="P152" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q152">
-        <f t="shared" si="5"/>
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="153" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N153" t="s">
-        <v>19</v>
-      </c>
-      <c r="O153">
-        <v>0.15625</v>
-      </c>
-      <c r="P153" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q153">
-        <f t="shared" si="5"/>
-        <v>84.375</v>
-      </c>
-    </row>
-    <row r="154" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N154" t="s">
-        <v>19</v>
-      </c>
-      <c r="O154">
-        <v>0.1875</v>
-      </c>
-      <c r="P154" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q154">
-        <f t="shared" si="5"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="155" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N155" t="s">
-        <v>19</v>
-      </c>
-      <c r="O155">
-        <v>0.1875</v>
-      </c>
-      <c r="P155" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q155">
-        <f t="shared" si="5"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="156" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N156" t="s">
-        <v>19</v>
-      </c>
-      <c r="O156">
-        <v>0.171875</v>
-      </c>
-      <c r="P156" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q156">
-        <f t="shared" si="5"/>
-        <v>82.8125</v>
       </c>
     </row>
   </sheetData>
@@ -24923,18 +23787,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6220D5-31CE-4077-B1A3-DB5C759D1CF7}">
-  <dimension ref="A1:Q138"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D253EA24-3698-4B43-BE44-480E7A4B042B}">
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="8" max="8" width="14.59765625" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="16.3984375" customWidth="1"/>
+    <col min="14" max="14" width="10.73046875" customWidth="1"/>
+    <col min="15" max="15" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
@@ -24943,12 +23807,18 @@
       </c>
       <c r="B1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2"/>
       <c r="G1" t="s">
         <v>7</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24958,7 +23828,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -24971,15 +23841,15 @@
         <v>0</v>
       </c>
       <c r="O2">
+        <v>0.984375</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P65" si="0" xml:space="preserve"> 1+N2</f>
         <v>1</v>
       </c>
-      <c r="P2">
-        <f xml:space="preserve"> 1+N2</f>
-        <v>1</v>
-      </c>
       <c r="Q2">
-        <f xml:space="preserve"> 100- (100*O2)</f>
-        <v>0</v>
+        <f t="shared" ref="Q2:Q65" si="1" xml:space="preserve"> 100- (100*O2)</f>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
@@ -24987,15 +23857,15 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>0.6875</v>
+        <v>0.828125</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="0" xml:space="preserve"> 1+N3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="1" xml:space="preserve"> 100- (100*O3)</f>
-        <v>31.25</v>
+        <f t="shared" si="1"/>
+        <v>17.1875</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
@@ -25003,7 +23873,7 @@
         <v>2</v>
       </c>
       <c r="O4">
-        <v>0.578125</v>
+        <v>0.53125</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
@@ -25011,7 +23881,7 @@
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>42.1875</v>
+        <v>46.875</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
@@ -25019,7 +23889,7 @@
         <v>3</v>
       </c>
       <c r="O5">
-        <v>0.4375</v>
+        <v>0.46875</v>
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
@@ -25027,7 +23897,7 @@
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>53.125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
@@ -25035,7 +23905,7 @@
         <v>4</v>
       </c>
       <c r="O6">
-        <v>0.328125</v>
+        <v>0.296875</v>
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
@@ -25043,7 +23913,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
@@ -25051,7 +23921,7 @@
         <v>5</v>
       </c>
       <c r="O7">
-        <v>0.296875</v>
+        <v>0.3125</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
@@ -25059,7 +23929,7 @@
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
@@ -25067,7 +23937,7 @@
         <v>6</v>
       </c>
       <c r="O8">
-        <v>0.234375</v>
+        <v>0.296875</v>
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
@@ -25075,7 +23945,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>76.5625</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
@@ -25083,7 +23953,7 @@
         <v>7</v>
       </c>
       <c r="O9">
-        <v>0.25</v>
+        <v>0.296875</v>
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
@@ -25091,7 +23961,7 @@
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
@@ -25115,7 +23985,7 @@
         <v>9</v>
       </c>
       <c r="O11">
-        <v>0.28125</v>
+        <v>0.203125</v>
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
@@ -25123,7 +23993,7 @@
       </c>
       <c r="Q11">
         <f t="shared" si="1"/>
-        <v>71.875</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
@@ -25131,7 +24001,7 @@
         <v>10</v>
       </c>
       <c r="O12">
-        <v>0.328125</v>
+        <v>0.25</v>
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
@@ -25139,7 +24009,7 @@
       </c>
       <c r="Q12">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -25147,7 +24017,7 @@
         <v>11</v>
       </c>
       <c r="O13">
-        <v>0.3125</v>
+        <v>0.28125</v>
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
@@ -25155,7 +24025,7 @@
       </c>
       <c r="Q13">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
@@ -25163,7 +24033,7 @@
         <v>12</v>
       </c>
       <c r="O14">
-        <v>0.25</v>
+        <v>0.28125</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
@@ -25171,7 +24041,7 @@
       </c>
       <c r="Q14">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -25179,7 +24049,7 @@
         <v>13</v>
       </c>
       <c r="O15">
-        <v>0.359375</v>
+        <v>0.3125</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
@@ -25187,20 +24057,15 @@
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
       <c r="N16">
         <v>14</v>
       </c>
       <c r="O16">
-        <v>0.265625</v>
+        <v>0.296875</v>
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
@@ -25208,7 +24073,7 @@
       </c>
       <c r="Q16">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="17" spans="14:17" x14ac:dyDescent="0.45">
@@ -25216,7 +24081,7 @@
         <v>15</v>
       </c>
       <c r="O17">
-        <v>0.203125</v>
+        <v>0.265625</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
@@ -25224,7 +24089,7 @@
       </c>
       <c r="Q17">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="18" spans="14:17" x14ac:dyDescent="0.45">
@@ -25232,7 +24097,7 @@
         <v>16</v>
       </c>
       <c r="O18">
-        <v>0.1875</v>
+        <v>0.296875</v>
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
@@ -25240,7 +24105,7 @@
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>70.3125</v>
       </c>
     </row>
     <row r="19" spans="14:17" x14ac:dyDescent="0.45">
@@ -25280,7 +24145,7 @@
         <v>19</v>
       </c>
       <c r="O21">
-        <v>0.25</v>
+        <v>0.265625</v>
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
@@ -25288,7 +24153,7 @@
       </c>
       <c r="Q21">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="22" spans="14:17" x14ac:dyDescent="0.45">
@@ -25312,7 +24177,7 @@
         <v>21</v>
       </c>
       <c r="O23">
-        <v>0.375</v>
+        <v>0.328125</v>
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
@@ -25320,7 +24185,7 @@
       </c>
       <c r="Q23">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="24" spans="14:17" x14ac:dyDescent="0.45">
@@ -25328,7 +24193,7 @@
         <v>22</v>
       </c>
       <c r="O24">
-        <v>0.40625</v>
+        <v>0.21875</v>
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
@@ -25336,7 +24201,7 @@
       </c>
       <c r="Q24">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="25" spans="14:17" x14ac:dyDescent="0.45">
@@ -25344,7 +24209,7 @@
         <v>23</v>
       </c>
       <c r="O25">
-        <v>0.15625</v>
+        <v>0.25</v>
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
@@ -25352,7 +24217,7 @@
       </c>
       <c r="Q25">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="14:17" x14ac:dyDescent="0.45">
@@ -25360,7 +24225,7 @@
         <v>24</v>
       </c>
       <c r="O26">
-        <v>0.171875</v>
+        <v>0.203125</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
@@ -25368,7 +24233,7 @@
       </c>
       <c r="Q26">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="27" spans="14:17" x14ac:dyDescent="0.45">
@@ -25376,7 +24241,7 @@
         <v>25</v>
       </c>
       <c r="O27">
-        <v>0.1875</v>
+        <v>0.265625</v>
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
@@ -25384,7 +24249,7 @@
       </c>
       <c r="Q27">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="28" spans="14:17" x14ac:dyDescent="0.45">
@@ -25392,7 +24257,7 @@
         <v>26</v>
       </c>
       <c r="O28">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
@@ -25400,7 +24265,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="14:17" x14ac:dyDescent="0.45">
@@ -25408,7 +24273,7 @@
         <v>27</v>
       </c>
       <c r="O29">
-        <v>0.203125</v>
+        <v>0.25</v>
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
@@ -25416,7 +24281,7 @@
       </c>
       <c r="Q29">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="14:17" x14ac:dyDescent="0.45">
@@ -25424,7 +24289,7 @@
         <v>28</v>
       </c>
       <c r="O30">
-        <v>0.1875</v>
+        <v>0.28125</v>
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
@@ -25432,7 +24297,7 @@
       </c>
       <c r="Q30">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="31" spans="14:17" x14ac:dyDescent="0.45">
@@ -25440,7 +24305,7 @@
         <v>29</v>
       </c>
       <c r="O31">
-        <v>0.15625</v>
+        <v>0.203125</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
@@ -25448,7 +24313,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="1"/>
-        <v>84.375</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="32" spans="14:17" x14ac:dyDescent="0.45">
@@ -25456,7 +24321,7 @@
         <v>30</v>
       </c>
       <c r="O32">
-        <v>0.328125</v>
+        <v>0.234375</v>
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
@@ -25464,7 +24329,7 @@
       </c>
       <c r="Q32">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.45">
@@ -25472,7 +24337,7 @@
         <v>31</v>
       </c>
       <c r="O33">
-        <v>0.28125</v>
+        <v>0.171875</v>
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
@@ -25480,13 +24345,10 @@
       </c>
       <c r="Q33">
         <f t="shared" si="1"/>
-        <v>71.875</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="N34">
         <v>32</v>
       </c>
@@ -25503,6 +24365,11 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
       <c r="N35">
         <v>33</v>
       </c>
@@ -25523,7 +24390,7 @@
         <v>34</v>
       </c>
       <c r="O36">
-        <v>0.25</v>
+        <v>0.203125</v>
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
@@ -25531,7 +24398,7 @@
       </c>
       <c r="Q36">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
@@ -25539,7 +24406,7 @@
         <v>35</v>
       </c>
       <c r="O37">
-        <v>0.3125</v>
+        <v>0.234375</v>
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
@@ -25547,7 +24414,7 @@
       </c>
       <c r="Q37">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
@@ -25555,7 +24422,7 @@
         <v>36</v>
       </c>
       <c r="O38">
-        <v>0.203125</v>
+        <v>0.15625</v>
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
@@ -25563,342 +24430,342 @@
       </c>
       <c r="Q38">
         <f t="shared" si="1"/>
-        <v>79.6875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N39">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O39">
-        <v>0.984375</v>
+        <v>0.265625</v>
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="Q39">
         <f t="shared" si="1"/>
-        <v>1.5625</v>
+        <v>73.4375</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N40">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="O40">
-        <v>0.84375</v>
+        <v>0.359375</v>
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="Q40">
         <f t="shared" si="1"/>
-        <v>15.625</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N41">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="O41">
-        <v>0.53125</v>
+        <v>0.203125</v>
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="Q41">
         <f t="shared" si="1"/>
-        <v>46.875</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N42">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="O42">
-        <v>0.546875</v>
+        <v>0.25</v>
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="Q42">
         <f t="shared" si="1"/>
-        <v>45.3125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N43">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="O43">
-        <v>0.4375</v>
+        <v>0.234375</v>
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="Q43">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N44">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="O44">
-        <v>0.4375</v>
+        <v>0.1875</v>
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="Q44">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N45">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="O45">
-        <v>0.359375</v>
+        <v>0.21875</v>
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="Q45">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N46">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="O46">
-        <v>0.390625</v>
+        <v>0.21875</v>
       </c>
       <c r="P46">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="Q46">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N47">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="O47">
-        <v>0.390625</v>
+        <v>0.28125</v>
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="Q47">
         <f t="shared" si="1"/>
-        <v>60.9375</v>
+        <v>71.875</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N48">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="O48">
-        <v>0.359375</v>
+        <v>0.171875</v>
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="Q48">
         <f t="shared" si="1"/>
-        <v>64.0625</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N49">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="O49">
-        <v>0.3125</v>
+        <v>0.203125</v>
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="Q49">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N50">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="O50">
-        <v>0.375</v>
+        <v>0.359375</v>
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="Q50">
         <f t="shared" si="1"/>
-        <v>62.5</v>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="N51">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="O51">
-        <v>0.296875</v>
+        <v>0.21875</v>
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="Q51">
         <f t="shared" si="1"/>
-        <v>70.3125</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N52">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="O52">
-        <v>0.25</v>
+        <v>0.234375</v>
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="Q52">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N53">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O53">
-        <v>0.3125</v>
+        <v>0.234375</v>
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="Q53">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N54">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="O54">
-        <v>0.34375</v>
+        <v>0.25</v>
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="Q54">
         <f t="shared" si="1"/>
-        <v>65.625</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="N55">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="O55">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="Q55">
         <f t="shared" si="1"/>
-        <v>68.75</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N56">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="O56">
-        <v>0.328125</v>
+        <v>0.15625</v>
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="Q56">
         <f t="shared" si="1"/>
-        <v>67.1875</v>
+        <v>84.375</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N57">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="O57">
-        <v>0.265625</v>
+        <v>0.1875</v>
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="Q57">
         <f t="shared" si="1"/>
-        <v>73.4375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N58">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="O58">
-        <v>0.515625</v>
+        <v>0.25</v>
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="Q58">
         <f t="shared" si="1"/>
-        <v>48.4375</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N59">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="O59">
         <v>0.171875</v>
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="Q59">
         <f t="shared" si="1"/>
@@ -25907,574 +24774,577 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N60">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="O60">
-        <v>0.171875</v>
+        <v>0.234375</v>
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="Q60">
         <f t="shared" si="1"/>
-        <v>82.8125</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N61">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="O61">
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q61">
         <f t="shared" si="1"/>
-        <v>81.25</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N62">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O62">
-        <v>0.40625</v>
+        <v>0.1875</v>
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="Q62">
         <f t="shared" si="1"/>
-        <v>59.375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N63">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="O63">
-        <v>0.34375</v>
+        <v>0.140625</v>
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="Q63">
         <f t="shared" si="1"/>
-        <v>65.625</v>
+        <v>85.9375</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N64">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="O64">
-        <v>0.40625</v>
+        <v>0.15625</v>
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="Q64">
         <f t="shared" si="1"/>
-        <v>59.375</v>
-      </c>
-    </row>
-    <row r="65" spans="14:17" x14ac:dyDescent="0.45">
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N65">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="O65">
-        <v>0.25</v>
+        <v>0.203125</v>
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="Q65">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="14:17" x14ac:dyDescent="0.45">
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N66">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="O66">
+        <v>0.171875</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ref="P66:P101" si="2" xml:space="preserve"> 1+N66</f>
+        <v>65</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ref="Q66:Q101" si="3" xml:space="preserve"> 100- (100*O66)</f>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N67">
+        <v>65</v>
+      </c>
+      <c r="O67">
+        <v>0.1875</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N68">
+        <v>66</v>
+      </c>
+      <c r="O68">
         <v>0.21875</v>
       </c>
-      <c r="P66">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="1"/>
+      <c r="P68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="3"/>
         <v>78.125</v>
       </c>
     </row>
-    <row r="67" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N67">
-        <v>28</v>
-      </c>
-      <c r="O67">
-        <v>0.265625</v>
-      </c>
-      <c r="P67">
-        <f t="shared" ref="P67:P130" si="2" xml:space="preserve"> 1+N67</f>
-        <v>29</v>
-      </c>
-      <c r="Q67">
-        <f t="shared" ref="Q67:Q130" si="3" xml:space="preserve"> 100- (100*O67)</f>
-        <v>73.4375</v>
-      </c>
-    </row>
-    <row r="68" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N68">
-        <v>29</v>
-      </c>
-      <c r="O68">
-        <v>0.203125</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="Q68">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="69" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N69">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="O69">
         <v>0.25</v>
       </c>
       <c r="P69">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="Q69">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N70">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="O70">
-        <v>0.4375</v>
+        <v>0.1875</v>
       </c>
       <c r="P70">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="Q70">
         <f t="shared" si="3"/>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="71" spans="14:17" x14ac:dyDescent="0.45">
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="N71">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="O71">
-        <v>0.25</v>
+        <v>0.171875</v>
       </c>
       <c r="P71">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="Q71">
         <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N72">
+        <v>70</v>
+      </c>
+      <c r="O72">
+        <v>0.203125</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N73">
+        <v>71</v>
+      </c>
+      <c r="O73">
+        <v>0.1875</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N74">
+        <v>72</v>
+      </c>
+      <c r="O74">
+        <v>0.171875</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N75">
+        <v>73</v>
+      </c>
+      <c r="O75">
+        <v>0.171875</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N76">
+        <v>74</v>
+      </c>
+      <c r="O76">
+        <v>0.21875</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="72" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N72">
-        <v>33</v>
-      </c>
-      <c r="O72">
-        <v>0.25</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="Q72">
-        <f t="shared" si="3"/>
+      <c r="Q76">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N77">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N73">
-        <v>34</v>
-      </c>
-      <c r="O73">
-        <v>0.25</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="Q73">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N74">
-        <v>35</v>
-      </c>
-      <c r="O74">
-        <v>0.4375</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="Q74">
-        <f t="shared" si="3"/>
-        <v>56.25</v>
-      </c>
-    </row>
-    <row r="75" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N75">
-        <v>36</v>
-      </c>
-      <c r="O75">
-        <v>0.21875</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="3"/>
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="76" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N76">
-        <v>37</v>
-      </c>
-      <c r="O76">
-        <v>0.296875</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="Q76">
-        <f t="shared" si="3"/>
-        <v>70.3125</v>
-      </c>
-    </row>
-    <row r="77" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N77">
-        <v>38</v>
-      </c>
       <c r="O77">
+        <v>0.15625</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N78">
+        <v>76</v>
+      </c>
+      <c r="O78">
         <v>0.1875</v>
       </c>
-      <c r="P77">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="Q77">
+      <c r="P78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q78">
         <f t="shared" si="3"/>
         <v>81.25</v>
       </c>
     </row>
-    <row r="78" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N78">
-        <v>39</v>
-      </c>
-      <c r="O78">
-        <v>0.28125</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="Q78">
-        <f t="shared" si="3"/>
-        <v>71.875</v>
-      </c>
-    </row>
-    <row r="79" spans="14:17" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N79">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="O79">
-        <v>0.21875</v>
+        <v>0.15625</v>
       </c>
       <c r="P79">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="Q79">
         <f t="shared" si="3"/>
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="80" spans="14:17" x14ac:dyDescent="0.45">
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
       <c r="N80">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="O80">
-        <v>0.25</v>
+        <v>0.234375</v>
       </c>
       <c r="P80">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="Q80">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="81" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N81">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="O81">
-        <v>0.234375</v>
+        <v>0.203125</v>
       </c>
       <c r="P81">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="Q81">
         <f t="shared" si="3"/>
-        <v>76.5625</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="82" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N82">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="O82">
-        <v>0.203125</v>
+        <v>0.234375</v>
       </c>
       <c r="P82">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="Q82">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="83" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N83">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="O83">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="P83">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="Q83">
         <f t="shared" si="3"/>
-        <v>71.875</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N84">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="O84">
-        <v>0.28125</v>
+        <v>0.234375</v>
       </c>
       <c r="P84">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="Q84">
         <f t="shared" si="3"/>
-        <v>71.875</v>
+        <v>76.5625</v>
       </c>
     </row>
     <row r="85" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N85">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="O85">
-        <v>0.25</v>
+        <v>0.203125</v>
       </c>
       <c r="P85">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="Q85">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>79.6875</v>
       </c>
     </row>
     <row r="86" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N86">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="O86">
-        <v>0.21875</v>
+        <v>0.171875</v>
       </c>
       <c r="P86">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="Q86">
         <f t="shared" si="3"/>
-        <v>78.125</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="87" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N87">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="O87">
-        <v>0.25</v>
+        <v>0.21875</v>
       </c>
       <c r="P87">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="Q87">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="88" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N88">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="O88">
-        <v>0.1875</v>
+        <v>0.171875</v>
       </c>
       <c r="P88">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="Q88">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="89" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N89">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="O89">
-        <v>0.171875</v>
+        <v>0.1875</v>
       </c>
       <c r="P89">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="Q89">
         <f t="shared" si="3"/>
-        <v>82.8125</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="90" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N90">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="O90">
-        <v>0.1875</v>
+        <v>0.171875</v>
       </c>
       <c r="P90">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="Q90">
         <f t="shared" si="3"/>
-        <v>81.25</v>
+        <v>82.8125</v>
       </c>
     </row>
     <row r="91" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N91">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="O91">
-        <v>0.234375</v>
+        <v>0.1875</v>
       </c>
       <c r="P91">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="Q91">
         <f t="shared" si="3"/>
-        <v>76.5625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="92" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N92">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="O92">
-        <v>0.265625</v>
+        <v>0.1875</v>
       </c>
       <c r="P92">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="Q92">
         <f t="shared" si="3"/>
-        <v>73.4375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="93" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N93">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="O93">
-        <v>0.265625</v>
+        <v>0.1875</v>
       </c>
       <c r="P93">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="Q93">
         <f t="shared" si="3"/>
-        <v>73.4375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="94" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N94">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="O94">
-        <v>0.203125</v>
+        <v>0.1875</v>
       </c>
       <c r="P94">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="Q94">
         <f t="shared" si="3"/>
-        <v>79.6875</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="95" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N95">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="O95">
         <v>0.1875</v>
       </c>
       <c r="P95">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="Q95">
         <f t="shared" si="3"/>
@@ -26483,690 +25353,98 @@
     </row>
     <row r="96" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N96">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="O96">
-        <v>0.34375</v>
+        <v>0.1875</v>
       </c>
       <c r="P96">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="Q96">
         <f t="shared" si="3"/>
-        <v>65.625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="97" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N97">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="O97">
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="P97">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="Q97">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="98" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N98">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="O98">
-        <v>0.234375</v>
+        <v>0.1875</v>
       </c>
       <c r="P98">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="Q98">
         <f t="shared" si="3"/>
-        <v>76.5625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="99" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N99">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="O99">
-        <v>0.234375</v>
+        <v>0.1875</v>
       </c>
       <c r="P99">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="Q99">
         <f t="shared" si="3"/>
-        <v>76.5625</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="100" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N100">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="O100">
-        <v>0.265625</v>
+        <v>0.1875</v>
       </c>
       <c r="P100">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="Q100">
         <f t="shared" si="3"/>
-        <v>73.4375</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="101" spans="14:17" x14ac:dyDescent="0.45">
       <c r="N101">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="O101">
-        <v>0.234375</v>
+        <v>0.1875</v>
       </c>
       <c r="P101">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="Q101">
         <f t="shared" si="3"/>
-        <v>76.5625</v>
-      </c>
-    </row>
-    <row r="102" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N102">
-        <v>63</v>
-      </c>
-      <c r="O102">
-        <v>0.140625</v>
-      </c>
-      <c r="P102">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="Q102">
-        <f t="shared" si="3"/>
-        <v>85.9375</v>
-      </c>
-    </row>
-    <row r="103" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N103">
-        <v>64</v>
-      </c>
-      <c r="O103">
-        <v>0.203125</v>
-      </c>
-      <c r="P103">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="Q103">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="104" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N104">
-        <v>65</v>
-      </c>
-      <c r="O104">
-        <v>0.15625</v>
-      </c>
-      <c r="P104">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="Q104">
-        <f t="shared" si="3"/>
-        <v>84.375</v>
-      </c>
-    </row>
-    <row r="105" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N105">
-        <v>66</v>
-      </c>
-      <c r="O105">
-        <v>0.21875</v>
-      </c>
-      <c r="P105">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="Q105">
-        <f t="shared" si="3"/>
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="106" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N106">
-        <v>67</v>
-      </c>
-      <c r="O106">
-        <v>0.1875</v>
-      </c>
-      <c r="P106">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="Q106">
-        <f t="shared" si="3"/>
         <v>81.25</v>
-      </c>
-    </row>
-    <row r="107" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N107">
-        <v>68</v>
-      </c>
-      <c r="O107">
-        <v>0.1875</v>
-      </c>
-      <c r="P107">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="Q107">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="108" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N108">
-        <v>69</v>
-      </c>
-      <c r="O108">
-        <v>0.140625</v>
-      </c>
-      <c r="P108">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="Q108">
-        <f t="shared" si="3"/>
-        <v>85.9375</v>
-      </c>
-    </row>
-    <row r="109" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N109">
-        <v>70</v>
-      </c>
-      <c r="O109">
-        <v>0.1875</v>
-      </c>
-      <c r="P109">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="Q109">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="110" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N110">
-        <v>71</v>
-      </c>
-      <c r="O110">
-        <v>0.140625</v>
-      </c>
-      <c r="P110">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="Q110">
-        <f t="shared" si="3"/>
-        <v>85.9375</v>
-      </c>
-    </row>
-    <row r="111" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N111">
-        <v>72</v>
-      </c>
-      <c r="O111">
-        <v>0.21875</v>
-      </c>
-      <c r="P111">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="Q111">
-        <f t="shared" si="3"/>
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="112" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N112">
-        <v>73</v>
-      </c>
-      <c r="O112">
-        <v>0.171875</v>
-      </c>
-      <c r="P112">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="Q112">
-        <f t="shared" si="3"/>
-        <v>82.8125</v>
-      </c>
-    </row>
-    <row r="113" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N113">
-        <v>74</v>
-      </c>
-      <c r="O113">
-        <v>0.203125</v>
-      </c>
-      <c r="P113">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="Q113">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="114" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N114">
-        <v>75</v>
-      </c>
-      <c r="O114">
-        <v>0.15625</v>
-      </c>
-      <c r="P114">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="Q114">
-        <f t="shared" si="3"/>
-        <v>84.375</v>
-      </c>
-    </row>
-    <row r="115" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N115">
-        <v>76</v>
-      </c>
-      <c r="O115">
-        <v>0.1875</v>
-      </c>
-      <c r="P115">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="Q115">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="116" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N116">
-        <v>77</v>
-      </c>
-      <c r="O116">
-        <v>0.203125</v>
-      </c>
-      <c r="P116">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="Q116">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="117" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N117">
-        <v>78</v>
-      </c>
-      <c r="O117">
-        <v>0.1875</v>
-      </c>
-      <c r="P117">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="Q117">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="118" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N118">
-        <v>79</v>
-      </c>
-      <c r="O118">
-        <v>0.203125</v>
-      </c>
-      <c r="P118">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="Q118">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="119" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N119">
-        <v>80</v>
-      </c>
-      <c r="O119">
-        <v>0.203125</v>
-      </c>
-      <c r="P119">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="Q119">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="120" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N120">
-        <v>81</v>
-      </c>
-      <c r="O120">
-        <v>0.1875</v>
-      </c>
-      <c r="P120">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="Q120">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="121" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N121">
-        <v>82</v>
-      </c>
-      <c r="O121">
-        <v>0.1875</v>
-      </c>
-      <c r="P121">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="Q121">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="122" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N122">
-        <v>83</v>
-      </c>
-      <c r="O122">
-        <v>0.203125</v>
-      </c>
-      <c r="P122">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="Q122">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="123" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N123">
-        <v>84</v>
-      </c>
-      <c r="O123">
-        <v>0.171875</v>
-      </c>
-      <c r="P123">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="Q123">
-        <f t="shared" si="3"/>
-        <v>82.8125</v>
-      </c>
-    </row>
-    <row r="124" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N124">
-        <v>85</v>
-      </c>
-      <c r="O124">
-        <v>0.203125</v>
-      </c>
-      <c r="P124">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="Q124">
-        <f t="shared" si="3"/>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="125" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N125">
-        <v>86</v>
-      </c>
-      <c r="O125">
-        <v>0.171875</v>
-      </c>
-      <c r="P125">
-        <f t="shared" si="2"/>
-        <v>87</v>
-      </c>
-      <c r="Q125">
-        <f t="shared" si="3"/>
-        <v>82.8125</v>
-      </c>
-    </row>
-    <row r="126" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N126">
-        <v>87</v>
-      </c>
-      <c r="O126">
-        <v>0.1875</v>
-      </c>
-      <c r="P126">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="Q126">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="127" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N127">
-        <v>88</v>
-      </c>
-      <c r="O127">
-        <v>0.234375</v>
-      </c>
-      <c r="P127">
-        <f t="shared" si="2"/>
-        <v>89</v>
-      </c>
-      <c r="Q127">
-        <f t="shared" si="3"/>
-        <v>76.5625</v>
-      </c>
-    </row>
-    <row r="128" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N128">
-        <v>89</v>
-      </c>
-      <c r="O128">
-        <v>0.171875</v>
-      </c>
-      <c r="P128">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="Q128">
-        <f t="shared" si="3"/>
-        <v>82.8125</v>
-      </c>
-    </row>
-    <row r="129" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N129">
-        <v>90</v>
-      </c>
-      <c r="O129">
-        <v>0.1875</v>
-      </c>
-      <c r="P129">
-        <f t="shared" si="2"/>
-        <v>91</v>
-      </c>
-      <c r="Q129">
-        <f t="shared" si="3"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="130" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N130">
-        <v>91</v>
-      </c>
-      <c r="O130">
-        <v>0.21875</v>
-      </c>
-      <c r="P130">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="Q130">
-        <f t="shared" si="3"/>
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="131" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N131">
-        <v>92</v>
-      </c>
-      <c r="O131">
-        <v>0.203125</v>
-      </c>
-      <c r="P131">
-        <f t="shared" ref="P131:P138" si="4" xml:space="preserve"> 1+N131</f>
-        <v>93</v>
-      </c>
-      <c r="Q131">
-        <f t="shared" ref="Q131:Q138" si="5" xml:space="preserve"> 100- (100*O131)</f>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="132" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N132">
-        <v>93</v>
-      </c>
-      <c r="O132">
-        <v>0.1875</v>
-      </c>
-      <c r="P132">
-        <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="Q132">
-        <f t="shared" si="5"/>
-        <v>81.25</v>
-      </c>
-    </row>
-    <row r="133" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N133">
-        <v>94</v>
-      </c>
-      <c r="O133">
-        <v>0.21875</v>
-      </c>
-      <c r="P133">
-        <f t="shared" si="4"/>
-        <v>95</v>
-      </c>
-      <c r="Q133">
-        <f t="shared" si="5"/>
-        <v>78.125</v>
-      </c>
-    </row>
-    <row r="134" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N134">
-        <v>95</v>
-      </c>
-      <c r="O134">
-        <v>0.203125</v>
-      </c>
-      <c r="P134">
-        <f t="shared" si="4"/>
-        <v>96</v>
-      </c>
-      <c r="Q134">
-        <f t="shared" si="5"/>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="135" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N135">
-        <v>96</v>
-      </c>
-      <c r="O135">
-        <v>0.203125</v>
-      </c>
-      <c r="P135">
-        <f t="shared" si="4"/>
-        <v>97</v>
-      </c>
-      <c r="Q135">
-        <f t="shared" si="5"/>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="136" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N136">
-        <v>97</v>
-      </c>
-      <c r="O136">
-        <v>0.203125</v>
-      </c>
-      <c r="P136">
-        <f t="shared" si="4"/>
-        <v>98</v>
-      </c>
-      <c r="Q136">
-        <f t="shared" si="5"/>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="137" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N137">
-        <v>98</v>
-      </c>
-      <c r="O137">
-        <v>0.203125</v>
-      </c>
-      <c r="P137">
-        <f t="shared" si="4"/>
-        <v>99</v>
-      </c>
-      <c r="Q137">
-        <f t="shared" si="5"/>
-        <v>79.6875</v>
-      </c>
-    </row>
-    <row r="138" spans="14:17" x14ac:dyDescent="0.45">
-      <c r="N138">
-        <v>99</v>
-      </c>
-      <c r="O138">
-        <v>0.203125</v>
-      </c>
-      <c r="P138">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="Q138">
-        <f t="shared" si="5"/>
-        <v>79.6875</v>
       </c>
     </row>
   </sheetData>
@@ -27174,9 +25452,10 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Architecture Results.xlsx
+++ b/Architecture Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1812977-01E6-4271-8DCA-EE78C286989A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD60B09-B310-4DD1-91D0-B03D996538A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="3" activeTab="7" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="4" activeTab="8" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Three FNN (Trail 2)" sheetId="8" r:id="rId6"/>
     <sheet name="SeperableConv1D" sheetId="6" r:id="rId7"/>
     <sheet name="Two SeperableConv1D" sheetId="9" r:id="rId8"/>
+    <sheet name="Three SeperableConv1D" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="23">
   <si>
     <t>Epoch</t>
   </si>
@@ -324,6 +325,52 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 86%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Architecture:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Aded Two Seperable CNN Sequential layers instead of Feed Forward Neural Network</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Architecture:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Aded Three Seperable CNN Sequential layers instead of Feed Forward Neural Network</t>
     </r>
   </si>
 </sst>
@@ -4977,6 +5024,584 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="359929296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Three SeperableConv1D'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Three SeperableConv1D'!$Q$2:$Q$189</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="188"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.1875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54.6875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>84.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2657-48F4-802E-502C830DBD22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="464294975"/>
+        <c:axId val="464294143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="464294975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464294143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="464294143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464294975"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5313,6 +5938,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9480,6 +10145,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -10975,6 +12156,185 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>592059</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134578D7-670B-46BA-B3D4-DE0C045C9DA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="15244763"/>
+          <a:ext cx="2449434" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21149</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B04311C-00F9-EF6A-F5C4-7610FB2AB5D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="361950"/>
+          <a:ext cx="4555049" cy="7858125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>92867</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9B3F74-4B46-F4AF-DD9A-9693D86E6A4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>173832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D193DDE8-882D-AF4E-2F41-A91B582D360D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="11625263"/>
+          <a:ext cx="4276725" cy="3207544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -23790,8 +25150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D253EA24-3698-4B43-BE44-480E7A4B042B}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23828,7 +25188,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -25458,4 +26818,1677 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA7B308-3729-4C11-BC0A-F4CF89EFB05F}">
+  <dimension ref="A1:Q101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="14" max="14" width="10.73046875" customWidth="1"/>
+    <col min="15" max="15" width="15.46484375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P65" si="0" xml:space="preserve"> 1+N2</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q65" si="1" xml:space="preserve"> 100- (100*O2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.859375</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0.578125</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0.484375</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>51.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>0.359375</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.328125</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.359375</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>0.390625</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>0.28125</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>0.34375</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>0.390625</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>0.359375</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>0.296875</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>0.296875</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0.234375</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>0.203125</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>0.28125</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="19" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>0.296875</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>0.265625</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="21" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>0.296875</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="22" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>0.3125</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="23" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>0.21875</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="24" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>0.453125</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>54.6875</v>
+      </c>
+    </row>
+    <row r="25" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>0.328125</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="26" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>0.21875</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="27" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>0.34375</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="28" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N28">
+        <v>26</v>
+      </c>
+      <c r="O28">
+        <v>0.234375</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="29" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <v>0.1875</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="30" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N30">
+        <v>28</v>
+      </c>
+      <c r="O30">
+        <v>0.59375</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="31" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>0.28125</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="32" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>0.1875</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N33">
+        <v>31</v>
+      </c>
+      <c r="O33">
+        <v>0.1875</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N34">
+        <v>32</v>
+      </c>
+      <c r="O34">
+        <v>0.171875</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N35">
+        <v>33</v>
+      </c>
+      <c r="O35">
+        <v>0.265625</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N36">
+        <v>34</v>
+      </c>
+      <c r="O36">
+        <v>0.25</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37">
+        <v>0.28125</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N38">
+        <v>36</v>
+      </c>
+      <c r="O38">
+        <v>0.21875</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N39">
+        <v>37</v>
+      </c>
+      <c r="O39">
+        <v>0.28125</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N40">
+        <v>38</v>
+      </c>
+      <c r="O40">
+        <v>0.15625</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N41">
+        <v>39</v>
+      </c>
+      <c r="O41">
+        <v>0.1875</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N42">
+        <v>40</v>
+      </c>
+      <c r="O42">
+        <v>0.234375</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N43">
+        <v>41</v>
+      </c>
+      <c r="O43">
+        <v>0.203125</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N44">
+        <v>42</v>
+      </c>
+      <c r="O44">
+        <v>0.15625</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N45">
+        <v>43</v>
+      </c>
+      <c r="O45">
+        <v>0.1875</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N46">
+        <v>44</v>
+      </c>
+      <c r="O46">
+        <v>0.15625</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="N47">
+        <v>45</v>
+      </c>
+      <c r="O47">
+        <v>0.171875</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N48">
+        <v>46</v>
+      </c>
+      <c r="O48">
+        <v>0.15625</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N49">
+        <v>47</v>
+      </c>
+      <c r="O49">
+        <v>0.15625</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N50">
+        <v>48</v>
+      </c>
+      <c r="O50">
+        <v>0.15625</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N51">
+        <v>49</v>
+      </c>
+      <c r="O51">
+        <v>0.203125</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>0.15625</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N53">
+        <v>51</v>
+      </c>
+      <c r="O53">
+        <v>0.25</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N54">
+        <v>52</v>
+      </c>
+      <c r="O54">
+        <v>0.140625</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N55">
+        <v>53</v>
+      </c>
+      <c r="O55">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N56">
+        <v>54</v>
+      </c>
+      <c r="O56">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N57">
+        <v>55</v>
+      </c>
+      <c r="O57">
+        <v>0.125</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N58">
+        <v>56</v>
+      </c>
+      <c r="O58">
+        <v>0.15625</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N59">
+        <v>57</v>
+      </c>
+      <c r="O59">
+        <v>0.109375</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N60">
+        <v>58</v>
+      </c>
+      <c r="O60">
+        <v>0.15625</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N61">
+        <v>59</v>
+      </c>
+      <c r="O61">
+        <v>0.1875</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N62">
+        <v>60</v>
+      </c>
+      <c r="O62">
+        <v>0.203125</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N63">
+        <v>61</v>
+      </c>
+      <c r="O63">
+        <v>0.125</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N64">
+        <v>62</v>
+      </c>
+      <c r="O64">
+        <v>0.1875</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="65" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N65">
+        <v>63</v>
+      </c>
+      <c r="O65">
+        <v>0.140625</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="66" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N66">
+        <v>64</v>
+      </c>
+      <c r="O66">
+        <v>0.21875</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ref="P66:P101" si="2" xml:space="preserve"> 1+N66</f>
+        <v>65</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ref="Q66:Q101" si="3" xml:space="preserve"> 100- (100*O66)</f>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="67" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N67">
+        <v>65</v>
+      </c>
+      <c r="O67">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="68" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N68">
+        <v>66</v>
+      </c>
+      <c r="O68">
+        <v>0.125</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="69" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N69">
+        <v>67</v>
+      </c>
+      <c r="O69">
+        <v>0.109375</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="70" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N70">
+        <v>68</v>
+      </c>
+      <c r="O70">
+        <v>0.171875</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="71" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N71">
+        <v>69</v>
+      </c>
+      <c r="O71">
+        <v>0.109375</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="72" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N72">
+        <v>70</v>
+      </c>
+      <c r="O72">
+        <v>0.140625</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="73" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N73">
+        <v>71</v>
+      </c>
+      <c r="O73">
+        <v>0.125</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="74" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N74">
+        <v>72</v>
+      </c>
+      <c r="O74">
+        <v>0.171875</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="75" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N75">
+        <v>73</v>
+      </c>
+      <c r="O75">
+        <v>0.15625</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="76" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N76">
+        <v>74</v>
+      </c>
+      <c r="O76">
+        <v>0.1875</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="77" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N77">
+        <v>75</v>
+      </c>
+      <c r="O77">
+        <v>0.203125</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="3"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="78" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N78">
+        <v>76</v>
+      </c>
+      <c r="O78">
+        <v>0.109375</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="79" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N79">
+        <v>77</v>
+      </c>
+      <c r="O79">
+        <v>0.109375</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="80" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N80">
+        <v>78</v>
+      </c>
+      <c r="O80">
+        <v>0.125</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N81">
+        <v>79</v>
+      </c>
+      <c r="O81">
+        <v>0.140625</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N82">
+        <v>80</v>
+      </c>
+      <c r="O82">
+        <v>0.140625</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N83">
+        <v>81</v>
+      </c>
+      <c r="O83">
+        <v>0.15625</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N84">
+        <v>82</v>
+      </c>
+      <c r="O84">
+        <v>0.171875</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N85">
+        <v>83</v>
+      </c>
+      <c r="O85">
+        <v>0.140625</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N86">
+        <v>84</v>
+      </c>
+      <c r="O86">
+        <v>0.15625</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N87">
+        <v>85</v>
+      </c>
+      <c r="O87">
+        <v>0.15625</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N88">
+        <v>86</v>
+      </c>
+      <c r="O88">
+        <v>0.15625</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N89">
+        <v>87</v>
+      </c>
+      <c r="O89">
+        <v>0.15625</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N90">
+        <v>88</v>
+      </c>
+      <c r="O90">
+        <v>0.15625</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N91">
+        <v>89</v>
+      </c>
+      <c r="O91">
+        <v>0.15625</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N92">
+        <v>90</v>
+      </c>
+      <c r="O92">
+        <v>0.140625</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N93">
+        <v>91</v>
+      </c>
+      <c r="O93">
+        <v>0.140625</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N94">
+        <v>92</v>
+      </c>
+      <c r="O94">
+        <v>0.140625</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N95">
+        <v>93</v>
+      </c>
+      <c r="O95">
+        <v>0.140625</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N96">
+        <v>94</v>
+      </c>
+      <c r="O96">
+        <v>0.140625</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="97" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N97">
+        <v>95</v>
+      </c>
+      <c r="O97">
+        <v>0.15625</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="98" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N98">
+        <v>96</v>
+      </c>
+      <c r="O98">
+        <v>0.15625</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="99" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N99">
+        <v>97</v>
+      </c>
+      <c r="O99">
+        <v>0.15625</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="100" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N100">
+        <v>98</v>
+      </c>
+      <c r="O100">
+        <v>0.15625</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="101" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N101">
+        <v>99</v>
+      </c>
+      <c r="O101">
+        <v>0.15625</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A47:C47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Architecture Results.xlsx
+++ b/Architecture Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD60B09-B310-4DD1-91D0-B03D996538A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D823D-8D08-4F34-8039-4C209D2ECC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="4" activeTab="8" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="6" activeTab="9" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="SeperableConv1D" sheetId="6" r:id="rId7"/>
     <sheet name="Two SeperableConv1D" sheetId="9" r:id="rId8"/>
     <sheet name="Three SeperableConv1D" sheetId="10" r:id="rId9"/>
+    <sheet name="Two CNN no attention" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="25">
   <si>
     <t>Epoch</t>
   </si>
@@ -373,6 +374,32 @@
       <t xml:space="preserve"> Aded Three Seperable CNN Sequential layers instead of Feed Forward Neural Network</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Architecture:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Aded Two Seperable CNN Sequential layers with no attention layers</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;__main__.DisplayOutputs object at 0x7fce47d49af0&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -964,6 +991,584 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="432098544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Two CNN no attention'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Two CNN no attention'!$Q$2:$Q$152</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.5625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>65.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57.8125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>76.5625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>87.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66A9-442A-A686-7AB0C242BF46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="989745856"/>
+        <c:axId val="989747936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="989745856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989747936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="989747936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989745856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5658,6 +6263,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6018,6 +6663,522 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10842,6 +12003,185 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>615872</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2DC6F9-3283-4A81-B872-C433D02F999F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="109538" y="12930188"/>
+          <a:ext cx="2449434" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>952540</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD1BB1D-A9D5-4913-549A-004A585083AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="361950"/>
+          <a:ext cx="5486440" cy="4962561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145256</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>135731</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4B7F84-4EC8-E2FA-9E8A-FF7544315FEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91CCEB0-3CD6-AB46-A9A0-56EB6C4CB882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="9110663"/>
+          <a:ext cx="4584700" cy="3438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -15115,6 +16455,2087 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B7B448-A55C-4F0E-BBCA-FD1458C6E877}">
+  <dimension ref="A1:Q152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="14" max="15" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P65" si="0" xml:space="preserve"> 1+N2</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q65" si="1" xml:space="preserve"> 100- (100*O2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.78125</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>21.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0.59375</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>40.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0.484375</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>51.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>0.34375</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.328125</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.34375</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>0.296875</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>0.328125</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>0.265625</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>0.3125</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>0.28125</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>0.296875</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>0.28125</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0.359375</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>0.390625</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>0.28125</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>0.34375</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>65.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>0.1875</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>0.265625</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>0.296875</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>0.390625</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>0.359375</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>0.265625</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>0.234375</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>0.328125</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N28">
+        <v>26</v>
+      </c>
+      <c r="O28">
+        <v>0.28125</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <v>0.421875</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>57.8125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N30">
+        <v>28</v>
+      </c>
+      <c r="O30">
+        <v>0.25</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="N31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>0.328125</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>0.265625</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="33" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N33">
+        <v>31</v>
+      </c>
+      <c r="O33">
+        <v>0.359375</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="34" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N34">
+        <v>32</v>
+      </c>
+      <c r="O34">
+        <v>0.375</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="35" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N35">
+        <v>33</v>
+      </c>
+      <c r="O35">
+        <v>0.25</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N36">
+        <v>34</v>
+      </c>
+      <c r="O36">
+        <v>0.203125</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="37" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37">
+        <v>0.3125</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="38" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N38">
+        <v>36</v>
+      </c>
+      <c r="O38">
+        <v>0.1875</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="39" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N39">
+        <v>37</v>
+      </c>
+      <c r="O39">
+        <v>0.28125</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="40" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N40">
+        <v>38</v>
+      </c>
+      <c r="O40">
+        <v>0.203125</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="41" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N41">
+        <v>39</v>
+      </c>
+      <c r="O41">
+        <v>0.265625</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="42" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N42">
+        <v>40</v>
+      </c>
+      <c r="O42">
+        <v>0.234375</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="43" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N43">
+        <v>41</v>
+      </c>
+      <c r="O43">
+        <v>0.234375</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="44" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N44">
+        <v>42</v>
+      </c>
+      <c r="O44">
+        <v>0.21875</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="45" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N45">
+        <v>43</v>
+      </c>
+      <c r="O45">
+        <v>0.28125</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="46" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N46">
+        <v>44</v>
+      </c>
+      <c r="O46">
+        <v>0.203125</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="47" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N47">
+        <v>45</v>
+      </c>
+      <c r="O47">
+        <v>0.25</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N48">
+        <v>46</v>
+      </c>
+      <c r="O48">
+        <v>0.171875</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N49">
+        <v>47</v>
+      </c>
+      <c r="O49">
+        <v>0.171875</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>48</v>
+      </c>
+      <c r="O50">
+        <v>0.1875</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N51">
+        <v>49</v>
+      </c>
+      <c r="O51">
+        <v>0.203125</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>0.234375</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N53">
+        <v>51</v>
+      </c>
+      <c r="O53">
+        <v>0.25</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N54">
+        <v>52</v>
+      </c>
+      <c r="O54">
+        <v>0.203125</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N55">
+        <v>53</v>
+      </c>
+      <c r="O55">
+        <v>0.21875</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N56">
+        <v>54</v>
+      </c>
+      <c r="O56">
+        <v>0.203125</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N57">
+        <v>55</v>
+      </c>
+      <c r="O57">
+        <v>0.15625</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N58">
+        <v>56</v>
+      </c>
+      <c r="O58">
+        <v>0.140625</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N59">
+        <v>57</v>
+      </c>
+      <c r="O59">
+        <v>0.15625</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N60">
+        <v>58</v>
+      </c>
+      <c r="O60">
+        <v>0.171875</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N61">
+        <v>59</v>
+      </c>
+      <c r="O61">
+        <v>0.203125</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N62">
+        <v>60</v>
+      </c>
+      <c r="O62">
+        <v>0.15625</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N63">
+        <v>61</v>
+      </c>
+      <c r="O63">
+        <v>0.234375</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>76.5625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N64">
+        <v>62</v>
+      </c>
+      <c r="O64">
+        <v>0.21875</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N65">
+        <v>63</v>
+      </c>
+      <c r="O65">
+        <v>0.171875</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N66">
+        <v>64</v>
+      </c>
+      <c r="O66">
+        <v>0.171875</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ref="P66:P101" si="2" xml:space="preserve"> 1+N66</f>
+        <v>65</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ref="Q66:Q101" si="3" xml:space="preserve"> 100- (100*O66)</f>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N67">
+        <v>65</v>
+      </c>
+      <c r="O67">
+        <v>0.140625</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N68">
+        <v>66</v>
+      </c>
+      <c r="O68">
+        <v>0.140625</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N69">
+        <v>67</v>
+      </c>
+      <c r="O69">
+        <v>0.125</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N70">
+        <v>68</v>
+      </c>
+      <c r="O70">
+        <v>0.140625</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N71">
+        <v>69</v>
+      </c>
+      <c r="O71">
+        <v>0.15625</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N72">
+        <v>70</v>
+      </c>
+      <c r="O72">
+        <v>0.15625</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N73">
+        <v>71</v>
+      </c>
+      <c r="O73">
+        <v>0.1875</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N74">
+        <v>72</v>
+      </c>
+      <c r="O74">
+        <v>0.125</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N75">
+        <v>73</v>
+      </c>
+      <c r="O75">
+        <v>0.140625</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N76">
+        <v>74</v>
+      </c>
+      <c r="O76">
+        <v>0.21875</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N77">
+        <v>75</v>
+      </c>
+      <c r="O77">
+        <v>0.125</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N78">
+        <v>76</v>
+      </c>
+      <c r="O78">
+        <v>0.125</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N79">
+        <v>77</v>
+      </c>
+      <c r="O79">
+        <v>0.15625</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N80">
+        <v>78</v>
+      </c>
+      <c r="O80">
+        <v>0.140625</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="81" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N81">
+        <v>79</v>
+      </c>
+      <c r="O81">
+        <v>0.125</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="82" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N82">
+        <v>80</v>
+      </c>
+      <c r="O82">
+        <v>0.171875</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="83" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N83">
+        <v>81</v>
+      </c>
+      <c r="O83">
+        <v>0.171875</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="84" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N84">
+        <v>82</v>
+      </c>
+      <c r="O84">
+        <v>0.171875</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="85" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N85">
+        <v>83</v>
+      </c>
+      <c r="O85">
+        <v>0.15625</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="86" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N86">
+        <v>84</v>
+      </c>
+      <c r="O86">
+        <v>0.125</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="87" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N87">
+        <v>85</v>
+      </c>
+      <c r="O87">
+        <v>0.140625</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="88" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N88">
+        <v>86</v>
+      </c>
+      <c r="O88">
+        <v>0.171875</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="89" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N89">
+        <v>87</v>
+      </c>
+      <c r="O89">
+        <v>0.15625</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="90" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N90">
+        <v>88</v>
+      </c>
+      <c r="O90">
+        <v>0.140625</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="91" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N91">
+        <v>89</v>
+      </c>
+      <c r="O91">
+        <v>0.15625</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="92" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N92">
+        <v>90</v>
+      </c>
+      <c r="O92">
+        <v>0.15625</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="93" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N93">
+        <v>91</v>
+      </c>
+      <c r="O93">
+        <v>0.140625</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="94" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N94">
+        <v>92</v>
+      </c>
+      <c r="O94">
+        <v>0.15625</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="95" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N95">
+        <v>93</v>
+      </c>
+      <c r="O95">
+        <v>0.140625</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="96" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N96">
+        <v>94</v>
+      </c>
+      <c r="O96">
+        <v>0.140625</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="97" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N97">
+        <v>95</v>
+      </c>
+      <c r="O97">
+        <v>0.125</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="98" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N98">
+        <v>96</v>
+      </c>
+      <c r="O98">
+        <v>0.140625</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="99" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N99">
+        <v>97</v>
+      </c>
+      <c r="O99">
+        <v>0.140625</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="100" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N100">
+        <v>98</v>
+      </c>
+      <c r="O100">
+        <v>0.140625</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="101" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N101">
+        <v>99</v>
+      </c>
+      <c r="O101">
+        <v>0.125</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="102" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N102" t="s">
+        <v>24</v>
+      </c>
+      <c r="O102">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="103" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N103" t="s">
+        <v>24</v>
+      </c>
+      <c r="O103">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="104" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N104" t="s">
+        <v>24</v>
+      </c>
+      <c r="O104">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N105" t="s">
+        <v>24</v>
+      </c>
+      <c r="O105">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="106" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N106" t="s">
+        <v>24</v>
+      </c>
+      <c r="O106">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="107" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N107" t="s">
+        <v>24</v>
+      </c>
+      <c r="O107">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="108" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N108" t="s">
+        <v>24</v>
+      </c>
+      <c r="O108">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="109" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N109" t="s">
+        <v>24</v>
+      </c>
+      <c r="O109">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="110" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N110" t="s">
+        <v>24</v>
+      </c>
+      <c r="O110">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="111" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N111" t="s">
+        <v>24</v>
+      </c>
+      <c r="O111">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="112" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N112" t="s">
+        <v>24</v>
+      </c>
+      <c r="O112">
+        <v>7.8125E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N113" t="s">
+        <v>24</v>
+      </c>
+      <c r="O113">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="114" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N114" t="s">
+        <v>24</v>
+      </c>
+      <c r="O114">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="115" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N115" t="s">
+        <v>24</v>
+      </c>
+      <c r="O115">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N116" t="s">
+        <v>24</v>
+      </c>
+      <c r="O116">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="117" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N117" t="s">
+        <v>24</v>
+      </c>
+      <c r="O117">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="118" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N118" t="s">
+        <v>24</v>
+      </c>
+      <c r="O118">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="119" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N119" t="s">
+        <v>24</v>
+      </c>
+      <c r="O119">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="120" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N120" t="s">
+        <v>24</v>
+      </c>
+      <c r="O120">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="121" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N121" t="s">
+        <v>24</v>
+      </c>
+      <c r="O121">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="122" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N122" t="s">
+        <v>24</v>
+      </c>
+      <c r="O122">
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N123" t="s">
+        <v>24</v>
+      </c>
+      <c r="O123">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="124" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N124" t="s">
+        <v>24</v>
+      </c>
+      <c r="O124">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="125" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N125" t="s">
+        <v>24</v>
+      </c>
+      <c r="O125">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="126" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N126" t="s">
+        <v>24</v>
+      </c>
+      <c r="O126">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="127" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N127" t="s">
+        <v>24</v>
+      </c>
+      <c r="O127">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="128" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N128" t="s">
+        <v>24</v>
+      </c>
+      <c r="O128">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="129" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N129" t="s">
+        <v>24</v>
+      </c>
+      <c r="O129">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="130" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N130" t="s">
+        <v>24</v>
+      </c>
+      <c r="O130">
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="131" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N131" t="s">
+        <v>24</v>
+      </c>
+      <c r="O131">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="132" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N132" t="s">
+        <v>24</v>
+      </c>
+      <c r="O132">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="133" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N133" t="s">
+        <v>24</v>
+      </c>
+      <c r="O133">
+        <v>0.171875</v>
+      </c>
+    </row>
+    <row r="134" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N134" t="s">
+        <v>24</v>
+      </c>
+      <c r="O134">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="135" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N135" t="s">
+        <v>24</v>
+      </c>
+      <c r="O135">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="136" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N136" t="s">
+        <v>24</v>
+      </c>
+      <c r="O136">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="137" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N137" t="s">
+        <v>24</v>
+      </c>
+      <c r="O137">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="138" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N138" t="s">
+        <v>24</v>
+      </c>
+      <c r="O138">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="139" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N139" t="s">
+        <v>24</v>
+      </c>
+      <c r="O139">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="140" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N140" t="s">
+        <v>24</v>
+      </c>
+      <c r="O140">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="141" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N141" t="s">
+        <v>24</v>
+      </c>
+      <c r="O141">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="142" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N142" t="s">
+        <v>24</v>
+      </c>
+      <c r="O142">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="143" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N143" t="s">
+        <v>24</v>
+      </c>
+      <c r="O143">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="144" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N144" t="s">
+        <v>24</v>
+      </c>
+      <c r="O144">
+        <v>0.109375</v>
+      </c>
+    </row>
+    <row r="145" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N145" t="s">
+        <v>24</v>
+      </c>
+      <c r="O145">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="146" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N146" t="s">
+        <v>24</v>
+      </c>
+      <c r="O146">
+        <v>0.234375</v>
+      </c>
+    </row>
+    <row r="147" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N147" t="s">
+        <v>24</v>
+      </c>
+      <c r="O147">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="148" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N148" t="s">
+        <v>24</v>
+      </c>
+      <c r="O148">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="149" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N149" t="s">
+        <v>24</v>
+      </c>
+      <c r="O149">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="150" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N150" t="s">
+        <v>24</v>
+      </c>
+      <c r="O150">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="151" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N151" t="s">
+        <v>24</v>
+      </c>
+      <c r="O151">
+        <v>0.140625</v>
+      </c>
+    </row>
+    <row r="152" spans="14:15" x14ac:dyDescent="0.45">
+      <c r="N152" t="s">
+        <v>24</v>
+      </c>
+      <c r="O152">
+        <v>0.12727272727272729</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A31:C31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42A3482-7D09-4F3F-AF59-DD60F42082D0}">
   <dimension ref="A1:Q101"/>
@@ -25151,7 +28572,7 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="I21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26824,7 +30245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA7B308-3729-4C11-BC0A-F4CF89EFB05F}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>

--- a/Architecture Results.xlsx
+++ b/Architecture Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D823D-8D08-4F34-8039-4C209D2ECC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301C8F70-545A-408E-846C-3C393BA119EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="6" activeTab="9" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="7" activeTab="10" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Two SeperableConv1D" sheetId="9" r:id="rId8"/>
     <sheet name="Three SeperableConv1D" sheetId="10" r:id="rId9"/>
     <sheet name="Two CNN no attention" sheetId="11" r:id="rId10"/>
+    <sheet name="Final Architecture" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -12182,6 +12183,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28608</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{758AF282-87D9-6D3E-C144-B1EF0157EA7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="542925"/>
+          <a:ext cx="4562508" cy="4381532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -16459,7 +16509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B7B448-A55C-4F0E-BBCA-FD1458C6E877}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -18533,6 +18583,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FFBADF-3EDE-4573-88A9-9FD7A5682279}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Architecture Results.xlsx
+++ b/Architecture Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301C8F70-545A-408E-846C-3C393BA119EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FAA75D-C251-439F-98C3-5162F0241A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="7" activeTab="10" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="8" activeTab="10" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="26">
   <si>
     <t>Epoch</t>
   </si>
@@ -401,6 +401,29 @@
   <si>
     <t>&lt;__main__.DisplayOutputs object at 0x7fce47d49af0&gt;</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Average WRA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 87%</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1570,6 +1593,598 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="989745856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>WRA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Final Architecture'!$Q$2:$Q$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.1875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.9375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.3125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>64.0625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.1875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>73.4375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>71.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>79.6875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>81.25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>82.8125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>85.9375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>84.375</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>89.0625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>92.1875</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90.625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>90.625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E6CE-467A-B86D-FB4909EF788D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1613182175"/>
+        <c:axId val="1613180511"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1613182175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1613180511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1613180511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1613182175"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6304,6 +6919,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7180,6 +7835,522 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12187,23 +13358,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>28608</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38132</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{758AF282-87D9-6D3E-C144-B1EF0157EA7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6847C9-5331-4B05-A561-76DCC8E4F5A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12219,8 +13390,182 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5829300" y="542925"/>
-          <a:ext cx="4562508" cy="4381532"/>
+          <a:off x="0" y="361949"/>
+          <a:ext cx="5124450" cy="5697369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>562989</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3564E044-2E95-4973-84C5-0FF04BB5745D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="385763"/>
+          <a:ext cx="2787077" cy="2676525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>69056</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>40480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82242E6-1F60-ED29-F4F4-8FC371E27F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>164307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD0DC0E-8A18-31FF-6DA8-5E20791A124F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139700" y="9324975"/>
+          <a:ext cx="4194175" cy="3145632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>852526</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>161953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA39DD3-5ABC-D411-DBBB-39B3CDD2DC8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="109537" y="12915900"/>
+          <a:ext cx="5276889" cy="3895753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16509,7 +17854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B7B448-A55C-4F0E-BBCA-FD1458C6E877}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="C17" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -18588,16 +19933,1674 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FFBADF-3EDE-4573-88A9-9FD7A5682279}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="14" max="15" width="11.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P65" si="0" xml:space="preserve"> 1+N2</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q65" si="1" xml:space="preserve"> 100- (100*O2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0.828125</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="1"/>
+        <v>17.1875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0.40625</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>59.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0.390625</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>60.9375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>0.3125</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0.296875</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>0.328125</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>0.296875</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>0.25</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>0.375</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>0.25</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>0.25</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>0.28125</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>0.296875</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>70.3125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>0.328125</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="17" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>0.359375</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>0.375</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="19" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>0.28125</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>0.265625</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="21" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>0.359375</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="22" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>0.21875</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="23" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>0.328125</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>67.1875</v>
+      </c>
+    </row>
+    <row r="24" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>0.25</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>0.21875</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="26" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>0.265625</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="27" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>0.21875</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="28" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N28">
+        <v>26</v>
+      </c>
+      <c r="O28">
+        <v>0.203125</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="29" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <v>0.171875</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="30" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N30">
+        <v>28</v>
+      </c>
+      <c r="O30">
+        <v>0.25</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>0.1875</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="32" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>0.3125</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N33">
+        <v>31</v>
+      </c>
+      <c r="O33">
+        <v>0.15625</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N34">
+        <v>32</v>
+      </c>
+      <c r="O34">
+        <v>0.1875</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="N35">
+        <v>33</v>
+      </c>
+      <c r="O35">
+        <v>0.171875</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N36">
+        <v>34</v>
+      </c>
+      <c r="O36">
+        <v>0.171875</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37">
+        <v>0.15625</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N38">
+        <v>36</v>
+      </c>
+      <c r="O38">
+        <v>0.171875</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N39">
+        <v>37</v>
+      </c>
+      <c r="O39">
+        <v>0.25</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N40">
+        <v>38</v>
+      </c>
+      <c r="O40">
+        <v>0.171875</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N41">
+        <v>39</v>
+      </c>
+      <c r="O41">
+        <v>0.25</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N42">
+        <v>40</v>
+      </c>
+      <c r="O42">
+        <v>0.265625</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>73.4375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N43">
+        <v>41</v>
+      </c>
+      <c r="O43">
+        <v>0.28125</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>71.875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N44">
+        <v>42</v>
+      </c>
+      <c r="O44">
+        <v>0.21875</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>78.125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N45">
+        <v>43</v>
+      </c>
+      <c r="O45">
+        <v>0.1875</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N46">
+        <v>44</v>
+      </c>
+      <c r="O46">
+        <v>0.171875</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N47">
+        <v>45</v>
+      </c>
+      <c r="O47">
+        <v>0.125</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N48">
+        <v>46</v>
+      </c>
+      <c r="O48">
+        <v>0.125</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N49">
+        <v>47</v>
+      </c>
+      <c r="O49">
+        <v>0.140625</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N50">
+        <v>48</v>
+      </c>
+      <c r="O50">
+        <v>0.1875</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N51">
+        <v>49</v>
+      </c>
+      <c r="O51">
+        <v>0.140625</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52">
+        <v>0.171875</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N53">
+        <v>51</v>
+      </c>
+      <c r="O53">
+        <v>0.140625</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N54">
+        <v>52</v>
+      </c>
+      <c r="O54">
+        <v>0.1875</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N55">
+        <v>53</v>
+      </c>
+      <c r="O55">
+        <v>0.140625</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N56">
+        <v>54</v>
+      </c>
+      <c r="O56">
+        <v>0.203125</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>79.6875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N57">
+        <v>55</v>
+      </c>
+      <c r="O57">
+        <v>0.15625</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N58">
+        <v>56</v>
+      </c>
+      <c r="O58">
+        <v>0.1875</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N59">
+        <v>57</v>
+      </c>
+      <c r="O59">
+        <v>0.171875</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N60">
+        <v>58</v>
+      </c>
+      <c r="O60">
+        <v>0.140625</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N61">
+        <v>59</v>
+      </c>
+      <c r="O61">
+        <v>0.1875</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N62">
+        <v>60</v>
+      </c>
+      <c r="O62">
+        <v>0.140625</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N63">
+        <v>61</v>
+      </c>
+      <c r="O63">
+        <v>0.25</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N64">
+        <v>62</v>
+      </c>
+      <c r="O64">
+        <v>0.15625</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N65">
+        <v>63</v>
+      </c>
+      <c r="O65">
+        <v>0.125</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N66">
+        <v>64</v>
+      </c>
+      <c r="O66">
+        <v>0.109375</v>
+      </c>
+      <c r="P66">
+        <f t="shared" ref="P66:P101" si="2" xml:space="preserve"> 1+N66</f>
+        <v>65</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ref="Q66:Q101" si="3" xml:space="preserve"> 100- (100*O66)</f>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N67">
+        <v>65</v>
+      </c>
+      <c r="O67">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N68">
+        <v>66</v>
+      </c>
+      <c r="O68">
+        <v>0.140625</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N69">
+        <v>67</v>
+      </c>
+      <c r="O69">
+        <v>0.125</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N70">
+        <v>68</v>
+      </c>
+      <c r="O70">
+        <v>0.1875</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N71">
+        <v>69</v>
+      </c>
+      <c r="O71">
+        <v>0.140625</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N72">
+        <v>70</v>
+      </c>
+      <c r="O72">
+        <v>0.140625</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N73">
+        <v>71</v>
+      </c>
+      <c r="O73">
+        <v>0.171875</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>82.8125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N74">
+        <v>72</v>
+      </c>
+      <c r="O74">
+        <v>0.125</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N75">
+        <v>73</v>
+      </c>
+      <c r="O75">
+        <v>0.15625</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N76">
+        <v>74</v>
+      </c>
+      <c r="O76">
+        <v>0.125</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N77">
+        <v>75</v>
+      </c>
+      <c r="O77">
+        <v>0.140625</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N78">
+        <v>76</v>
+      </c>
+      <c r="O78">
+        <v>0.15625</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N79">
+        <v>77</v>
+      </c>
+      <c r="O79">
+        <v>0.125</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="N80">
+        <v>78</v>
+      </c>
+      <c r="O80">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="81" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N81">
+        <v>79</v>
+      </c>
+      <c r="O81">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="82" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N82">
+        <v>80</v>
+      </c>
+      <c r="O82">
+        <v>0.109375</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="83" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N83">
+        <v>81</v>
+      </c>
+      <c r="O83">
+        <v>0.109375</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="84" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N84">
+        <v>82</v>
+      </c>
+      <c r="O84">
+        <v>0.109375</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="85" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N85">
+        <v>83</v>
+      </c>
+      <c r="O85">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="86" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N86">
+        <v>84</v>
+      </c>
+      <c r="O86">
+        <v>0.109375</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="87" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N87">
+        <v>85</v>
+      </c>
+      <c r="O87">
+        <v>0.140625</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="88" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N88">
+        <v>86</v>
+      </c>
+      <c r="O88">
+        <v>0.109375</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="89" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N89">
+        <v>87</v>
+      </c>
+      <c r="O89">
+        <v>0.140625</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+    </row>
+    <row r="90" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N90">
+        <v>88</v>
+      </c>
+      <c r="O90">
+        <v>0.15625</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="3"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="91" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N91">
+        <v>89</v>
+      </c>
+      <c r="O91">
+        <v>0.125</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="92" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N92">
+        <v>90</v>
+      </c>
+      <c r="O92">
+        <v>0.125</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="93" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N93">
+        <v>91</v>
+      </c>
+      <c r="O93">
+        <v>0.109375</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="3"/>
+        <v>89.0625</v>
+      </c>
+    </row>
+    <row r="94" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N94">
+        <v>92</v>
+      </c>
+      <c r="O94">
+        <v>0.125</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="95" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N95">
+        <v>93</v>
+      </c>
+      <c r="O95">
+        <v>7.8125E-2</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="3"/>
+        <v>92.1875</v>
+      </c>
+    </row>
+    <row r="96" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N96">
+        <v>94</v>
+      </c>
+      <c r="O96">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="97" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N97">
+        <v>95</v>
+      </c>
+      <c r="O97">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="98" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N98">
+        <v>96</v>
+      </c>
+      <c r="O98">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="99" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N99">
+        <v>97</v>
+      </c>
+      <c r="O99">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="100" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N100">
+        <v>98</v>
+      </c>
+      <c r="O100">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+    <row r="101" spans="14:17" x14ac:dyDescent="0.45">
+      <c r="N101">
+        <v>99</v>
+      </c>
+      <c r="O101">
+        <v>9.375E-2</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A35:C35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Architecture Results.xlsx
+++ b/Architecture Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhvan\Documents\GitHub\P4P-Transformer-ASR-for-Dysarthric-Speech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FAA75D-C251-439F-98C3-5162F0241A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AEEC7E-3B43-4A9C-B054-03D7D11D68CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="8" activeTab="10" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="7" activeTab="10" xr2:uid="{F3772A71-172C-4ED6-AC0D-C3E3246A237C}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -475,6 +475,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19935,8 +19936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FFBADF-3EDE-4573-88A9-9FD7A5682279}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31639,8 +31640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D253EA24-3698-4B43-BE44-480E7A4B042B}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="159" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31676,16 +31677,16 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
       <c r="N2">
         <v>0</v>
       </c>
@@ -33297,10 +33298,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:H2"/>
     <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
